--- a/BackTest/2020-01-16 BackTest FX.xlsx
+++ b/BackTest/2020-01-16 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>60.1</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>60.1</v>
       </c>
       <c r="D2" t="n">
         <v>60.1</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>60.1</v>
       </c>
       <c r="F2" t="n">
-        <v>28527.4953</v>
+        <v>108.0354</v>
       </c>
       <c r="G2" t="n">
-        <v>62.30033333333331</v>
+        <v>62.37366666666664</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,29 +471,35 @@
         <v>60.1</v>
       </c>
       <c r="C3" t="n">
-        <v>60.1</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
         <v>60.1</v>
       </c>
       <c r="E3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28527.4953</v>
+      </c>
+      <c r="G3" t="n">
+        <v>62.30033333333331</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>60.1</v>
       </c>
-      <c r="F3" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G3" t="n">
-        <v>62.22716666666665</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -503,32 +509,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>60.8</v>
+        <v>60.1</v>
       </c>
       <c r="C4" t="n">
-        <v>60.8</v>
+        <v>60.1</v>
       </c>
       <c r="D4" t="n">
-        <v>60.8</v>
+        <v>60.1</v>
       </c>
       <c r="E4" t="n">
-        <v>60.8</v>
+        <v>60.1</v>
       </c>
       <c r="F4" t="n">
-        <v>2812.6433</v>
+        <v>1500</v>
       </c>
       <c r="G4" t="n">
-        <v>62.16549999999998</v>
+        <v>62.22716666666665</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>60</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,36 +550,36 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60.99</v>
+        <v>60.8</v>
       </c>
       <c r="C5" t="n">
-        <v>60.99</v>
+        <v>60.8</v>
       </c>
       <c r="D5" t="n">
-        <v>60.99</v>
+        <v>60.8</v>
       </c>
       <c r="E5" t="n">
-        <v>60.99</v>
+        <v>60.8</v>
       </c>
       <c r="F5" t="n">
-        <v>12314.4668</v>
+        <v>2812.6433</v>
       </c>
       <c r="G5" t="n">
-        <v>62.10699999999998</v>
+        <v>62.16549999999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -589,26 +601,22 @@
         <v>60.99</v>
       </c>
       <c r="F6" t="n">
-        <v>7412.1484</v>
+        <v>12314.4668</v>
       </c>
       <c r="G6" t="n">
-        <v>62.04666666666664</v>
+        <v>62.10699999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>60.99</v>
-      </c>
-      <c r="K6" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -620,38 +628,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60.23</v>
+        <v>60.99</v>
       </c>
       <c r="C7" t="n">
-        <v>60.21</v>
+        <v>60.99</v>
       </c>
       <c r="D7" t="n">
-        <v>60.23</v>
+        <v>60.99</v>
       </c>
       <c r="E7" t="n">
-        <v>60.21</v>
+        <v>60.99</v>
       </c>
       <c r="F7" t="n">
-        <v>20000</v>
+        <v>7412.1484</v>
       </c>
       <c r="G7" t="n">
-        <v>61.97283333333331</v>
+        <v>62.04666666666664</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>60.99</v>
-      </c>
-      <c r="K7" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -663,35 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>60.22</v>
+        <v>60.23</v>
       </c>
       <c r="C8" t="n">
-        <v>60.11</v>
+        <v>60.21</v>
       </c>
       <c r="D8" t="n">
-        <v>60.22</v>
+        <v>60.23</v>
       </c>
       <c r="E8" t="n">
-        <v>60.11</v>
+        <v>60.21</v>
       </c>
       <c r="F8" t="n">
         <v>20000</v>
       </c>
       <c r="G8" t="n">
-        <v>61.89183333333332</v>
+        <v>61.97283333333331</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>60.21</v>
-      </c>
-      <c r="K8" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -706,35 +706,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60.9</v>
+        <v>60.22</v>
       </c>
       <c r="C9" t="n">
-        <v>60.9</v>
+        <v>60.11</v>
       </c>
       <c r="D9" t="n">
-        <v>60.9</v>
+        <v>60.22</v>
       </c>
       <c r="E9" t="n">
-        <v>60.9</v>
+        <v>60.11</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="G9" t="n">
-        <v>61.82183333333332</v>
+        <v>61.89183333333332</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>60.11</v>
-      </c>
-      <c r="K9" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -749,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>60.7</v>
+        <v>60.9</v>
       </c>
       <c r="C10" t="n">
         <v>60.9</v>
@@ -758,13 +754,13 @@
         <v>60.9</v>
       </c>
       <c r="E10" t="n">
-        <v>60.7</v>
+        <v>60.9</v>
       </c>
       <c r="F10" t="n">
-        <v>13778.9712</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>61.75183333333332</v>
+        <v>61.82183333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -773,9 +769,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -790,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>60.9</v>
+        <v>60.7</v>
       </c>
       <c r="C11" t="n">
         <v>60.9</v>
@@ -799,13 +793,13 @@
         <v>60.9</v>
       </c>
       <c r="E11" t="n">
-        <v>60.9</v>
+        <v>60.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1135.5021</v>
+        <v>13778.9712</v>
       </c>
       <c r="G11" t="n">
-        <v>61.68183333333332</v>
+        <v>61.75183333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -814,9 +808,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -834,19 +826,19 @@
         <v>60.9</v>
       </c>
       <c r="C12" t="n">
-        <v>61</v>
+        <v>60.9</v>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>60.9</v>
       </c>
       <c r="E12" t="n">
         <v>60.9</v>
       </c>
       <c r="F12" t="n">
-        <v>28933.0571</v>
+        <v>1135.5021</v>
       </c>
       <c r="G12" t="n">
-        <v>61.61349999999999</v>
+        <v>61.68183333333332</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -855,9 +847,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -872,22 +862,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="C13" t="n">
         <v>61</v>
       </c>
-      <c r="C13" t="n">
-        <v>61.58</v>
-      </c>
       <c r="D13" t="n">
-        <v>61.58</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
-        <v>61</v>
+        <v>60.9</v>
       </c>
       <c r="F13" t="n">
-        <v>56022.6543</v>
+        <v>28933.0571</v>
       </c>
       <c r="G13" t="n">
-        <v>61.60283333333333</v>
+        <v>61.61349999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -896,9 +886,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -913,22 +901,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>61.9</v>
+        <v>61</v>
       </c>
       <c r="C14" t="n">
-        <v>61.9</v>
+        <v>61.58</v>
       </c>
       <c r="D14" t="n">
-        <v>61.9</v>
+        <v>61.58</v>
       </c>
       <c r="E14" t="n">
-        <v>61.9</v>
+        <v>61</v>
       </c>
       <c r="F14" t="n">
-        <v>360</v>
+        <v>56022.6543</v>
       </c>
       <c r="G14" t="n">
-        <v>61.5905</v>
+        <v>61.60283333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -937,9 +925,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -966,10 +952,10 @@
         <v>61.9</v>
       </c>
       <c r="F15" t="n">
-        <v>17777</v>
+        <v>360</v>
       </c>
       <c r="G15" t="n">
-        <v>61.56866666666667</v>
+        <v>61.5905</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -978,9 +964,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1007,10 +991,10 @@
         <v>61.9</v>
       </c>
       <c r="F16" t="n">
-        <v>13778.9712</v>
+        <v>17777</v>
       </c>
       <c r="G16" t="n">
-        <v>61.5485</v>
+        <v>61.56866666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1019,9 +1003,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1048,10 +1030,10 @@
         <v>61.9</v>
       </c>
       <c r="F17" t="n">
-        <v>40564.1053</v>
+        <v>13778.9712</v>
       </c>
       <c r="G17" t="n">
-        <v>61.52833333333333</v>
+        <v>61.5485</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1060,9 +1042,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1077,22 +1057,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>62</v>
+        <v>61.9</v>
       </c>
       <c r="C18" t="n">
-        <v>62.69</v>
+        <v>61.9</v>
       </c>
       <c r="D18" t="n">
-        <v>62.69</v>
+        <v>61.9</v>
       </c>
       <c r="E18" t="n">
-        <v>62</v>
+        <v>61.9</v>
       </c>
       <c r="F18" t="n">
-        <v>499.4710367203701</v>
+        <v>40564.1053</v>
       </c>
       <c r="G18" t="n">
-        <v>61.52133333333333</v>
+        <v>61.52833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1101,9 +1081,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1121,19 +1099,19 @@
         <v>62</v>
       </c>
       <c r="C19" t="n">
-        <v>61.9</v>
+        <v>62.69</v>
       </c>
       <c r="D19" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="E19" t="n">
         <v>62</v>
       </c>
-      <c r="E19" t="n">
-        <v>61.9</v>
-      </c>
       <c r="F19" t="n">
-        <v>22000</v>
+        <v>499.4710367203701</v>
       </c>
       <c r="G19" t="n">
-        <v>61.518</v>
+        <v>61.52133333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1142,9 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1159,22 +1135,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>62.5</v>
+        <v>62</v>
       </c>
       <c r="C20" t="n">
         <v>61.9</v>
       </c>
       <c r="D20" t="n">
-        <v>62.5</v>
+        <v>62</v>
       </c>
       <c r="E20" t="n">
         <v>61.9</v>
       </c>
       <c r="F20" t="n">
-        <v>26904.2712</v>
+        <v>22000</v>
       </c>
       <c r="G20" t="n">
-        <v>61.51466666666667</v>
+        <v>61.518</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1183,9 +1159,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1200,22 +1174,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>61.9</v>
+        <v>62.5</v>
       </c>
       <c r="C21" t="n">
         <v>61.9</v>
       </c>
       <c r="D21" t="n">
-        <v>61.9</v>
+        <v>62.5</v>
       </c>
       <c r="E21" t="n">
         <v>61.9</v>
       </c>
       <c r="F21" t="n">
-        <v>1545.2525</v>
+        <v>26904.2712</v>
       </c>
       <c r="G21" t="n">
-        <v>61.48133333333333</v>
+        <v>61.51466666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1224,9 +1198,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1244,19 +1216,19 @@
         <v>61.9</v>
       </c>
       <c r="C22" t="n">
-        <v>62.4</v>
+        <v>61.9</v>
       </c>
       <c r="D22" t="n">
-        <v>62.4</v>
+        <v>61.9</v>
       </c>
       <c r="E22" t="n">
         <v>61.9</v>
       </c>
       <c r="F22" t="n">
-        <v>50009</v>
+        <v>1545.2525</v>
       </c>
       <c r="G22" t="n">
-        <v>61.48616666666667</v>
+        <v>61.48133333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1265,9 +1237,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1285,19 +1255,19 @@
         <v>61.9</v>
       </c>
       <c r="C23" t="n">
-        <v>61.9</v>
+        <v>62.4</v>
       </c>
       <c r="D23" t="n">
-        <v>61.9</v>
+        <v>62.4</v>
       </c>
       <c r="E23" t="n">
         <v>61.9</v>
       </c>
       <c r="F23" t="n">
-        <v>73621.5073</v>
+        <v>50009</v>
       </c>
       <c r="G23" t="n">
-        <v>61.4845</v>
+        <v>61.48616666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1306,9 +1276,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1323,22 +1291,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>61.2</v>
+        <v>61.9</v>
       </c>
       <c r="C24" t="n">
-        <v>61.89</v>
+        <v>61.9</v>
       </c>
       <c r="D24" t="n">
-        <v>61.89</v>
+        <v>61.9</v>
       </c>
       <c r="E24" t="n">
-        <v>61.2</v>
+        <v>61.9</v>
       </c>
       <c r="F24" t="n">
-        <v>5245.5706</v>
+        <v>73621.5073</v>
       </c>
       <c r="G24" t="n">
-        <v>61.48266666666667</v>
+        <v>61.4845</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1347,9 +1315,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1364,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>61.89</v>
+        <v>61.2</v>
       </c>
       <c r="C25" t="n">
         <v>61.89</v>
@@ -1373,13 +1339,13 @@
         <v>61.89</v>
       </c>
       <c r="E25" t="n">
-        <v>61.89</v>
+        <v>61.2</v>
       </c>
       <c r="F25" t="n">
-        <v>4343.7821</v>
+        <v>5245.5706</v>
       </c>
       <c r="G25" t="n">
-        <v>61.481</v>
+        <v>61.48266666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1388,9 +1354,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1405,22 +1369,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>62.29</v>
+        <v>61.89</v>
       </c>
       <c r="C26" t="n">
-        <v>62.29</v>
+        <v>61.89</v>
       </c>
       <c r="D26" t="n">
-        <v>62.29</v>
+        <v>61.89</v>
       </c>
       <c r="E26" t="n">
-        <v>62.29</v>
+        <v>61.89</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>4343.7821</v>
       </c>
       <c r="G26" t="n">
-        <v>61.486</v>
+        <v>61.481</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1429,9 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1446,22 +1408,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>62.06</v>
+        <v>62.29</v>
       </c>
       <c r="C27" t="n">
-        <v>62.06</v>
+        <v>62.29</v>
       </c>
       <c r="D27" t="n">
-        <v>62.06</v>
+        <v>62.29</v>
       </c>
       <c r="E27" t="n">
-        <v>62.06</v>
+        <v>62.29</v>
       </c>
       <c r="F27" t="n">
-        <v>285.5341</v>
+        <v>9</v>
       </c>
       <c r="G27" t="n">
-        <v>61.48866666666667</v>
+        <v>61.486</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1470,9 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1499,10 +1459,10 @@
         <v>62.06</v>
       </c>
       <c r="F28" t="n">
-        <v>74.5838</v>
+        <v>285.5341</v>
       </c>
       <c r="G28" t="n">
-        <v>61.49633333333334</v>
+        <v>61.48866666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1511,9 +1471,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1528,22 +1486,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>61</v>
+        <v>62.06</v>
       </c>
       <c r="C29" t="n">
-        <v>61</v>
+        <v>62.06</v>
       </c>
       <c r="D29" t="n">
-        <v>61</v>
+        <v>62.06</v>
       </c>
       <c r="E29" t="n">
-        <v>61</v>
+        <v>62.06</v>
       </c>
       <c r="F29" t="n">
-        <v>3925.4162</v>
+        <v>74.5838</v>
       </c>
       <c r="G29" t="n">
-        <v>61.48833333333334</v>
+        <v>61.49633333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1552,9 +1510,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1569,22 +1525,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>62.07</v>
+        <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>62.07</v>
+        <v>61</v>
       </c>
       <c r="D30" t="n">
-        <v>62.07</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
-        <v>62.07</v>
+        <v>61</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>3925.4162</v>
       </c>
       <c r="G30" t="n">
-        <v>61.49916666666667</v>
+        <v>61.48833333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1593,9 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1610,22 +1564,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>61.01</v>
+        <v>62.07</v>
       </c>
       <c r="C31" t="n">
-        <v>61.01</v>
+        <v>62.07</v>
       </c>
       <c r="D31" t="n">
-        <v>61.01</v>
+        <v>62.07</v>
       </c>
       <c r="E31" t="n">
-        <v>61.01</v>
+        <v>62.07</v>
       </c>
       <c r="F31" t="n">
-        <v>5108.6068</v>
+        <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>61.46883333333334</v>
+        <v>61.49916666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1634,9 +1588,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1651,22 +1603,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>61.99</v>
+        <v>61.01</v>
       </c>
       <c r="C32" t="n">
-        <v>61.99</v>
+        <v>61.01</v>
       </c>
       <c r="D32" t="n">
-        <v>61.99</v>
+        <v>61.01</v>
       </c>
       <c r="E32" t="n">
-        <v>61.99</v>
+        <v>61.01</v>
       </c>
       <c r="F32" t="n">
         <v>5108.6068</v>
       </c>
       <c r="G32" t="n">
-        <v>61.45700000000001</v>
+        <v>61.46883333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1675,9 +1627,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1692,22 +1642,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>62.07</v>
+        <v>61.99</v>
       </c>
       <c r="C33" t="n">
-        <v>63.5</v>
+        <v>61.99</v>
       </c>
       <c r="D33" t="n">
-        <v>63.5</v>
+        <v>61.99</v>
       </c>
       <c r="E33" t="n">
-        <v>62.07</v>
+        <v>61.99</v>
       </c>
       <c r="F33" t="n">
-        <v>22852.9305</v>
+        <v>5108.6068</v>
       </c>
       <c r="G33" t="n">
-        <v>61.47033333333334</v>
+        <v>61.45700000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1716,9 +1666,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1733,22 +1681,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="C34" t="n">
         <v>63.5</v>
       </c>
-      <c r="C34" t="n">
-        <v>64</v>
-      </c>
       <c r="D34" t="n">
-        <v>64</v>
+        <v>63.5</v>
       </c>
       <c r="E34" t="n">
-        <v>63.5</v>
+        <v>62.07</v>
       </c>
       <c r="F34" t="n">
-        <v>15417.58419485938</v>
+        <v>22852.9305</v>
       </c>
       <c r="G34" t="n">
-        <v>61.49200000000001</v>
+        <v>61.47033333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1757,9 +1705,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1774,22 +1720,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>64.09999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="C35" t="n">
-        <v>64.95999999999999</v>
+        <v>64</v>
       </c>
       <c r="D35" t="n">
-        <v>64.95999999999999</v>
+        <v>64</v>
       </c>
       <c r="E35" t="n">
-        <v>64.09999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="F35" t="n">
-        <v>2089.7643</v>
+        <v>15417.58419485938</v>
       </c>
       <c r="G35" t="n">
-        <v>61.54966666666668</v>
+        <v>61.49200000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1798,9 +1744,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1815,22 +1759,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="C36" t="n">
         <v>64.95999999999999</v>
       </c>
-      <c r="C36" t="n">
-        <v>64.98</v>
-      </c>
       <c r="D36" t="n">
-        <v>64.98</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>64.95999999999999</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>44764.6904</v>
+        <v>2089.7643</v>
       </c>
       <c r="G36" t="n">
-        <v>61.58783333333335</v>
+        <v>61.54966666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1839,9 +1783,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1856,22 +1798,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>65</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>65</v>
+        <v>64.98</v>
       </c>
       <c r="D37" t="n">
-        <v>65</v>
+        <v>64.98</v>
       </c>
       <c r="E37" t="n">
-        <v>65</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>18406.428</v>
+        <v>44764.6904</v>
       </c>
       <c r="G37" t="n">
-        <v>61.62633333333335</v>
+        <v>61.58783333333335</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1880,9 +1822,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1900,19 +1840,19 @@
         <v>65</v>
       </c>
       <c r="C38" t="n">
-        <v>65.15000000000001</v>
+        <v>65</v>
       </c>
       <c r="D38" t="n">
-        <v>65.15000000000001</v>
+        <v>65</v>
       </c>
       <c r="E38" t="n">
         <v>65</v>
       </c>
       <c r="F38" t="n">
-        <v>1755.3553</v>
+        <v>18406.428</v>
       </c>
       <c r="G38" t="n">
-        <v>61.66733333333335</v>
+        <v>61.62633333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1921,9 +1861,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1938,79 +1876,69 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>65</v>
+      </c>
+      <c r="C39" t="n">
         <v>65.15000000000001</v>
       </c>
-      <c r="C39" t="n">
-        <v>65.84999999999999</v>
-      </c>
       <c r="D39" t="n">
-        <v>65.84999999999999</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>65.15000000000001</v>
+        <v>65</v>
       </c>
       <c r="F39" t="n">
-        <v>24360.8273</v>
+        <v>1755.3553</v>
       </c>
       <c r="G39" t="n">
-        <v>61.72033333333334</v>
+        <v>61.66733333333335</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>60.8</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="C40" t="n">
         <v>65.84999999999999</v>
       </c>
-      <c r="C40" t="n">
-        <v>66.97</v>
-      </c>
       <c r="D40" t="n">
-        <v>66.97</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>65.84999999999999</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>29255.66</v>
+        <v>24360.8273</v>
       </c>
       <c r="G40" t="n">
-        <v>61.79200000000001</v>
+        <v>61.72033333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2020,38 +1948,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="C41" t="n">
         <v>66.97</v>
       </c>
-      <c r="C41" t="n">
-        <v>68.28</v>
-      </c>
       <c r="D41" t="n">
-        <v>68.3</v>
+        <v>66.97</v>
       </c>
       <c r="E41" t="n">
-        <v>66.97</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>99468.24796969253</v>
+        <v>29255.66</v>
       </c>
       <c r="G41" t="n">
-        <v>61.88533333333335</v>
+        <v>61.79200000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2061,38 +1983,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68.28</v>
+        <v>66.97</v>
       </c>
       <c r="C42" t="n">
         <v>68.28</v>
       </c>
       <c r="D42" t="n">
-        <v>68.28</v>
+        <v>68.3</v>
       </c>
       <c r="E42" t="n">
-        <v>68.28</v>
+        <v>66.97</v>
       </c>
       <c r="F42" t="n">
-        <v>2031.835</v>
+        <v>99468.24796969253</v>
       </c>
       <c r="G42" t="n">
-        <v>61.98000000000002</v>
+        <v>61.88533333333335</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2102,22 +2018,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>67.23</v>
+        <v>68.28</v>
       </c>
       <c r="C43" t="n">
-        <v>67.09999999999999</v>
+        <v>68.28</v>
       </c>
       <c r="D43" t="n">
-        <v>67.23</v>
+        <v>68.28</v>
       </c>
       <c r="E43" t="n">
-        <v>67.09999999999999</v>
+        <v>68.28</v>
       </c>
       <c r="F43" t="n">
-        <v>87712.3817</v>
+        <v>2031.835</v>
       </c>
       <c r="G43" t="n">
-        <v>62.07533333333335</v>
+        <v>61.98000000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2126,16 +2042,10 @@
         <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>1.098618421052632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2143,28 +2053,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>65.3</v>
+        <v>67.23</v>
       </c>
       <c r="C44" t="n">
         <v>67.09999999999999</v>
       </c>
       <c r="D44" t="n">
+        <v>67.23</v>
+      </c>
+      <c r="E44" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="E44" t="n">
-        <v>64.7</v>
-      </c>
       <c r="F44" t="n">
-        <v>1755.718</v>
+        <v>87712.3817</v>
       </c>
       <c r="G44" t="n">
-        <v>62.17150000000002</v>
+        <v>62.07533333333335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2178,22 +2088,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67.2</v>
+        <v>65.3</v>
       </c>
       <c r="C45" t="n">
         <v>67.09999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>67.09999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="F45" t="n">
-        <v>7746.0928</v>
+        <v>1755.718</v>
       </c>
       <c r="G45" t="n">
-        <v>62.26766666666668</v>
+        <v>62.17150000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2213,22 +2123,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>66.90000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C46" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>66.90000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="E46" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>2995.3715</v>
+        <v>7746.0928</v>
       </c>
       <c r="G46" t="n">
-        <v>62.36066666666668</v>
+        <v>62.26766666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2248,22 +2158,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>66.91</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>67.02</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>67.02</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>66.91</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>187355.9282</v>
+        <v>2995.3715</v>
       </c>
       <c r="G47" t="n">
-        <v>62.45550000000001</v>
+        <v>62.36066666666668</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2283,22 +2193,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>67.09999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="C48" t="n">
-        <v>68.3</v>
+        <v>67.02</v>
       </c>
       <c r="D48" t="n">
-        <v>68.3</v>
+        <v>67.02</v>
       </c>
       <c r="E48" t="n">
-        <v>67.09999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="F48" t="n">
-        <v>18485.7171</v>
+        <v>187355.9282</v>
       </c>
       <c r="G48" t="n">
-        <v>62.57466666666668</v>
+        <v>62.45550000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2318,22 +2228,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>68</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>68.29000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D49" t="n">
-        <v>68.29000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="E49" t="n">
-        <v>68</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>28808.3138</v>
+        <v>18485.7171</v>
       </c>
       <c r="G49" t="n">
-        <v>62.67783333333335</v>
+        <v>62.57466666666668</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2353,7 +2263,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>68.29000000000001</v>
+        <v>68</v>
       </c>
       <c r="C50" t="n">
         <v>68.29000000000001</v>
@@ -2362,13 +2272,13 @@
         <v>68.29000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>68.29000000000001</v>
+        <v>68</v>
       </c>
       <c r="F50" t="n">
-        <v>3269.4951</v>
+        <v>28808.3138</v>
       </c>
       <c r="G50" t="n">
-        <v>62.77766666666668</v>
+        <v>62.67783333333335</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2391,19 +2301,19 @@
         <v>68.29000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>65.95</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="D51" t="n">
         <v>68.29000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>65.95</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>73072.6073</v>
+        <v>3269.4951</v>
       </c>
       <c r="G51" t="n">
-        <v>62.87016666666668</v>
+        <v>62.77766666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2423,22 +2333,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="C52" t="n">
         <v>65.95</v>
       </c>
-      <c r="C52" t="n">
-        <v>65.8</v>
-      </c>
       <c r="D52" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="E52" t="n">
         <v>65.95</v>
       </c>
-      <c r="E52" t="n">
-        <v>65.8</v>
-      </c>
       <c r="F52" t="n">
-        <v>5838.7845</v>
+        <v>73072.6073</v>
       </c>
       <c r="G52" t="n">
-        <v>62.96283333333335</v>
+        <v>62.87016666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2458,10 +2368,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="C53" t="n">
         <v>65.8</v>
-      </c>
-      <c r="C53" t="n">
-        <v>65.95</v>
       </c>
       <c r="D53" t="n">
         <v>65.95</v>
@@ -2470,10 +2380,10 @@
         <v>65.8</v>
       </c>
       <c r="F53" t="n">
-        <v>9872.293900000001</v>
+        <v>5838.7845</v>
       </c>
       <c r="G53" t="n">
-        <v>63.04533333333335</v>
+        <v>62.96283333333335</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2493,22 +2403,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.3</v>
+        <v>65.8</v>
       </c>
       <c r="C54" t="n">
-        <v>66.3</v>
+        <v>65.95</v>
       </c>
       <c r="D54" t="n">
-        <v>66.3</v>
+        <v>65.95</v>
       </c>
       <c r="E54" t="n">
-        <v>66.15000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="F54" t="n">
-        <v>14264.1239</v>
+        <v>9872.293900000001</v>
       </c>
       <c r="G54" t="n">
-        <v>63.13366666666668</v>
+        <v>63.04533333333335</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2528,22 +2438,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.44</v>
+        <v>66.3</v>
       </c>
       <c r="C55" t="n">
-        <v>66.43000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D55" t="n">
-        <v>66.44</v>
+        <v>66.3</v>
       </c>
       <c r="E55" t="n">
-        <v>66.43000000000001</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>14954.8439</v>
+        <v>14264.1239</v>
       </c>
       <c r="G55" t="n">
-        <v>63.23566666666668</v>
+        <v>63.13366666666668</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2563,22 +2473,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.42</v>
+        <v>66.44</v>
       </c>
       <c r="C56" t="n">
-        <v>66.5</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>66.5</v>
+        <v>66.44</v>
       </c>
       <c r="E56" t="n">
-        <v>66.42</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>3740.9882</v>
+        <v>14954.8439</v>
       </c>
       <c r="G56" t="n">
-        <v>63.32900000000001</v>
+        <v>63.23566666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2601,19 +2511,19 @@
         <v>66.42</v>
       </c>
       <c r="C57" t="n">
-        <v>66.42</v>
+        <v>66.5</v>
       </c>
       <c r="D57" t="n">
-        <v>66.42</v>
+        <v>66.5</v>
       </c>
       <c r="E57" t="n">
         <v>66.42</v>
       </c>
       <c r="F57" t="n">
-        <v>1347.3971</v>
+        <v>3740.9882</v>
       </c>
       <c r="G57" t="n">
-        <v>63.43083333333335</v>
+        <v>63.32900000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2636,19 +2546,19 @@
         <v>66.42</v>
       </c>
       <c r="C58" t="n">
-        <v>66.41</v>
+        <v>66.42</v>
       </c>
       <c r="D58" t="n">
         <v>66.42</v>
       </c>
       <c r="E58" t="n">
-        <v>66.41</v>
+        <v>66.42</v>
       </c>
       <c r="F58" t="n">
-        <v>4051.5566</v>
+        <v>1347.3971</v>
       </c>
       <c r="G58" t="n">
-        <v>63.53433333333335</v>
+        <v>63.43083333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2668,22 +2578,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>66.5</v>
+        <v>66.42</v>
       </c>
       <c r="C59" t="n">
-        <v>66.5</v>
+        <v>66.41</v>
       </c>
       <c r="D59" t="n">
-        <v>66.5</v>
+        <v>66.42</v>
       </c>
       <c r="E59" t="n">
-        <v>66.5</v>
+        <v>66.41</v>
       </c>
       <c r="F59" t="n">
-        <v>1130</v>
+        <v>4051.5566</v>
       </c>
       <c r="G59" t="n">
-        <v>63.64266666666668</v>
+        <v>63.53433333333335</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2715,10 +2625,10 @@
         <v>66.5</v>
       </c>
       <c r="F60" t="n">
-        <v>186</v>
+        <v>1130</v>
       </c>
       <c r="G60" t="n">
-        <v>63.74933333333335</v>
+        <v>63.64266666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2750,10 +2660,10 @@
         <v>66.5</v>
       </c>
       <c r="F61" t="n">
-        <v>1633</v>
+        <v>186</v>
       </c>
       <c r="G61" t="n">
-        <v>63.85600000000002</v>
+        <v>63.74933333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2773,22 +2683,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>66.51000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C62" t="n">
-        <v>66.51000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D62" t="n">
-        <v>66.51000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E62" t="n">
-        <v>66.51000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F62" t="n">
-        <v>2000</v>
+        <v>1633</v>
       </c>
       <c r="G62" t="n">
-        <v>63.96450000000002</v>
+        <v>63.85600000000002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2808,22 +2718,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>66.52</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>66.52</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>66.52</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>66.52</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>3446.55</v>
+        <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>64.07150000000003</v>
+        <v>63.96450000000002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2846,19 +2756,19 @@
         <v>66.52</v>
       </c>
       <c r="C64" t="n">
-        <v>66.5</v>
+        <v>66.52</v>
       </c>
       <c r="D64" t="n">
         <v>66.52</v>
       </c>
       <c r="E64" t="n">
-        <v>66.5</v>
+        <v>66.52</v>
       </c>
       <c r="F64" t="n">
-        <v>24464.5002</v>
+        <v>3446.55</v>
       </c>
       <c r="G64" t="n">
-        <v>64.16650000000001</v>
+        <v>64.07150000000003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2878,10 +2788,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="C65" t="n">
         <v>66.5</v>
-      </c>
-      <c r="C65" t="n">
-        <v>66.52</v>
       </c>
       <c r="D65" t="n">
         <v>66.52</v>
@@ -2890,10 +2800,10 @@
         <v>66.5</v>
       </c>
       <c r="F65" t="n">
-        <v>35.2802</v>
+        <v>24464.5002</v>
       </c>
       <c r="G65" t="n">
-        <v>64.25866666666668</v>
+        <v>64.16650000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2913,22 +2823,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C66" t="n">
         <v>66.52</v>
-      </c>
-      <c r="C66" t="n">
-        <v>66.41</v>
       </c>
       <c r="D66" t="n">
         <v>66.52</v>
       </c>
       <c r="E66" t="n">
-        <v>66.41</v>
+        <v>66.5</v>
       </c>
       <c r="F66" t="n">
-        <v>15632.8944</v>
+        <v>35.2802</v>
       </c>
       <c r="G66" t="n">
-        <v>64.34900000000002</v>
+        <v>64.25866666666668</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2948,22 +2858,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>66.98999999999999</v>
+        <v>66.52</v>
       </c>
       <c r="C67" t="n">
-        <v>67</v>
+        <v>66.41</v>
       </c>
       <c r="D67" t="n">
-        <v>67</v>
+        <v>66.52</v>
       </c>
       <c r="E67" t="n">
-        <v>66.98999999999999</v>
+        <v>66.41</v>
       </c>
       <c r="F67" t="n">
-        <v>2812.3136</v>
+        <v>15632.8944</v>
       </c>
       <c r="G67" t="n">
-        <v>64.46216666666669</v>
+        <v>64.34900000000002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2983,7 +2893,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>67</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C68" t="n">
         <v>67</v>
@@ -2992,13 +2902,13 @@
         <v>67</v>
       </c>
       <c r="E68" t="n">
-        <v>67</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>4794.4363</v>
+        <v>2812.3136</v>
       </c>
       <c r="G68" t="n">
-        <v>64.57700000000003</v>
+        <v>64.46216666666669</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3018,22 +2928,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="D69" t="n">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="E69" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="F69" t="n">
-        <v>7329.2627</v>
+        <v>4794.4363</v>
       </c>
       <c r="G69" t="n">
-        <v>64.68700000000003</v>
+        <v>64.57700000000003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3053,22 +2963,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>67.59</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>67.7</v>
+        <v>67.5</v>
       </c>
       <c r="D70" t="n">
-        <v>67.7</v>
+        <v>67.5</v>
       </c>
       <c r="E70" t="n">
-        <v>67.59</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>23895.8956</v>
+        <v>7329.2627</v>
       </c>
       <c r="G70" t="n">
-        <v>64.80033333333334</v>
+        <v>64.68700000000003</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3088,22 +2998,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>67.81999999999999</v>
+        <v>67.59</v>
       </c>
       <c r="C71" t="n">
-        <v>67.81999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D71" t="n">
-        <v>67.81999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="E71" t="n">
-        <v>67.81999999999999</v>
+        <v>67.59</v>
       </c>
       <c r="F71" t="n">
-        <v>17244.8904</v>
+        <v>23895.8956</v>
       </c>
       <c r="G71" t="n">
-        <v>64.91566666666668</v>
+        <v>64.80033333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3135,10 +3045,10 @@
         <v>67.81999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>459.9987</v>
+        <v>17244.8904</v>
       </c>
       <c r="G72" t="n">
-        <v>65.02933333333335</v>
+        <v>64.91566666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3161,19 +3071,19 @@
         <v>67.81999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>68</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>68</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="E73" t="n">
         <v>67.81999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>80347.0321</v>
+        <v>459.9987</v>
       </c>
       <c r="G73" t="n">
-        <v>65.13633333333335</v>
+        <v>65.02933333333335</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3193,7 +3103,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>68</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="C74" t="n">
         <v>68</v>
@@ -3202,13 +3112,13 @@
         <v>68</v>
       </c>
       <c r="E74" t="n">
-        <v>68</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>51961.9925</v>
+        <v>80347.0321</v>
       </c>
       <c r="G74" t="n">
-        <v>65.23800000000001</v>
+        <v>65.13633333333335</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3228,22 +3138,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C75" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D75" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E75" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F75" t="n">
-        <v>8803.4408</v>
+        <v>51961.9925</v>
       </c>
       <c r="G75" t="n">
-        <v>65.32300000000002</v>
+        <v>65.23800000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3275,10 +3185,10 @@
         <v>67</v>
       </c>
       <c r="F76" t="n">
-        <v>661</v>
+        <v>8803.4408</v>
       </c>
       <c r="G76" t="n">
-        <v>65.40800000000002</v>
+        <v>65.32300000000002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3310,10 +3220,10 @@
         <v>67</v>
       </c>
       <c r="F77" t="n">
-        <v>158</v>
+        <v>661</v>
       </c>
       <c r="G77" t="n">
-        <v>65.49300000000001</v>
+        <v>65.40800000000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3345,10 +3255,10 @@
         <v>67</v>
       </c>
       <c r="F78" t="n">
-        <v>644.4046</v>
+        <v>158</v>
       </c>
       <c r="G78" t="n">
-        <v>65.56483333333334</v>
+        <v>65.49300000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3368,22 +3278,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>66.51000000000001</v>
+        <v>67</v>
       </c>
       <c r="C79" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="D79" t="n">
-        <v>66.51000000000001</v>
+        <v>67</v>
       </c>
       <c r="E79" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="F79" t="n">
-        <v>2944.1051</v>
+        <v>644.4046</v>
       </c>
       <c r="G79" t="n">
-        <v>65.64150000000001</v>
+        <v>65.56483333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3403,22 +3313,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>66.40000000000001</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>66.39</v>
+        <v>66.5</v>
       </c>
       <c r="D80" t="n">
-        <v>66.40000000000001</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>66.39</v>
+        <v>66.5</v>
       </c>
       <c r="F80" t="n">
-        <v>24604.6989</v>
+        <v>2944.1051</v>
       </c>
       <c r="G80" t="n">
-        <v>65.71633333333334</v>
+        <v>65.64150000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3438,22 +3348,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>65.90000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>65.3</v>
+        <v>66.39</v>
       </c>
       <c r="D81" t="n">
-        <v>66</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>65.3</v>
+        <v>66.39</v>
       </c>
       <c r="F81" t="n">
-        <v>29568.7469</v>
+        <v>24604.6989</v>
       </c>
       <c r="G81" t="n">
-        <v>65.77300000000001</v>
+        <v>65.71633333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3473,22 +3383,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>65.40000000000001</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>65.90000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="D82" t="n">
-        <v>65.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="E82" t="n">
-        <v>65.40000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="F82" t="n">
-        <v>19.9369</v>
+        <v>29568.7469</v>
       </c>
       <c r="G82" t="n">
-        <v>65.83133333333335</v>
+        <v>65.77300000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3511,19 +3421,19 @@
         <v>65.40000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>65.3</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D83" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E83" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="E83" t="n">
-        <v>65.3</v>
-      </c>
       <c r="F83" t="n">
-        <v>33195.7082</v>
+        <v>19.9369</v>
       </c>
       <c r="G83" t="n">
-        <v>65.88800000000001</v>
+        <v>65.83133333333335</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3543,22 +3453,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>65.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>65.3</v>
       </c>
       <c r="D84" t="n">
-        <v>65.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E84" t="n">
         <v>65.3</v>
       </c>
       <c r="F84" t="n">
-        <v>9</v>
+        <v>33195.7082</v>
       </c>
       <c r="G84" t="n">
-        <v>65.94483333333335</v>
+        <v>65.88800000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3578,22 +3488,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>65.8</v>
+        <v>65.3</v>
       </c>
       <c r="C85" t="n">
-        <v>65.8</v>
+        <v>65.3</v>
       </c>
       <c r="D85" t="n">
-        <v>65.8</v>
+        <v>65.3</v>
       </c>
       <c r="E85" t="n">
-        <v>65.8</v>
+        <v>65.3</v>
       </c>
       <c r="F85" t="n">
-        <v>160.5298</v>
+        <v>9</v>
       </c>
       <c r="G85" t="n">
-        <v>66.01000000000002</v>
+        <v>65.94483333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3613,22 +3523,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>66</v>
+        <v>65.8</v>
       </c>
       <c r="C86" t="n">
-        <v>66</v>
+        <v>65.8</v>
       </c>
       <c r="D86" t="n">
-        <v>66</v>
+        <v>65.8</v>
       </c>
       <c r="E86" t="n">
-        <v>66</v>
+        <v>65.8</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>160.5298</v>
       </c>
       <c r="G86" t="n">
-        <v>66.07183333333336</v>
+        <v>66.01000000000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3648,22 +3558,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>65.34999999999999</v>
+        <v>66</v>
       </c>
       <c r="C87" t="n">
-        <v>65.3</v>
+        <v>66</v>
       </c>
       <c r="D87" t="n">
-        <v>65.34999999999999</v>
+        <v>66</v>
       </c>
       <c r="E87" t="n">
-        <v>65.3</v>
+        <v>66</v>
       </c>
       <c r="F87" t="n">
-        <v>11660.1085</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>66.12583333333336</v>
+        <v>66.07183333333336</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3683,22 +3593,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>64.97</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>64.02</v>
+        <v>65.3</v>
       </c>
       <c r="D88" t="n">
-        <v>64.97</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>64.02</v>
+        <v>65.3</v>
       </c>
       <c r="F88" t="n">
-        <v>10953.0055</v>
+        <v>11660.1085</v>
       </c>
       <c r="G88" t="n">
-        <v>66.15850000000003</v>
+        <v>66.12583333333336</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3718,22 +3628,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>64.40000000000001</v>
+        <v>64.97</v>
       </c>
       <c r="C89" t="n">
-        <v>64.3</v>
+        <v>64.02</v>
       </c>
       <c r="D89" t="n">
-        <v>64.40000000000001</v>
+        <v>64.97</v>
       </c>
       <c r="E89" t="n">
-        <v>64.3</v>
+        <v>64.02</v>
       </c>
       <c r="F89" t="n">
-        <v>31749.4027</v>
+        <v>10953.0055</v>
       </c>
       <c r="G89" t="n">
-        <v>66.21350000000002</v>
+        <v>66.15850000000003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3753,22 +3663,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>64.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="C90" t="n">
         <v>64.3</v>
       </c>
       <c r="D90" t="n">
-        <v>64.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E90" t="n">
         <v>64.3</v>
       </c>
       <c r="F90" t="n">
-        <v>155.1321</v>
+        <v>31749.4027</v>
       </c>
       <c r="G90" t="n">
-        <v>66.2506666666667</v>
+        <v>66.21350000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3788,22 +3698,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>64.02</v>
+        <v>64.3</v>
       </c>
       <c r="C91" t="n">
-        <v>63.99</v>
+        <v>64.3</v>
       </c>
       <c r="D91" t="n">
-        <v>64.02</v>
+        <v>64.3</v>
       </c>
       <c r="E91" t="n">
-        <v>63.99</v>
+        <v>64.3</v>
       </c>
       <c r="F91" t="n">
-        <v>20734.9774</v>
+        <v>155.1321</v>
       </c>
       <c r="G91" t="n">
-        <v>66.30033333333336</v>
+        <v>66.2506666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3823,22 +3733,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>64</v>
+        <v>64.02</v>
       </c>
       <c r="C92" t="n">
-        <v>64</v>
+        <v>63.99</v>
       </c>
       <c r="D92" t="n">
-        <v>64</v>
+        <v>64.02</v>
       </c>
       <c r="E92" t="n">
-        <v>64</v>
+        <v>63.99</v>
       </c>
       <c r="F92" t="n">
-        <v>16539.9727</v>
+        <v>20734.9774</v>
       </c>
       <c r="G92" t="n">
-        <v>66.33383333333336</v>
+        <v>66.30033333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3858,7 +3768,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>63.99</v>
+        <v>64</v>
       </c>
       <c r="C93" t="n">
         <v>64</v>
@@ -3867,13 +3777,13 @@
         <v>64</v>
       </c>
       <c r="E93" t="n">
-        <v>63.99</v>
+        <v>64</v>
       </c>
       <c r="F93" t="n">
-        <v>2436.9341</v>
+        <v>16539.9727</v>
       </c>
       <c r="G93" t="n">
-        <v>66.3421666666667</v>
+        <v>66.33383333333336</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3896,19 +3806,19 @@
         <v>63.99</v>
       </c>
       <c r="C94" t="n">
-        <v>63.99</v>
+        <v>64</v>
       </c>
       <c r="D94" t="n">
-        <v>63.99</v>
+        <v>64</v>
       </c>
       <c r="E94" t="n">
         <v>63.99</v>
       </c>
       <c r="F94" t="n">
-        <v>792.9946</v>
+        <v>2436.9341</v>
       </c>
       <c r="G94" t="n">
-        <v>66.34200000000003</v>
+        <v>66.3421666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3931,19 +3841,19 @@
         <v>63.99</v>
       </c>
       <c r="C95" t="n">
-        <v>64</v>
+        <v>63.99</v>
       </c>
       <c r="D95" t="n">
-        <v>64</v>
+        <v>63.99</v>
       </c>
       <c r="E95" t="n">
         <v>63.99</v>
       </c>
       <c r="F95" t="n">
-        <v>25701.4448</v>
+        <v>792.9946</v>
       </c>
       <c r="G95" t="n">
-        <v>66.32600000000002</v>
+        <v>66.34200000000003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3963,22 +3873,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>64.01000000000001</v>
+        <v>63.99</v>
       </c>
       <c r="C96" t="n">
         <v>64</v>
       </c>
       <c r="D96" t="n">
-        <v>64.01000000000001</v>
+        <v>64</v>
       </c>
       <c r="E96" t="n">
-        <v>64</v>
+        <v>63.99</v>
       </c>
       <c r="F96" t="n">
-        <v>82547.8239</v>
+        <v>25701.4448</v>
       </c>
       <c r="G96" t="n">
-        <v>66.30966666666669</v>
+        <v>66.32600000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3998,22 +3908,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>64</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="C97" t="n">
         <v>64</v>
       </c>
       <c r="D97" t="n">
-        <v>64</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="E97" t="n">
         <v>64</v>
       </c>
       <c r="F97" t="n">
-        <v>8745.0561</v>
+        <v>82547.8239</v>
       </c>
       <c r="G97" t="n">
-        <v>66.29300000000002</v>
+        <v>66.30966666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4045,10 +3955,10 @@
         <v>64</v>
       </c>
       <c r="F98" t="n">
-        <v>551.8819</v>
+        <v>8745.0561</v>
       </c>
       <c r="G98" t="n">
-        <v>66.27383333333336</v>
+        <v>66.29300000000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4080,10 +3990,10 @@
         <v>64</v>
       </c>
       <c r="F99" t="n">
-        <v>459.9987</v>
+        <v>551.8819</v>
       </c>
       <c r="G99" t="n">
-        <v>66.24300000000002</v>
+        <v>66.27383333333336</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4103,22 +4013,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>65.2</v>
+        <v>64</v>
       </c>
       <c r="C100" t="n">
-        <v>65.2</v>
+        <v>64</v>
       </c>
       <c r="D100" t="n">
-        <v>65.2</v>
+        <v>64</v>
       </c>
       <c r="E100" t="n">
-        <v>65.2</v>
+        <v>64</v>
       </c>
       <c r="F100" t="n">
-        <v>71.1049</v>
+        <v>459.9987</v>
       </c>
       <c r="G100" t="n">
-        <v>66.21350000000002</v>
+        <v>66.24300000000002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4150,10 +4060,10 @@
         <v>65.2</v>
       </c>
       <c r="F101" t="n">
-        <v>70.54649999999999</v>
+        <v>71.1049</v>
       </c>
       <c r="G101" t="n">
-        <v>66.16216666666668</v>
+        <v>66.21350000000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4173,22 +4083,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>64.01000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="C102" t="n">
-        <v>64.01000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="D102" t="n">
-        <v>64.01000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="E102" t="n">
-        <v>64.01000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="F102" t="n">
-        <v>7656.165</v>
+        <v>70.54649999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>66.09100000000002</v>
+        <v>66.16216666666668</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4208,22 +4118,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>64.13</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>64.02</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>64.13</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>64.02</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>23103.8225</v>
+        <v>7656.165</v>
       </c>
       <c r="G103" t="n">
-        <v>66.03966666666669</v>
+        <v>66.09100000000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4243,22 +4153,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>64.05</v>
+        <v>64.13</v>
       </c>
       <c r="C104" t="n">
-        <v>64.05</v>
+        <v>64.02</v>
       </c>
       <c r="D104" t="n">
-        <v>64.05</v>
+        <v>64.13</v>
       </c>
       <c r="E104" t="n">
-        <v>64.05</v>
+        <v>64.02</v>
       </c>
       <c r="F104" t="n">
-        <v>10972.75</v>
+        <v>23103.8225</v>
       </c>
       <c r="G104" t="n">
-        <v>65.98883333333336</v>
+        <v>66.03966666666669</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4278,22 +4188,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>65</v>
+        <v>64.05</v>
       </c>
       <c r="C105" t="n">
-        <v>65.40000000000001</v>
+        <v>64.05</v>
       </c>
       <c r="D105" t="n">
-        <v>65.40000000000001</v>
+        <v>64.05</v>
       </c>
       <c r="E105" t="n">
-        <v>65</v>
+        <v>64.05</v>
       </c>
       <c r="F105" t="n">
-        <v>23637.2357</v>
+        <v>10972.75</v>
       </c>
       <c r="G105" t="n">
-        <v>65.96050000000002</v>
+        <v>65.98883333333336</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4313,22 +4223,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>65.47</v>
+        <v>65</v>
       </c>
       <c r="C106" t="n">
-        <v>66</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>66</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>65.47</v>
+        <v>65</v>
       </c>
       <c r="F106" t="n">
-        <v>5662.6632</v>
+        <v>23637.2357</v>
       </c>
       <c r="G106" t="n">
-        <v>65.94550000000002</v>
+        <v>65.96050000000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4348,22 +4258,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>65.47</v>
+      </c>
+      <c r="C107" t="n">
         <v>66</v>
       </c>
-      <c r="C107" t="n">
-        <v>66.67</v>
-      </c>
       <c r="D107" t="n">
-        <v>66.67</v>
+        <v>66</v>
       </c>
       <c r="E107" t="n">
-        <v>66</v>
+        <v>65.47</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>5662.6632</v>
       </c>
       <c r="G107" t="n">
-        <v>65.9396666666667</v>
+        <v>65.94550000000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4383,22 +4293,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>65.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="C108" t="n">
-        <v>65.40000000000001</v>
+        <v>66.67</v>
       </c>
       <c r="D108" t="n">
-        <v>65.90000000000001</v>
+        <v>66.67</v>
       </c>
       <c r="E108" t="n">
-        <v>65.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="F108" t="n">
-        <v>2622.5758</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>65.89133333333335</v>
+        <v>65.9396666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4418,22 +4328,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="C109" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="C109" t="n">
-        <v>65.34999999999999</v>
-      </c>
       <c r="D109" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E109" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="E109" t="n">
-        <v>65.34999999999999</v>
-      </c>
       <c r="F109" t="n">
-        <v>12632.3975</v>
+        <v>2622.5758</v>
       </c>
       <c r="G109" t="n">
-        <v>65.84233333333336</v>
+        <v>65.89133333333335</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4453,22 +4363,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>65.41</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C110" t="n">
         <v>65.34999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>65.41</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E110" t="n">
         <v>65.34999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>16047.7974</v>
+        <v>12632.3975</v>
       </c>
       <c r="G110" t="n">
-        <v>65.79333333333335</v>
+        <v>65.84233333333336</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4488,22 +4398,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>65.34999999999999</v>
+        <v>65.41</v>
       </c>
       <c r="C111" t="n">
         <v>65.34999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>65.34999999999999</v>
+        <v>65.41</v>
       </c>
       <c r="E111" t="n">
         <v>65.34999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>1993.0823</v>
+        <v>16047.7974</v>
       </c>
       <c r="G111" t="n">
-        <v>65.78333333333336</v>
+        <v>65.79333333333335</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4523,22 +4433,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>65.3</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>65.41</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>65.41</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>65.3</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>11141.0516</v>
+        <v>1993.0823</v>
       </c>
       <c r="G112" t="n">
-        <v>65.77683333333336</v>
+        <v>65.78333333333336</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4558,22 +4468,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>64.5</v>
+        <v>65.3</v>
       </c>
       <c r="C113" t="n">
-        <v>64.41</v>
+        <v>65.41</v>
       </c>
       <c r="D113" t="n">
-        <v>64.5</v>
+        <v>65.41</v>
       </c>
       <c r="E113" t="n">
-        <v>64.41</v>
+        <v>65.3</v>
       </c>
       <c r="F113" t="n">
-        <v>1000</v>
+        <v>11141.0516</v>
       </c>
       <c r="G113" t="n">
-        <v>65.75116666666669</v>
+        <v>65.77683333333336</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4593,22 +4503,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>65.76000000000001</v>
+        <v>64.5</v>
       </c>
       <c r="C114" t="n">
-        <v>65.76000000000001</v>
+        <v>64.41</v>
       </c>
       <c r="D114" t="n">
-        <v>65.76000000000001</v>
+        <v>64.5</v>
       </c>
       <c r="E114" t="n">
-        <v>65.76000000000001</v>
+        <v>64.41</v>
       </c>
       <c r="F114" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="G114" t="n">
-        <v>65.74216666666669</v>
+        <v>65.75116666666669</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4628,22 +4538,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>65.59999999999999</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>65.75</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>65.75</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>65.59999999999999</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>6600.4548</v>
+        <v>8</v>
       </c>
       <c r="G115" t="n">
-        <v>65.73083333333335</v>
+        <v>65.74216666666669</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4663,22 +4573,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C116" t="n">
         <v>65.75</v>
-      </c>
-      <c r="C116" t="n">
-        <v>64.53</v>
       </c>
       <c r="D116" t="n">
         <v>65.75</v>
       </c>
       <c r="E116" t="n">
-        <v>64.53</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>6600.4547</v>
+        <v>6600.4548</v>
       </c>
       <c r="G116" t="n">
-        <v>65.69800000000002</v>
+        <v>65.73083333333335</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4698,22 +4608,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>64.53</v>
+        <v>65.75</v>
       </c>
       <c r="C117" t="n">
         <v>64.53</v>
       </c>
       <c r="D117" t="n">
-        <v>64.53</v>
+        <v>65.75</v>
       </c>
       <c r="E117" t="n">
         <v>64.53</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0001</v>
+        <v>6600.4547</v>
       </c>
       <c r="G117" t="n">
-        <v>65.66650000000003</v>
+        <v>65.69800000000002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4733,22 +4643,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>65.76000000000001</v>
+        <v>64.53</v>
       </c>
       <c r="C118" t="n">
-        <v>65.76000000000001</v>
+        <v>64.53</v>
       </c>
       <c r="D118" t="n">
-        <v>65.76000000000001</v>
+        <v>64.53</v>
       </c>
       <c r="E118" t="n">
-        <v>65.76000000000001</v>
+        <v>64.53</v>
       </c>
       <c r="F118" t="n">
-        <v>8</v>
+        <v>0.0001</v>
       </c>
       <c r="G118" t="n">
-        <v>65.6556666666667</v>
+        <v>65.66650000000003</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4768,22 +4678,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>64.7</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>64.3</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>64.7</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>64.3</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>11141.0516</v>
+        <v>8</v>
       </c>
       <c r="G119" t="n">
-        <v>65.61900000000004</v>
+        <v>65.6556666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4803,22 +4713,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>65.29000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="C120" t="n">
-        <v>65.29000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="D120" t="n">
-        <v>65.29000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="E120" t="n">
-        <v>65.29000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="F120" t="n">
-        <v>153.1628120692296</v>
+        <v>11141.0516</v>
       </c>
       <c r="G120" t="n">
-        <v>65.59883333333337</v>
+        <v>65.61900000000004</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4838,22 +4748,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>64.59999999999999</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>64.59999999999999</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>64.59999999999999</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>64.59999999999999</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>152.7799</v>
+        <v>153.1628120692296</v>
       </c>
       <c r="G121" t="n">
-        <v>65.56716666666669</v>
+        <v>65.59883333333337</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4873,22 +4783,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>64.7</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>64.7</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>64.7</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>64.7</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>7968.8886</v>
+        <v>152.7799</v>
       </c>
       <c r="G122" t="n">
-        <v>65.53700000000002</v>
+        <v>65.56716666666669</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4908,22 +4818,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>64.59999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="C123" t="n">
-        <v>64.59999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="D123" t="n">
-        <v>64.59999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="E123" t="n">
-        <v>64.59999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="F123" t="n">
-        <v>7275.8963</v>
+        <v>7968.8886</v>
       </c>
       <c r="G123" t="n">
-        <v>65.50500000000002</v>
+        <v>65.53700000000002</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4943,22 +4853,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>64.3</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>64.3</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>64.3</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>64.3</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>498.9018</v>
+        <v>7275.8963</v>
       </c>
       <c r="G124" t="n">
-        <v>65.46833333333336</v>
+        <v>65.50500000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4978,22 +4888,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>64.2</v>
+        <v>64.3</v>
       </c>
       <c r="C125" t="n">
-        <v>64.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="D125" t="n">
-        <v>64.2</v>
+        <v>64.3</v>
       </c>
       <c r="E125" t="n">
-        <v>64.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="F125" t="n">
-        <v>24251.1055</v>
+        <v>498.9018</v>
       </c>
       <c r="G125" t="n">
-        <v>65.42800000000003</v>
+        <v>65.46833333333336</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5013,22 +4923,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>64.09999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="C126" t="n">
         <v>64.09999999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>64.09999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="E126" t="n">
         <v>64.09999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>677.3366</v>
+        <v>24251.1055</v>
       </c>
       <c r="G126" t="n">
-        <v>65.38950000000003</v>
+        <v>65.42800000000003</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5060,10 +4970,10 @@
         <v>64.09999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>155.6162</v>
+        <v>677.3366</v>
       </c>
       <c r="G127" t="n">
-        <v>65.34116666666669</v>
+        <v>65.38950000000003</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5095,10 +5005,10 @@
         <v>64.09999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>10920.3488</v>
+        <v>155.6162</v>
       </c>
       <c r="G128" t="n">
-        <v>65.29283333333336</v>
+        <v>65.34116666666669</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5130,10 +5040,10 @@
         <v>64.09999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>10785.9569</v>
+        <v>10920.3488</v>
       </c>
       <c r="G129" t="n">
-        <v>65.23616666666669</v>
+        <v>65.29283333333336</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5153,22 +5063,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>19532.9919</v>
+        <v>10785.9569</v>
       </c>
       <c r="G130" t="n">
-        <v>65.17950000000003</v>
+        <v>65.23616666666669</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5200,10 +5110,10 @@
         <v>64.3</v>
       </c>
       <c r="F131" t="n">
-        <v>136.936</v>
+        <v>19532.9919</v>
       </c>
       <c r="G131" t="n">
-        <v>65.12083333333337</v>
+        <v>65.17950000000003</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5223,22 +5133,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>65</v>
+        <v>64.3</v>
       </c>
       <c r="C132" t="n">
-        <v>65</v>
+        <v>64.3</v>
       </c>
       <c r="D132" t="n">
-        <v>65</v>
+        <v>64.3</v>
       </c>
       <c r="E132" t="n">
-        <v>65</v>
+        <v>64.3</v>
       </c>
       <c r="F132" t="n">
-        <v>86.7946</v>
+        <v>136.936</v>
       </c>
       <c r="G132" t="n">
-        <v>65.07383333333335</v>
+        <v>65.12083333333337</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5258,22 +5168,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>64.3</v>
+        <v>65</v>
       </c>
       <c r="C133" t="n">
-        <v>64.02</v>
+        <v>65</v>
       </c>
       <c r="D133" t="n">
-        <v>64.3</v>
+        <v>65</v>
       </c>
       <c r="E133" t="n">
-        <v>64.02</v>
+        <v>65</v>
       </c>
       <c r="F133" t="n">
-        <v>13125.5314</v>
+        <v>86.7946</v>
       </c>
       <c r="G133" t="n">
-        <v>65.00750000000002</v>
+        <v>65.07383333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5293,22 +5203,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>64.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="C134" t="n">
-        <v>63.99</v>
+        <v>64.02</v>
       </c>
       <c r="D134" t="n">
-        <v>64.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="E134" t="n">
-        <v>63.99</v>
+        <v>64.02</v>
       </c>
       <c r="F134" t="n">
-        <v>25054.3789</v>
+        <v>13125.5314</v>
       </c>
       <c r="G134" t="n">
-        <v>64.94066666666669</v>
+        <v>65.00750000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5328,22 +5238,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>63.98</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>63.9</v>
+        <v>63.99</v>
       </c>
       <c r="D135" t="n">
-        <v>63.98</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>63.9</v>
+        <v>63.99</v>
       </c>
       <c r="F135" t="n">
-        <v>242</v>
+        <v>25054.3789</v>
       </c>
       <c r="G135" t="n">
-        <v>64.88900000000002</v>
+        <v>64.94066666666669</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5366,19 +5276,19 @@
         <v>63.98</v>
       </c>
       <c r="C136" t="n">
-        <v>63.2</v>
+        <v>63.9</v>
       </c>
       <c r="D136" t="n">
         <v>63.98</v>
       </c>
       <c r="E136" t="n">
-        <v>63.2</v>
+        <v>63.9</v>
       </c>
       <c r="F136" t="n">
-        <v>660.2068</v>
+        <v>242</v>
       </c>
       <c r="G136" t="n">
-        <v>64.82566666666669</v>
+        <v>64.88900000000002</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5398,22 +5308,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>63.2</v>
+        <v>63.98</v>
       </c>
       <c r="C137" t="n">
         <v>63.2</v>
       </c>
       <c r="D137" t="n">
-        <v>63.2</v>
+        <v>63.98</v>
       </c>
       <c r="E137" t="n">
         <v>63.2</v>
       </c>
       <c r="F137" t="n">
-        <v>157.8322</v>
+        <v>660.2068</v>
       </c>
       <c r="G137" t="n">
-        <v>64.76233333333336</v>
+        <v>64.82566666666669</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5433,22 +5343,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>62.5</v>
+        <v>63.2</v>
       </c>
       <c r="C138" t="n">
-        <v>62.5</v>
+        <v>63.2</v>
       </c>
       <c r="D138" t="n">
-        <v>62.5</v>
+        <v>63.2</v>
       </c>
       <c r="E138" t="n">
-        <v>62.5</v>
+        <v>63.2</v>
       </c>
       <c r="F138" t="n">
-        <v>1806.3724</v>
+        <v>157.8322</v>
       </c>
       <c r="G138" t="n">
-        <v>64.68733333333336</v>
+        <v>64.76233333333336</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5471,19 +5381,19 @@
         <v>62.5</v>
       </c>
       <c r="C139" t="n">
-        <v>62.31</v>
+        <v>62.5</v>
       </c>
       <c r="D139" t="n">
         <v>62.5</v>
       </c>
       <c r="E139" t="n">
-        <v>62.31</v>
+        <v>62.5</v>
       </c>
       <c r="F139" t="n">
-        <v>55926.0431</v>
+        <v>1806.3724</v>
       </c>
       <c r="G139" t="n">
-        <v>64.61750000000002</v>
+        <v>64.68733333333336</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5503,22 +5413,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>63.09</v>
+        <v>62.5</v>
       </c>
       <c r="C140" t="n">
-        <v>62.9</v>
+        <v>62.31</v>
       </c>
       <c r="D140" t="n">
-        <v>63.09</v>
+        <v>62.5</v>
       </c>
       <c r="E140" t="n">
-        <v>62.9</v>
+        <v>62.31</v>
       </c>
       <c r="F140" t="n">
-        <v>1319</v>
+        <v>55926.0431</v>
       </c>
       <c r="G140" t="n">
-        <v>64.55933333333336</v>
+        <v>64.61750000000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5538,22 +5448,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>62.7</v>
+        <v>63.09</v>
       </c>
       <c r="C141" t="n">
-        <v>62.7</v>
+        <v>62.9</v>
       </c>
       <c r="D141" t="n">
-        <v>62.7</v>
+        <v>63.09</v>
       </c>
       <c r="E141" t="n">
-        <v>62.7</v>
+        <v>62.9</v>
       </c>
       <c r="F141" t="n">
-        <v>1406.641</v>
+        <v>1319</v>
       </c>
       <c r="G141" t="n">
-        <v>64.51600000000002</v>
+        <v>64.55933333333336</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5573,22 +5483,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>63.22</v>
+        <v>62.7</v>
       </c>
       <c r="C142" t="n">
-        <v>63.22</v>
+        <v>62.7</v>
       </c>
       <c r="D142" t="n">
-        <v>63.22</v>
+        <v>62.7</v>
       </c>
       <c r="E142" t="n">
-        <v>63.22</v>
+        <v>62.7</v>
       </c>
       <c r="F142" t="n">
-        <v>7682.1651</v>
+        <v>1406.641</v>
       </c>
       <c r="G142" t="n">
-        <v>64.47133333333335</v>
+        <v>64.51600000000002</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5611,19 +5521,19 @@
         <v>63.22</v>
       </c>
       <c r="C143" t="n">
-        <v>63.2</v>
+        <v>63.22</v>
       </c>
       <c r="D143" t="n">
         <v>63.22</v>
       </c>
       <c r="E143" t="n">
-        <v>63.2</v>
+        <v>63.22</v>
       </c>
       <c r="F143" t="n">
-        <v>21884.8083</v>
+        <v>7682.1651</v>
       </c>
       <c r="G143" t="n">
-        <v>64.43633333333334</v>
+        <v>64.47133333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5643,22 +5553,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>63.09</v>
+        <v>63.22</v>
       </c>
       <c r="C144" t="n">
-        <v>63.09</v>
+        <v>63.2</v>
       </c>
       <c r="D144" t="n">
-        <v>63.09</v>
+        <v>63.22</v>
       </c>
       <c r="E144" t="n">
-        <v>63.09</v>
+        <v>63.2</v>
       </c>
       <c r="F144" t="n">
-        <v>6321.632</v>
+        <v>21884.8083</v>
       </c>
       <c r="G144" t="n">
-        <v>64.3995</v>
+        <v>64.43633333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5681,19 +5591,19 @@
         <v>63.09</v>
       </c>
       <c r="C145" t="n">
-        <v>63.1</v>
+        <v>63.09</v>
       </c>
       <c r="D145" t="n">
-        <v>63.1</v>
+        <v>63.09</v>
       </c>
       <c r="E145" t="n">
         <v>63.09</v>
       </c>
       <c r="F145" t="n">
-        <v>1878.9862</v>
+        <v>6321.632</v>
       </c>
       <c r="G145" t="n">
-        <v>64.3545</v>
+        <v>64.3995</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5713,22 +5623,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>63.21</v>
+        <v>63.09</v>
       </c>
       <c r="C146" t="n">
-        <v>63.2</v>
+        <v>63.1</v>
       </c>
       <c r="D146" t="n">
-        <v>63.21</v>
+        <v>63.1</v>
       </c>
       <c r="E146" t="n">
-        <v>63.2</v>
+        <v>63.09</v>
       </c>
       <c r="F146" t="n">
-        <v>7161.6546</v>
+        <v>1878.9862</v>
       </c>
       <c r="G146" t="n">
-        <v>64.30783333333333</v>
+        <v>64.3545</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5748,22 +5658,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>63.73</v>
+        <v>63.21</v>
       </c>
       <c r="C147" t="n">
-        <v>63.73</v>
+        <v>63.2</v>
       </c>
       <c r="D147" t="n">
-        <v>63.73</v>
+        <v>63.21</v>
       </c>
       <c r="E147" t="n">
-        <v>63.73</v>
+        <v>63.2</v>
       </c>
       <c r="F147" t="n">
-        <v>938.4477000000001</v>
+        <v>7161.6546</v>
       </c>
       <c r="G147" t="n">
-        <v>64.28166666666667</v>
+        <v>64.30783333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5795,10 +5705,10 @@
         <v>63.73</v>
       </c>
       <c r="F148" t="n">
-        <v>10161.8426</v>
+        <v>938.4477000000001</v>
       </c>
       <c r="G148" t="n">
-        <v>64.27683333333333</v>
+        <v>64.28166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5818,22 +5728,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>63.2</v>
+        <v>63.73</v>
       </c>
       <c r="C149" t="n">
-        <v>63.2</v>
+        <v>63.73</v>
       </c>
       <c r="D149" t="n">
-        <v>63.2</v>
+        <v>63.73</v>
       </c>
       <c r="E149" t="n">
-        <v>63.2</v>
+        <v>63.73</v>
       </c>
       <c r="F149" t="n">
-        <v>3336.7096</v>
+        <v>10161.8426</v>
       </c>
       <c r="G149" t="n">
-        <v>64.25849999999998</v>
+        <v>64.27683333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5856,19 +5766,19 @@
         <v>63.2</v>
       </c>
       <c r="C150" t="n">
-        <v>63.81</v>
+        <v>63.2</v>
       </c>
       <c r="D150" t="n">
-        <v>63.81</v>
+        <v>63.2</v>
       </c>
       <c r="E150" t="n">
         <v>63.2</v>
       </c>
       <c r="F150" t="n">
-        <v>10914.4198</v>
+        <v>3336.7096</v>
       </c>
       <c r="G150" t="n">
-        <v>64.25033333333332</v>
+        <v>64.25849999999998</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5888,7 +5798,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>63.81</v>
+        <v>63.2</v>
       </c>
       <c r="C151" t="n">
         <v>63.81</v>
@@ -5897,13 +5807,13 @@
         <v>63.81</v>
       </c>
       <c r="E151" t="n">
-        <v>63.81</v>
+        <v>63.2</v>
       </c>
       <c r="F151" t="n">
-        <v>4765.4848</v>
+        <v>10914.4198</v>
       </c>
       <c r="G151" t="n">
-        <v>64.24733333333332</v>
+        <v>64.25033333333332</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5923,22 +5833,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>63.82</v>
+        <v>63.81</v>
       </c>
       <c r="C152" t="n">
-        <v>63.82</v>
+        <v>63.81</v>
       </c>
       <c r="D152" t="n">
-        <v>63.82</v>
+        <v>63.81</v>
       </c>
       <c r="E152" t="n">
-        <v>63.82</v>
+        <v>63.81</v>
       </c>
       <c r="F152" t="n">
-        <v>495.2045</v>
+        <v>4765.4848</v>
       </c>
       <c r="G152" t="n">
-        <v>64.24433333333333</v>
+        <v>64.24733333333332</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5958,22 +5868,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>63.9</v>
+        <v>63.82</v>
       </c>
       <c r="C153" t="n">
-        <v>63.9</v>
+        <v>63.82</v>
       </c>
       <c r="D153" t="n">
-        <v>63.9</v>
+        <v>63.82</v>
       </c>
       <c r="E153" t="n">
-        <v>63.9</v>
+        <v>63.82</v>
       </c>
       <c r="F153" t="n">
-        <v>134.0909</v>
+        <v>495.2045</v>
       </c>
       <c r="G153" t="n">
-        <v>64.24266666666666</v>
+        <v>64.24433333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5993,22 +5903,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>63.93</v>
+        <v>63.9</v>
       </c>
       <c r="C154" t="n">
-        <v>63.93</v>
+        <v>63.9</v>
       </c>
       <c r="D154" t="n">
-        <v>63.93</v>
+        <v>63.9</v>
       </c>
       <c r="E154" t="n">
-        <v>63.93</v>
+        <v>63.9</v>
       </c>
       <c r="F154" t="n">
-        <v>7590.3528</v>
+        <v>134.0909</v>
       </c>
       <c r="G154" t="n">
-        <v>64.24166666666666</v>
+        <v>64.24266666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6040,10 +5950,10 @@
         <v>63.93</v>
       </c>
       <c r="F155" t="n">
-        <v>11666.7009</v>
+        <v>7590.3528</v>
       </c>
       <c r="G155" t="n">
-        <v>64.24049999999998</v>
+        <v>64.24166666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6075,10 +5985,10 @@
         <v>63.93</v>
       </c>
       <c r="F156" t="n">
-        <v>3047.692</v>
+        <v>11666.7009</v>
       </c>
       <c r="G156" t="n">
-        <v>64.23933333333332</v>
+        <v>64.24049999999998</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6110,10 +6020,10 @@
         <v>63.93</v>
       </c>
       <c r="F157" t="n">
-        <v>1379.4683</v>
+        <v>3047.692</v>
       </c>
       <c r="G157" t="n">
-        <v>64.23816666666666</v>
+        <v>64.23933333333332</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6133,19 +6043,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>64</v>
+        <v>63.93</v>
       </c>
       <c r="C158" t="n">
-        <v>64</v>
+        <v>63.93</v>
       </c>
       <c r="D158" t="n">
-        <v>64</v>
+        <v>63.93</v>
       </c>
       <c r="E158" t="n">
-        <v>64</v>
+        <v>63.93</v>
       </c>
       <c r="F158" t="n">
-        <v>2656.2963</v>
+        <v>1379.4683</v>
       </c>
       <c r="G158" t="n">
         <v>64.23816666666666</v>
@@ -6180,7 +6090,7 @@
         <v>64</v>
       </c>
       <c r="F159" t="n">
-        <v>8223.1942</v>
+        <v>2656.2963</v>
       </c>
       <c r="G159" t="n">
         <v>64.23816666666666</v>
@@ -6203,22 +6113,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>64.3</v>
+        <v>64</v>
       </c>
       <c r="C160" t="n">
-        <v>64.3</v>
+        <v>64</v>
       </c>
       <c r="D160" t="n">
-        <v>64.3</v>
+        <v>64</v>
       </c>
       <c r="E160" t="n">
-        <v>64.3</v>
+        <v>64</v>
       </c>
       <c r="F160" t="n">
-        <v>77.76049766718506</v>
+        <v>8223.1942</v>
       </c>
       <c r="G160" t="n">
-        <v>64.22316666666666</v>
+        <v>64.23816666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6241,19 +6151,19 @@
         <v>64.3</v>
       </c>
       <c r="C161" t="n">
-        <v>64.40000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="D161" t="n">
-        <v>64.40000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="E161" t="n">
         <v>64.3</v>
       </c>
       <c r="F161" t="n">
-        <v>628.147502332815</v>
+        <v>77.76049766718506</v>
       </c>
       <c r="G161" t="n">
-        <v>64.20983333333332</v>
+        <v>64.22316666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6273,22 +6183,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>64.89</v>
+        <v>64.3</v>
       </c>
       <c r="C162" t="n">
-        <v>64.89</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>64.89</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>64.89</v>
+        <v>64.3</v>
       </c>
       <c r="F162" t="n">
-        <v>4061.4129</v>
+        <v>628.147502332815</v>
       </c>
       <c r="G162" t="n">
-        <v>64.22449999999999</v>
+        <v>64.20983333333332</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6308,22 +6218,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>64.40000000000001</v>
+        <v>64.89</v>
       </c>
       <c r="C163" t="n">
-        <v>64.40000000000001</v>
+        <v>64.89</v>
       </c>
       <c r="D163" t="n">
-        <v>64.40000000000001</v>
+        <v>64.89</v>
       </c>
       <c r="E163" t="n">
-        <v>64.40000000000001</v>
+        <v>64.89</v>
       </c>
       <c r="F163" t="n">
-        <v>222.3084</v>
+        <v>4061.4129</v>
       </c>
       <c r="G163" t="n">
-        <v>64.23083333333332</v>
+        <v>64.22449999999999</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6343,22 +6253,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>64.11</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>64.11</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>64.11</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>64.11</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>5284.3238</v>
+        <v>222.3084</v>
       </c>
       <c r="G164" t="n">
-        <v>64.23183333333333</v>
+        <v>64.23083333333332</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6378,22 +6288,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>63.85</v>
+        <v>64.11</v>
       </c>
       <c r="C165" t="n">
-        <v>63.83</v>
+        <v>64.11</v>
       </c>
       <c r="D165" t="n">
-        <v>63.85</v>
+        <v>64.11</v>
       </c>
       <c r="E165" t="n">
-        <v>63.83</v>
+        <v>64.11</v>
       </c>
       <c r="F165" t="n">
-        <v>30322.1989</v>
+        <v>5284.3238</v>
       </c>
       <c r="G165" t="n">
-        <v>64.20566666666666</v>
+        <v>64.23183333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6413,22 +6323,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>63.84</v>
+        <v>63.85</v>
       </c>
       <c r="C166" t="n">
-        <v>63.84</v>
+        <v>63.83</v>
       </c>
       <c r="D166" t="n">
-        <v>63.84</v>
+        <v>63.85</v>
       </c>
       <c r="E166" t="n">
-        <v>63.84</v>
+        <v>63.83</v>
       </c>
       <c r="F166" t="n">
-        <v>5782.6401</v>
+        <v>30322.1989</v>
       </c>
       <c r="G166" t="n">
-        <v>64.16966666666666</v>
+        <v>64.20566666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6460,10 +6370,10 @@
         <v>63.84</v>
       </c>
       <c r="F167" t="n">
-        <v>861.6082</v>
+        <v>5782.6401</v>
       </c>
       <c r="G167" t="n">
-        <v>64.12249999999999</v>
+        <v>64.16966666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6483,22 +6393,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>63.83</v>
+        <v>63.84</v>
       </c>
       <c r="C168" t="n">
-        <v>64.89</v>
+        <v>63.84</v>
       </c>
       <c r="D168" t="n">
-        <v>64.89</v>
+        <v>63.84</v>
       </c>
       <c r="E168" t="n">
-        <v>63.82</v>
+        <v>63.84</v>
       </c>
       <c r="F168" t="n">
-        <v>66964.7016</v>
+        <v>861.6082</v>
       </c>
       <c r="G168" t="n">
-        <v>64.11399999999999</v>
+        <v>64.12249999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6518,7 +6428,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>64.89</v>
+        <v>63.83</v>
       </c>
       <c r="C169" t="n">
         <v>64.89</v>
@@ -6527,13 +6437,13 @@
         <v>64.89</v>
       </c>
       <c r="E169" t="n">
-        <v>64.89</v>
+        <v>63.82</v>
       </c>
       <c r="F169" t="n">
-        <v>5097.8778</v>
+        <v>66964.7016</v>
       </c>
       <c r="G169" t="n">
-        <v>64.10633333333332</v>
+        <v>64.11399999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6565,10 +6475,10 @@
         <v>64.89</v>
       </c>
       <c r="F170" t="n">
-        <v>10077.3882</v>
+        <v>5097.8778</v>
       </c>
       <c r="G170" t="n">
-        <v>64.09866666666666</v>
+        <v>64.10633333333332</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6600,10 +6510,10 @@
         <v>64.89</v>
       </c>
       <c r="F171" t="n">
-        <v>2618.985</v>
+        <v>10077.3882</v>
       </c>
       <c r="G171" t="n">
-        <v>64.09099999999998</v>
+        <v>64.09866666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6626,19 +6536,19 @@
         <v>64.89</v>
       </c>
       <c r="C172" t="n">
-        <v>65</v>
+        <v>64.89</v>
       </c>
       <c r="D172" t="n">
-        <v>65</v>
+        <v>64.89</v>
       </c>
       <c r="E172" t="n">
         <v>64.89</v>
       </c>
       <c r="F172" t="n">
-        <v>2652.959</v>
+        <v>2618.985</v>
       </c>
       <c r="G172" t="n">
-        <v>64.08416666666666</v>
+        <v>64.09099999999998</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6658,22 +6568,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>65.17</v>
+        <v>64.89</v>
       </c>
       <c r="C173" t="n">
-        <v>65.7</v>
+        <v>65</v>
       </c>
       <c r="D173" t="n">
-        <v>65.7</v>
+        <v>65</v>
       </c>
       <c r="E173" t="n">
-        <v>65.17</v>
+        <v>64.89</v>
       </c>
       <c r="F173" t="n">
-        <v>20552.5</v>
+        <v>2652.959</v>
       </c>
       <c r="G173" t="n">
-        <v>64.10566666666665</v>
+        <v>64.08416666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6693,22 +6603,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>65.77</v>
+        <v>65.17</v>
       </c>
       <c r="C174" t="n">
-        <v>65.77</v>
+        <v>65.7</v>
       </c>
       <c r="D174" t="n">
-        <v>65.77</v>
+        <v>65.7</v>
       </c>
       <c r="E174" t="n">
-        <v>65.77</v>
+        <v>65.17</v>
       </c>
       <c r="F174" t="n">
-        <v>1162.2904</v>
+        <v>20552.5</v>
       </c>
       <c r="G174" t="n">
-        <v>64.10583333333332</v>
+        <v>64.10566666666665</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6728,22 +6638,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>64.8</v>
+        <v>65.77</v>
       </c>
       <c r="C175" t="n">
-        <v>65.70999999999999</v>
+        <v>65.77</v>
       </c>
       <c r="D175" t="n">
-        <v>65.70999999999999</v>
+        <v>65.77</v>
       </c>
       <c r="E175" t="n">
-        <v>64.8</v>
+        <v>65.77</v>
       </c>
       <c r="F175" t="n">
-        <v>10896.0114</v>
+        <v>1162.2904</v>
       </c>
       <c r="G175" t="n">
-        <v>64.10516666666665</v>
+        <v>64.10583333333332</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6763,7 +6673,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>65.70999999999999</v>
+        <v>64.8</v>
       </c>
       <c r="C176" t="n">
         <v>65.70999999999999</v>
@@ -6772,13 +6682,13 @@
         <v>65.70999999999999</v>
       </c>
       <c r="E176" t="n">
-        <v>65.70999999999999</v>
+        <v>64.8</v>
       </c>
       <c r="F176" t="n">
-        <v>1288.584</v>
+        <v>10896.0114</v>
       </c>
       <c r="G176" t="n">
-        <v>64.12483333333331</v>
+        <v>64.10516666666665</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6810,10 +6720,10 @@
         <v>65.70999999999999</v>
       </c>
       <c r="F177" t="n">
-        <v>8238.9758</v>
+        <v>1288.584</v>
       </c>
       <c r="G177" t="n">
-        <v>64.14449999999998</v>
+        <v>64.12483333333331</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6833,22 +6743,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>65.3</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="C178" t="n">
-        <v>65.3</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D178" t="n">
-        <v>65.3</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="E178" t="n">
-        <v>65.3</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="F178" t="n">
-        <v>1208.8973</v>
+        <v>8238.9758</v>
       </c>
       <c r="G178" t="n">
-        <v>64.13683333333331</v>
+        <v>64.14449999999998</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6868,22 +6778,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>64.8</v>
+        <v>65.3</v>
       </c>
       <c r="C179" t="n">
-        <v>65.09999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="D179" t="n">
-        <v>65.09999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="E179" t="n">
-        <v>64.01000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="F179" t="n">
-        <v>23807.8328</v>
+        <v>1208.8973</v>
       </c>
       <c r="G179" t="n">
-        <v>64.15016666666664</v>
+        <v>64.13683333333331</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6903,22 +6813,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="C180" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="C180" t="n">
-        <v>65.20999999999999</v>
-      </c>
       <c r="D180" t="n">
-        <v>65.20999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E180" t="n">
-        <v>65.09999999999999</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="F180" t="n">
-        <v>2493.1523</v>
+        <v>23807.8328</v>
       </c>
       <c r="G180" t="n">
-        <v>64.14883333333331</v>
+        <v>64.15016666666664</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6938,7 +6848,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>65.20999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="C181" t="n">
         <v>65.20999999999999</v>
@@ -6947,13 +6857,13 @@
         <v>65.20999999999999</v>
       </c>
       <c r="E181" t="n">
-        <v>65.20999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F181" t="n">
-        <v>2157.8887</v>
+        <v>2493.1523</v>
       </c>
       <c r="G181" t="n">
-        <v>64.15899999999998</v>
+        <v>64.14883333333331</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6973,22 +6883,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>65.90000000000001</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="C182" t="n">
-        <v>65.90000000000001</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="D182" t="n">
-        <v>65.90000000000001</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="E182" t="n">
-        <v>65.90000000000001</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="F182" t="n">
-        <v>1532</v>
+        <v>2157.8887</v>
       </c>
       <c r="G182" t="n">
-        <v>64.17899999999999</v>
+        <v>64.15899999999998</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7020,10 +6930,10 @@
         <v>65.90000000000001</v>
       </c>
       <c r="F183" t="n">
-        <v>54025.2821</v>
+        <v>1532</v>
       </c>
       <c r="G183" t="n">
-        <v>64.20066666666665</v>
+        <v>64.17899999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7055,10 +6965,10 @@
         <v>65.90000000000001</v>
       </c>
       <c r="F184" t="n">
-        <v>47302.1349</v>
+        <v>54025.2821</v>
       </c>
       <c r="G184" t="n">
-        <v>64.22733333333332</v>
+        <v>64.20066666666665</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7081,19 +6991,19 @@
         <v>65.90000000000001</v>
       </c>
       <c r="C185" t="n">
-        <v>66</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D185" t="n">
-        <v>66</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E185" t="n">
         <v>65.90000000000001</v>
       </c>
       <c r="F185" t="n">
-        <v>6189.6567</v>
+        <v>47302.1349</v>
       </c>
       <c r="G185" t="n">
-        <v>64.25899999999999</v>
+        <v>64.22733333333332</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7113,22 +7023,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>66.09999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C186" t="n">
-        <v>66.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="D186" t="n">
-        <v>66.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="E186" t="n">
-        <v>66.09999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F186" t="n">
-        <v>2789</v>
+        <v>6189.6567</v>
       </c>
       <c r="G186" t="n">
-        <v>64.29233333333332</v>
+        <v>64.25899999999999</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7148,22 +7058,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>66.7</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C187" t="n">
-        <v>67.02</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D187" t="n">
-        <v>67.02</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E187" t="n">
-        <v>66.7</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F187" t="n">
-        <v>15115.2965</v>
+        <v>2789</v>
       </c>
       <c r="G187" t="n">
-        <v>64.34099999999998</v>
+        <v>64.29233333333332</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7183,22 +7093,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>65.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C188" t="n">
-        <v>65.7</v>
+        <v>67.02</v>
       </c>
       <c r="D188" t="n">
-        <v>65.7</v>
+        <v>67.02</v>
       </c>
       <c r="E188" t="n">
-        <v>65.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F188" t="n">
-        <v>1449</v>
+        <v>15115.2965</v>
       </c>
       <c r="G188" t="n">
-        <v>64.36766666666665</v>
+        <v>64.34099999999998</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7218,22 +7128,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>65.3</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C189" t="n">
-        <v>65.3</v>
+        <v>65.7</v>
       </c>
       <c r="D189" t="n">
-        <v>65.3</v>
+        <v>65.7</v>
       </c>
       <c r="E189" t="n">
-        <v>65.3</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F189" t="n">
-        <v>15257.8277</v>
+        <v>1449</v>
       </c>
       <c r="G189" t="n">
-        <v>64.38766666666666</v>
+        <v>64.36766666666665</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7253,22 +7163,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>65.01000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="C190" t="n">
-        <v>65.01000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="D190" t="n">
-        <v>65.01000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="E190" t="n">
-        <v>65.01000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="F190" t="n">
-        <v>2235.0574</v>
+        <v>15257.8277</v>
       </c>
       <c r="G190" t="n">
-        <v>64.39949999999999</v>
+        <v>64.38766666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7288,22 +7198,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>65.40000000000001</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="C191" t="n">
-        <v>65.40000000000001</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="D191" t="n">
-        <v>65.40000000000001</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="E191" t="n">
-        <v>65.40000000000001</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="F191" t="n">
-        <v>716</v>
+        <v>2235.0574</v>
       </c>
       <c r="G191" t="n">
-        <v>64.41783333333332</v>
+        <v>64.39949999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7326,19 +7236,19 @@
         <v>65.40000000000001</v>
       </c>
       <c r="C192" t="n">
-        <v>65.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D192" t="n">
         <v>65.40000000000001</v>
       </c>
       <c r="E192" t="n">
-        <v>65.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F192" t="n">
-        <v>7033.8072</v>
+        <v>716</v>
       </c>
       <c r="G192" t="n">
-        <v>64.42283333333333</v>
+        <v>64.41783333333332</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7358,22 +7268,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>65.01000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C193" t="n">
-        <v>65.01000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="D193" t="n">
-        <v>65.01000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>65.01000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="F193" t="n">
-        <v>274.6655</v>
+        <v>7033.8072</v>
       </c>
       <c r="G193" t="n">
-        <v>64.43933333333332</v>
+        <v>64.42283333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7393,22 +7303,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>64.97</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="C194" t="n">
-        <v>64.97</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="D194" t="n">
-        <v>64.97</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="E194" t="n">
-        <v>64.97</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="F194" t="n">
-        <v>153.9171</v>
+        <v>274.6655</v>
       </c>
       <c r="G194" t="n">
-        <v>64.45566666666666</v>
+        <v>64.43933333333332</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7428,22 +7338,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>65.01000000000001</v>
+        <v>64.97</v>
       </c>
       <c r="C195" t="n">
-        <v>65.01000000000001</v>
+        <v>64.97</v>
       </c>
       <c r="D195" t="n">
-        <v>65.01000000000001</v>
+        <v>64.97</v>
       </c>
       <c r="E195" t="n">
-        <v>65.01000000000001</v>
+        <v>64.97</v>
       </c>
       <c r="F195" t="n">
-        <v>763.0308</v>
+        <v>153.9171</v>
       </c>
       <c r="G195" t="n">
-        <v>64.47416666666666</v>
+        <v>64.45566666666666</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7475,10 +7385,10 @@
         <v>65.01000000000001</v>
       </c>
       <c r="F196" t="n">
-        <v>2235.0574</v>
+        <v>763.0308</v>
       </c>
       <c r="G196" t="n">
-        <v>64.50433333333334</v>
+        <v>64.47416666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7498,22 +7408,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>65.7</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="C197" t="n">
-        <v>65.7</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="D197" t="n">
-        <v>65.7</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="E197" t="n">
-        <v>65.7</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="F197" t="n">
-        <v>55.00761035007611</v>
+        <v>2235.0574</v>
       </c>
       <c r="G197" t="n">
-        <v>64.54600000000001</v>
+        <v>64.50433333333334</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7533,22 +7443,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>65.03</v>
+        <v>65.7</v>
       </c>
       <c r="C198" t="n">
-        <v>65.03</v>
+        <v>65.7</v>
       </c>
       <c r="D198" t="n">
-        <v>65.03</v>
+        <v>65.7</v>
       </c>
       <c r="E198" t="n">
-        <v>65.01000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="F198" t="n">
-        <v>14269.1921</v>
+        <v>55.00761035007611</v>
       </c>
       <c r="G198" t="n">
-        <v>64.58816666666668</v>
+        <v>64.54600000000001</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7563,6 +7473,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>65.03</v>
+      </c>
+      <c r="C199" t="n">
+        <v>65.03</v>
+      </c>
+      <c r="D199" t="n">
+        <v>65.03</v>
+      </c>
+      <c r="E199" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="F199" t="n">
+        <v>14269.1921</v>
+      </c>
+      <c r="G199" t="n">
+        <v>64.58816666666668</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest FX.xlsx
+++ b/BackTest/2020-01-16 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>108.0354</v>
       </c>
       <c r="G2" t="n">
+        <v>60.76266666666665</v>
+      </c>
+      <c r="H2" t="n">
         <v>62.37366666666664</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,24 +491,27 @@
         <v>28527.4953</v>
       </c>
       <c r="G3" t="n">
+        <v>60.67399999999998</v>
+      </c>
+      <c r="H3" t="n">
         <v>62.30033333333331</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>60.1</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -524,24 +535,27 @@
         <v>1500</v>
       </c>
       <c r="G4" t="n">
+        <v>60.60399999999998</v>
+      </c>
+      <c r="H4" t="n">
         <v>62.22716666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>60</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,22 +579,27 @@
         <v>2812.6433</v>
       </c>
       <c r="G5" t="n">
+        <v>60.51733333333331</v>
+      </c>
+      <c r="H5" t="n">
         <v>62.16549999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,22 +623,27 @@
         <v>12314.4668</v>
       </c>
       <c r="G6" t="n">
+        <v>60.42999999999998</v>
+      </c>
+      <c r="H6" t="n">
         <v>62.10699999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,22 +667,27 @@
         <v>7412.1484</v>
       </c>
       <c r="G7" t="n">
+        <v>60.46933333333332</v>
+      </c>
+      <c r="H7" t="n">
         <v>62.04666666666664</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>60.99</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -682,22 +711,27 @@
         <v>20000</v>
       </c>
       <c r="G8" t="n">
+        <v>60.46733333333331</v>
+      </c>
+      <c r="H8" t="n">
         <v>61.97283333333331</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>60.99</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -721,22 +755,27 @@
         <v>20000</v>
       </c>
       <c r="G9" t="n">
+        <v>60.40799999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>61.89183333333332</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,22 +799,27 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
+        <v>60.40133333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>61.82183333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>60.11</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -799,22 +843,27 @@
         <v>13778.9712</v>
       </c>
       <c r="G11" t="n">
+        <v>60.44066666666664</v>
+      </c>
+      <c r="H11" t="n">
         <v>61.75183333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -838,22 +887,27 @@
         <v>1135.5021</v>
       </c>
       <c r="G12" t="n">
+        <v>60.44066666666664</v>
+      </c>
+      <c r="H12" t="n">
         <v>61.68183333333332</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -877,22 +931,27 @@
         <v>28933.0571</v>
       </c>
       <c r="G13" t="n">
+        <v>60.48666666666665</v>
+      </c>
+      <c r="H13" t="n">
         <v>61.61349999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,22 +975,27 @@
         <v>56022.6543</v>
       </c>
       <c r="G14" t="n">
+        <v>60.57866666666665</v>
+      </c>
+      <c r="H14" t="n">
         <v>61.60283333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>61</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -955,22 +1019,27 @@
         <v>360</v>
       </c>
       <c r="G15" t="n">
+        <v>60.70533333333331</v>
+      </c>
+      <c r="H15" t="n">
         <v>61.5905</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>61.58</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -994,22 +1063,27 @@
         <v>17777</v>
       </c>
       <c r="G16" t="n">
+        <v>60.82533333333331</v>
+      </c>
+      <c r="H16" t="n">
         <v>61.56866666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1033,22 +1107,27 @@
         <v>13778.9712</v>
       </c>
       <c r="G17" t="n">
+        <v>60.94533333333331</v>
+      </c>
+      <c r="H17" t="n">
         <v>61.5485</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1072,22 +1151,27 @@
         <v>40564.1053</v>
       </c>
       <c r="G18" t="n">
+        <v>61.07199999999997</v>
+      </c>
+      <c r="H18" t="n">
         <v>61.52833333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1111,22 +1195,27 @@
         <v>499.4710367203701</v>
       </c>
       <c r="G19" t="n">
+        <v>61.24466666666663</v>
+      </c>
+      <c r="H19" t="n">
         <v>61.52133333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1150,22 +1239,27 @@
         <v>22000</v>
       </c>
       <c r="G20" t="n">
+        <v>61.31799999999997</v>
+      </c>
+      <c r="H20" t="n">
         <v>61.518</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1189,22 +1283,27 @@
         <v>26904.2712</v>
       </c>
       <c r="G21" t="n">
+        <v>61.37866666666663</v>
+      </c>
+      <c r="H21" t="n">
         <v>61.51466666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,22 +1327,27 @@
         <v>1545.2525</v>
       </c>
       <c r="G22" t="n">
+        <v>61.43933333333329</v>
+      </c>
+      <c r="H22" t="n">
         <v>61.48133333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,22 +1371,27 @@
         <v>50009</v>
       </c>
       <c r="G23" t="n">
+        <v>61.5853333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>61.48616666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,22 +1415,27 @@
         <v>73621.5073</v>
       </c>
       <c r="G24" t="n">
+        <v>61.70466666666663</v>
+      </c>
+      <c r="H24" t="n">
         <v>61.4845</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1345,22 +1459,27 @@
         <v>5245.5706</v>
       </c>
       <c r="G25" t="n">
+        <v>61.77066666666663</v>
+      </c>
+      <c r="H25" t="n">
         <v>61.48266666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,22 +1503,27 @@
         <v>4343.7821</v>
       </c>
       <c r="G26" t="n">
+        <v>61.83666666666662</v>
+      </c>
+      <c r="H26" t="n">
         <v>61.481</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>61.89</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1423,22 +1547,25 @@
         <v>9</v>
       </c>
       <c r="G27" t="n">
+        <v>61.92933333333329</v>
+      </c>
+      <c r="H27" t="n">
         <v>61.486</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,22 +1589,27 @@
         <v>285.5341</v>
       </c>
       <c r="G28" t="n">
+        <v>61.99999999999996</v>
+      </c>
+      <c r="H28" t="n">
         <v>61.48866666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1501,22 +1633,27 @@
         <v>74.5838</v>
       </c>
       <c r="G29" t="n">
+        <v>62.03199999999995</v>
+      </c>
+      <c r="H29" t="n">
         <v>61.49633333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>62.06</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,22 +1677,27 @@
         <v>3925.4162</v>
       </c>
       <c r="G30" t="n">
+        <v>61.97199999999995</v>
+      </c>
+      <c r="H30" t="n">
         <v>61.48833333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>62.06</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1579,22 +1721,27 @@
         <v>9</v>
       </c>
       <c r="G31" t="n">
+        <v>61.98333333333328</v>
+      </c>
+      <c r="H31" t="n">
         <v>61.49916666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>61</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1618,22 +1765,27 @@
         <v>5108.6068</v>
       </c>
       <c r="G32" t="n">
+        <v>61.92399999999996</v>
+      </c>
+      <c r="H32" t="n">
         <v>61.46883333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,22 +1809,27 @@
         <v>5108.6068</v>
       </c>
       <c r="G33" t="n">
+        <v>61.92999999999996</v>
+      </c>
+      <c r="H33" t="n">
         <v>61.45700000000001</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1696,22 +1853,25 @@
         <v>22852.9305</v>
       </c>
       <c r="G34" t="n">
+        <v>61.98399999999995</v>
+      </c>
+      <c r="H34" t="n">
         <v>61.47033333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1735,22 +1895,25 @@
         <v>15417.58419485938</v>
       </c>
       <c r="G35" t="n">
+        <v>62.12399999999995</v>
+      </c>
+      <c r="H35" t="n">
         <v>61.49200000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1774,22 +1937,25 @@
         <v>2089.7643</v>
       </c>
       <c r="G36" t="n">
+        <v>62.32799999999996</v>
+      </c>
+      <c r="H36" t="n">
         <v>61.54966666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,22 +1979,25 @@
         <v>44764.6904</v>
       </c>
       <c r="G37" t="n">
+        <v>62.5333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>61.58783333333335</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1852,22 +2021,25 @@
         <v>18406.428</v>
       </c>
       <c r="G38" t="n">
+        <v>62.70666666666663</v>
+      </c>
+      <c r="H38" t="n">
         <v>61.62633333333335</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1891,827 +2063,991 @@
         <v>1755.3553</v>
       </c>
       <c r="G39" t="n">
+        <v>62.9233333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>61.66733333333335</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="E40" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>24360.8273</v>
+      </c>
+      <c r="G40" t="n">
+        <v>63.1873333333333</v>
+      </c>
+      <c r="H40" t="n">
+        <v>61.72033333333334</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="C41" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="D41" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="E41" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>29255.66</v>
+      </c>
+      <c r="G41" t="n">
+        <v>63.52599999999997</v>
+      </c>
+      <c r="H41" t="n">
+        <v>61.79200000000001</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="C42" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="D42" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="F42" t="n">
+        <v>99468.24796969253</v>
+      </c>
+      <c r="G42" t="n">
+        <v>63.92533333333331</v>
+      </c>
+      <c r="H42" t="n">
+        <v>61.88533333333335</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="C43" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="D43" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="E43" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2031.835</v>
+      </c>
+      <c r="G43" t="n">
+        <v>64.33999999999997</v>
+      </c>
+      <c r="H43" t="n">
+        <v>61.98000000000002</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>67.23</v>
+      </c>
+      <c r="C44" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>67.23</v>
+      </c>
+      <c r="E44" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>87712.3817</v>
+      </c>
+      <c r="G44" t="n">
+        <v>64.67599999999997</v>
+      </c>
+      <c r="H44" t="n">
+        <v>62.07533333333335</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1755.718</v>
+      </c>
+      <c r="G45" t="n">
+        <v>65.08266666666664</v>
+      </c>
+      <c r="H45" t="n">
+        <v>62.17150000000002</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7746.0928</v>
+      </c>
+      <c r="G46" t="n">
+        <v>65.41799999999996</v>
+      </c>
+      <c r="H46" t="n">
+        <v>62.26766666666668</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2995.3715</v>
+      </c>
+      <c r="G47" t="n">
+        <v>65.81066666666662</v>
+      </c>
+      <c r="H47" t="n">
+        <v>62.36066666666668</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="C48" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="D48" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="E48" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="F48" t="n">
+        <v>187355.9282</v>
+      </c>
+      <c r="G48" t="n">
+        <v>66.14599999999996</v>
+      </c>
+      <c r="H48" t="n">
+        <v>62.45550000000001</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F49" t="n">
+        <v>18485.7171</v>
+      </c>
+      <c r="G49" t="n">
+        <v>66.46599999999995</v>
+      </c>
+      <c r="H49" t="n">
+        <v>62.57466666666668</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>68</v>
+      </c>
+      <c r="C50" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>68</v>
+      </c>
+      <c r="F50" t="n">
+        <v>28808.3138</v>
+      </c>
+      <c r="G50" t="n">
+        <v>66.75199999999995</v>
+      </c>
+      <c r="H50" t="n">
+        <v>62.67783333333335</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="C51" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="E51" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3269.4951</v>
+      </c>
+      <c r="G51" t="n">
+        <v>66.97399999999995</v>
+      </c>
+      <c r="H51" t="n">
+        <v>62.77766666666668</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="C52" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="D52" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="E52" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="F52" t="n">
+        <v>73072.6073</v>
+      </c>
+      <c r="G52" t="n">
+        <v>67.03866666666661</v>
+      </c>
+      <c r="H52" t="n">
+        <v>62.87016666666668</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="C53" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="E53" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5838.7845</v>
+      </c>
+      <c r="G53" t="n">
+        <v>67.09199999999994</v>
+      </c>
+      <c r="H53" t="n">
+        <v>62.96283333333335</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="D54" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="E54" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9872.293900000001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>67.14533333333328</v>
+      </c>
+      <c r="H54" t="n">
+        <v>63.04533333333335</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>14264.1239</v>
+      </c>
+      <c r="G55" t="n">
+        <v>67.17533333333328</v>
+      </c>
+      <c r="H55" t="n">
+        <v>63.13366666666668</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>66.44</v>
+      </c>
+      <c r="C56" t="n">
+        <v>66.43000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>66.44</v>
+      </c>
+      <c r="E56" t="n">
+        <v>66.43000000000001</v>
+      </c>
+      <c r="F56" t="n">
+        <v>14954.8439</v>
+      </c>
+      <c r="G56" t="n">
+        <v>67.13933333333328</v>
+      </c>
+      <c r="H56" t="n">
+        <v>63.23566666666668</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="C57" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3740.9882</v>
+      </c>
+      <c r="G57" t="n">
+        <v>67.02066666666661</v>
+      </c>
+      <c r="H57" t="n">
+        <v>63.32900000000001</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="C58" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="D58" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="E58" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1347.3971</v>
+      </c>
+      <c r="G58" t="n">
+        <v>66.89666666666662</v>
+      </c>
+      <c r="H58" t="n">
+        <v>63.43083333333335</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="C59" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="D59" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="E59" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4051.5566</v>
+      </c>
+      <c r="G59" t="n">
+        <v>66.85066666666663</v>
+      </c>
+      <c r="H59" t="n">
+        <v>63.53433333333335</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G60" t="n">
+        <v>66.81066666666662</v>
+      </c>
+      <c r="H60" t="n">
+        <v>63.64266666666668</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>186</v>
+      </c>
+      <c r="G61" t="n">
+        <v>66.77066666666663</v>
+      </c>
+      <c r="H61" t="n">
+        <v>63.74933333333335</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1633</v>
+      </c>
+      <c r="G62" t="n">
+        <v>66.74399999999997</v>
+      </c>
+      <c r="H62" t="n">
+        <v>63.85600000000002</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>65.15000000000001</v>
-      </c>
-      <c r="C40" t="n">
-        <v>65.84999999999999</v>
-      </c>
-      <c r="D40" t="n">
-        <v>65.84999999999999</v>
-      </c>
-      <c r="E40" t="n">
-        <v>65.15000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>24360.8273</v>
-      </c>
-      <c r="G40" t="n">
-        <v>61.72033333333334</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>65.84999999999999</v>
-      </c>
-      <c r="C41" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="D41" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="E41" t="n">
-        <v>65.84999999999999</v>
-      </c>
-      <c r="F41" t="n">
-        <v>29255.66</v>
-      </c>
-      <c r="G41" t="n">
-        <v>61.79200000000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="C42" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="D42" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E42" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="F42" t="n">
-        <v>99468.24796969253</v>
-      </c>
-      <c r="G42" t="n">
-        <v>61.88533333333335</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="C43" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="D43" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="E43" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2031.835</v>
-      </c>
-      <c r="G43" t="n">
-        <v>61.98000000000002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>67.23</v>
-      </c>
-      <c r="C44" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="D44" t="n">
-        <v>67.23</v>
-      </c>
-      <c r="E44" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="F44" t="n">
-        <v>87712.3817</v>
-      </c>
-      <c r="G44" t="n">
-        <v>62.07533333333335</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="C45" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="D45" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="E45" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1755.718</v>
-      </c>
-      <c r="G45" t="n">
-        <v>62.17150000000002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="D46" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="F46" t="n">
-        <v>7746.0928</v>
-      </c>
-      <c r="G46" t="n">
-        <v>62.26766666666668</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C47" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D47" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E47" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2995.3715</v>
-      </c>
-      <c r="G47" t="n">
-        <v>62.36066666666668</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>66.91</v>
-      </c>
-      <c r="C48" t="n">
-        <v>67.02</v>
-      </c>
-      <c r="D48" t="n">
-        <v>67.02</v>
-      </c>
-      <c r="E48" t="n">
-        <v>66.91</v>
-      </c>
-      <c r="F48" t="n">
-        <v>187355.9282</v>
-      </c>
-      <c r="G48" t="n">
-        <v>62.45550000000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="C49" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D49" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="F49" t="n">
-        <v>18485.7171</v>
-      </c>
-      <c r="G49" t="n">
-        <v>62.57466666666668</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>68</v>
-      </c>
-      <c r="C50" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="D50" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="E50" t="n">
-        <v>68</v>
-      </c>
-      <c r="F50" t="n">
-        <v>28808.3138</v>
-      </c>
-      <c r="G50" t="n">
-        <v>62.67783333333335</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="C51" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="D51" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="E51" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3269.4951</v>
-      </c>
-      <c r="G51" t="n">
-        <v>62.77766666666668</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="C52" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="D52" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="E52" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="F52" t="n">
-        <v>73072.6073</v>
-      </c>
-      <c r="G52" t="n">
-        <v>62.87016666666668</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="C53" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="D53" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="E53" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F53" t="n">
-        <v>5838.7845</v>
-      </c>
-      <c r="G53" t="n">
-        <v>62.96283333333335</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="C54" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="D54" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="E54" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F54" t="n">
-        <v>9872.293900000001</v>
-      </c>
-      <c r="G54" t="n">
-        <v>63.04533333333335</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="C55" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="D55" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>66.15000000000001</v>
-      </c>
-      <c r="F55" t="n">
-        <v>14264.1239</v>
-      </c>
-      <c r="G55" t="n">
-        <v>63.13366666666668</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>66.44</v>
-      </c>
-      <c r="C56" t="n">
-        <v>66.43000000000001</v>
-      </c>
-      <c r="D56" t="n">
-        <v>66.44</v>
-      </c>
-      <c r="E56" t="n">
-        <v>66.43000000000001</v>
-      </c>
-      <c r="F56" t="n">
-        <v>14954.8439</v>
-      </c>
-      <c r="G56" t="n">
-        <v>63.23566666666668</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="C57" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D57" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E57" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3740.9882</v>
-      </c>
-      <c r="G57" t="n">
-        <v>63.32900000000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="C58" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="D58" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="E58" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1347.3971</v>
-      </c>
-      <c r="G58" t="n">
-        <v>63.43083333333335</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="C59" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="D59" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="E59" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="F59" t="n">
-        <v>4051.5566</v>
-      </c>
-      <c r="G59" t="n">
-        <v>63.53433333333335</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C60" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D60" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E60" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1130</v>
-      </c>
-      <c r="G60" t="n">
-        <v>63.64266666666668</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C61" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D61" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E61" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F61" t="n">
-        <v>186</v>
-      </c>
-      <c r="G61" t="n">
-        <v>63.74933333333335</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C62" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D62" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E62" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1633</v>
-      </c>
-      <c r="G62" t="n">
-        <v>63.85600000000002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2733,18 +3069,21 @@
         <v>2000</v>
       </c>
       <c r="G63" t="n">
+        <v>66.70999999999998</v>
+      </c>
+      <c r="H63" t="n">
         <v>63.96450000000002</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,18 +3107,21 @@
         <v>3446.55</v>
       </c>
       <c r="G64" t="n">
+        <v>66.59133333333331</v>
+      </c>
+      <c r="H64" t="n">
         <v>64.07150000000003</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2803,18 +3145,21 @@
         <v>24464.5002</v>
       </c>
       <c r="G65" t="n">
+        <v>66.47199999999998</v>
+      </c>
+      <c r="H65" t="n">
         <v>64.16650000000001</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2838,18 +3183,21 @@
         <v>35.2802</v>
       </c>
       <c r="G66" t="n">
+        <v>66.35399999999998</v>
+      </c>
+      <c r="H66" t="n">
         <v>64.25866666666668</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2873,18 +3221,21 @@
         <v>15632.8944</v>
       </c>
       <c r="G67" t="n">
+        <v>66.38466666666665</v>
+      </c>
+      <c r="H67" t="n">
         <v>64.34900000000002</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,18 +3259,21 @@
         <v>2812.3136</v>
       </c>
       <c r="G68" t="n">
+        <v>66.46466666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>64.46216666666669</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2943,18 +3297,21 @@
         <v>4794.4363</v>
       </c>
       <c r="G69" t="n">
+        <v>66.53466666666665</v>
+      </c>
+      <c r="H69" t="n">
         <v>64.57700000000003</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,18 +3335,21 @@
         <v>7329.2627</v>
       </c>
       <c r="G70" t="n">
+        <v>66.61466666666665</v>
+      </c>
+      <c r="H70" t="n">
         <v>64.68700000000003</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3013,18 +3373,21 @@
         <v>23895.8956</v>
       </c>
       <c r="G71" t="n">
+        <v>66.69933333333331</v>
+      </c>
+      <c r="H71" t="n">
         <v>64.80033333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,18 +3411,21 @@
         <v>17244.8904</v>
       </c>
       <c r="G72" t="n">
+        <v>66.78733333333331</v>
+      </c>
+      <c r="H72" t="n">
         <v>64.91566666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3083,18 +3449,21 @@
         <v>459.9987</v>
       </c>
       <c r="G73" t="n">
+        <v>66.88066666666664</v>
+      </c>
+      <c r="H73" t="n">
         <v>65.02933333333335</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3118,18 +3487,21 @@
         <v>80347.0321</v>
       </c>
       <c r="G74" t="n">
+        <v>66.98666666666664</v>
+      </c>
+      <c r="H74" t="n">
         <v>65.13633333333335</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,18 +3525,21 @@
         <v>51961.9925</v>
       </c>
       <c r="G75" t="n">
+        <v>67.08666666666664</v>
+      </c>
+      <c r="H75" t="n">
         <v>65.23800000000001</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3188,18 +3563,21 @@
         <v>8803.4408</v>
       </c>
       <c r="G76" t="n">
+        <v>67.11999999999998</v>
+      </c>
+      <c r="H76" t="n">
         <v>65.32300000000002</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3223,18 +3601,21 @@
         <v>661</v>
       </c>
       <c r="G77" t="n">
+        <v>67.15333333333332</v>
+      </c>
+      <c r="H77" t="n">
         <v>65.40800000000002</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,18 +3639,21 @@
         <v>158</v>
       </c>
       <c r="G78" t="n">
+        <v>67.18599999999998</v>
+      </c>
+      <c r="H78" t="n">
         <v>65.49300000000001</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3293,18 +3677,21 @@
         <v>644.4046</v>
       </c>
       <c r="G79" t="n">
+        <v>67.21799999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>65.56483333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,18 +3715,21 @@
         <v>2944.1051</v>
       </c>
       <c r="G80" t="n">
+        <v>67.21799999999999</v>
+      </c>
+      <c r="H80" t="n">
         <v>65.64150000000001</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3363,18 +3753,21 @@
         <v>24604.6989</v>
       </c>
       <c r="G81" t="n">
+        <v>67.20933333333332</v>
+      </c>
+      <c r="H81" t="n">
         <v>65.71633333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,18 +3791,21 @@
         <v>29568.7469</v>
       </c>
       <c r="G82" t="n">
+        <v>67.13533333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>65.77300000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3433,18 +3829,21 @@
         <v>19.9369</v>
       </c>
       <c r="G83" t="n">
+        <v>67.06199999999998</v>
+      </c>
+      <c r="H83" t="n">
         <v>65.83133333333335</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3468,18 +3867,21 @@
         <v>33195.7082</v>
       </c>
       <c r="G84" t="n">
+        <v>66.94866666666665</v>
+      </c>
+      <c r="H84" t="n">
         <v>65.88800000000001</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3503,18 +3905,21 @@
         <v>9</v>
       </c>
       <c r="G85" t="n">
+        <v>66.80199999999998</v>
+      </c>
+      <c r="H85" t="n">
         <v>65.94483333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,18 +3943,21 @@
         <v>160.5298</v>
       </c>
       <c r="G86" t="n">
+        <v>66.67533333333331</v>
+      </c>
+      <c r="H86" t="n">
         <v>66.01000000000002</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3573,18 +3981,21 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
+        <v>66.55399999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>66.07183333333336</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,18 +4019,21 @@
         <v>11660.1085</v>
       </c>
       <c r="G88" t="n">
+        <v>66.38599999999998</v>
+      </c>
+      <c r="H88" t="n">
         <v>66.12583333333336</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3643,18 +4057,21 @@
         <v>10953.0055</v>
       </c>
       <c r="G89" t="n">
+        <v>66.12066666666665</v>
+      </c>
+      <c r="H89" t="n">
         <v>66.15850000000003</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,18 +4095,21 @@
         <v>31749.4027</v>
       </c>
       <c r="G90" t="n">
+        <v>65.87399999999998</v>
+      </c>
+      <c r="H90" t="n">
         <v>66.21350000000002</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3713,18 +4133,21 @@
         <v>155.1321</v>
       </c>
       <c r="G91" t="n">
+        <v>65.69399999999997</v>
+      </c>
+      <c r="H91" t="n">
         <v>66.2506666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,18 +4171,21 @@
         <v>20734.9774</v>
       </c>
       <c r="G92" t="n">
+        <v>65.49333333333331</v>
+      </c>
+      <c r="H92" t="n">
         <v>66.30033333333336</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3783,18 +4209,21 @@
         <v>16539.9727</v>
       </c>
       <c r="G93" t="n">
+        <v>65.29333333333331</v>
+      </c>
+      <c r="H93" t="n">
         <v>66.33383333333336</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3818,18 +4247,21 @@
         <v>2436.9341</v>
       </c>
       <c r="G94" t="n">
+        <v>65.09333333333331</v>
+      </c>
+      <c r="H94" t="n">
         <v>66.3421666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3853,18 +4285,21 @@
         <v>792.9946</v>
       </c>
       <c r="G95" t="n">
+        <v>64.92599999999997</v>
+      </c>
+      <c r="H95" t="n">
         <v>66.34200000000003</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,18 +4323,21 @@
         <v>25701.4448</v>
       </c>
       <c r="G96" t="n">
+        <v>64.76666666666664</v>
+      </c>
+      <c r="H96" t="n">
         <v>66.32600000000002</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3923,18 +4361,21 @@
         <v>82547.8239</v>
       </c>
       <c r="G97" t="n">
+        <v>64.67999999999998</v>
+      </c>
+      <c r="H97" t="n">
         <v>66.30966666666669</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,18 +4399,21 @@
         <v>8745.0561</v>
       </c>
       <c r="G98" t="n">
+        <v>64.55333333333331</v>
+      </c>
+      <c r="H98" t="n">
         <v>66.29300000000002</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3993,18 +4437,21 @@
         <v>551.8819</v>
       </c>
       <c r="G99" t="n">
+        <v>64.46666666666665</v>
+      </c>
+      <c r="H99" t="n">
         <v>66.27383333333336</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,18 +4475,21 @@
         <v>459.9987</v>
       </c>
       <c r="G100" t="n">
+        <v>64.37999999999998</v>
+      </c>
+      <c r="H100" t="n">
         <v>66.24300000000002</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4063,18 +4513,21 @@
         <v>71.1049</v>
       </c>
       <c r="G101" t="n">
+        <v>64.33999999999999</v>
+      </c>
+      <c r="H101" t="n">
         <v>66.21350000000002</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,18 +4551,21 @@
         <v>70.54649999999999</v>
       </c>
       <c r="G102" t="n">
+        <v>64.28666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>66.16216666666668</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4133,18 +4589,21 @@
         <v>7656.165</v>
       </c>
       <c r="G103" t="n">
+        <v>64.20066666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>66.09100000000002</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,18 +4627,21 @@
         <v>23103.8225</v>
       </c>
       <c r="G104" t="n">
+        <v>64.20066666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>66.03966666666669</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4203,18 +4665,21 @@
         <v>10972.75</v>
       </c>
       <c r="G105" t="n">
+        <v>64.184</v>
+      </c>
+      <c r="H105" t="n">
         <v>65.98883333333336</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,18 +4703,21 @@
         <v>23637.2357</v>
       </c>
       <c r="G106" t="n">
+        <v>64.25733333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>65.96050000000002</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,18 +4741,21 @@
         <v>5662.6632</v>
       </c>
       <c r="G107" t="n">
+        <v>64.39133333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>65.94550000000002</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,18 +4779,21 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
+        <v>64.56933333333335</v>
+      </c>
+      <c r="H108" t="n">
         <v>65.9396666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4343,18 +4817,21 @@
         <v>2622.5758</v>
       </c>
       <c r="G109" t="n">
+        <v>64.66266666666668</v>
+      </c>
+      <c r="H109" t="n">
         <v>65.89133333333335</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,18 +4855,21 @@
         <v>12632.3975</v>
       </c>
       <c r="G110" t="n">
+        <v>64.75333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>65.84233333333336</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4413,18 +4893,21 @@
         <v>16047.7974</v>
       </c>
       <c r="G111" t="n">
+        <v>64.84333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>65.79333333333335</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4448,18 +4931,21 @@
         <v>1993.0823</v>
       </c>
       <c r="G112" t="n">
+        <v>64.93333333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>65.78333333333336</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4483,18 +4969,21 @@
         <v>11141.0516</v>
       </c>
       <c r="G113" t="n">
+        <v>65.02733333333335</v>
+      </c>
+      <c r="H113" t="n">
         <v>65.77683333333336</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4518,18 +5007,21 @@
         <v>1000</v>
       </c>
       <c r="G114" t="n">
+        <v>65.05466666666668</v>
+      </c>
+      <c r="H114" t="n">
         <v>65.75116666666669</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4553,18 +5045,21 @@
         <v>8</v>
       </c>
       <c r="G115" t="n">
+        <v>65.17200000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>65.74216666666669</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,18 +5083,21 @@
         <v>6600.4548</v>
       </c>
       <c r="G116" t="n">
+        <v>65.20866666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>65.73083333333335</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4623,18 +5121,21 @@
         <v>6600.4547</v>
       </c>
       <c r="G117" t="n">
+        <v>65.164</v>
+      </c>
+      <c r="H117" t="n">
         <v>65.69800000000002</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,18 +5159,21 @@
         <v>0.0001</v>
       </c>
       <c r="G118" t="n">
+        <v>65.19866666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>65.66650000000003</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4693,18 +5197,21 @@
         <v>8</v>
       </c>
       <c r="G119" t="n">
+        <v>65.31466666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>65.6556666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4728,18 +5235,21 @@
         <v>11141.0516</v>
       </c>
       <c r="G120" t="n">
+        <v>65.33133333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>65.61900000000004</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4763,18 +5273,21 @@
         <v>153.1628120692296</v>
       </c>
       <c r="G121" t="n">
+        <v>65.324</v>
+      </c>
+      <c r="H121" t="n">
         <v>65.59883333333337</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4798,18 +5311,21 @@
         <v>152.7799</v>
       </c>
       <c r="G122" t="n">
+        <v>65.23066666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>65.56716666666669</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4833,18 +5349,21 @@
         <v>7968.8886</v>
       </c>
       <c r="G123" t="n">
+        <v>65.09933333333335</v>
+      </c>
+      <c r="H123" t="n">
         <v>65.53700000000002</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4868,18 +5387,21 @@
         <v>7275.8963</v>
       </c>
       <c r="G124" t="n">
+        <v>65.04600000000001</v>
+      </c>
+      <c r="H124" t="n">
         <v>65.50500000000002</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4903,18 +5425,21 @@
         <v>498.9018</v>
       </c>
       <c r="G125" t="n">
+        <v>64.97600000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>65.46833333333336</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,18 +5463,21 @@
         <v>24251.1055</v>
       </c>
       <c r="G126" t="n">
+        <v>64.89266666666668</v>
+      </c>
+      <c r="H126" t="n">
         <v>65.42800000000003</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4973,18 +5501,21 @@
         <v>677.3366</v>
       </c>
       <c r="G127" t="n">
+        <v>64.80933333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>65.38950000000003</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5008,18 +5539,21 @@
         <v>155.6162</v>
       </c>
       <c r="G128" t="n">
+        <v>64.72200000000002</v>
+      </c>
+      <c r="H128" t="n">
         <v>65.34116666666669</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5043,18 +5577,21 @@
         <v>10920.3488</v>
       </c>
       <c r="G129" t="n">
+        <v>64.70133333333335</v>
+      </c>
+      <c r="H129" t="n">
         <v>65.29283333333336</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,18 +5615,21 @@
         <v>10785.9569</v>
       </c>
       <c r="G130" t="n">
+        <v>64.59066666666669</v>
+      </c>
+      <c r="H130" t="n">
         <v>65.23616666666669</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5113,18 +5653,21 @@
         <v>19532.9919</v>
       </c>
       <c r="G131" t="n">
+        <v>64.49400000000001</v>
+      </c>
+      <c r="H131" t="n">
         <v>65.17950000000003</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5148,18 +5691,21 @@
         <v>136.936</v>
       </c>
       <c r="G132" t="n">
+        <v>64.47866666666668</v>
+      </c>
+      <c r="H132" t="n">
         <v>65.12083333333337</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,18 +5729,21 @@
         <v>86.7946</v>
       </c>
       <c r="G133" t="n">
+        <v>64.51000000000002</v>
+      </c>
+      <c r="H133" t="n">
         <v>65.07383333333335</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5218,18 +5767,21 @@
         <v>13125.5314</v>
       </c>
       <c r="G134" t="n">
+        <v>64.39400000000002</v>
+      </c>
+      <c r="H134" t="n">
         <v>65.00750000000002</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5253,18 +5805,21 @@
         <v>25054.3789</v>
       </c>
       <c r="G135" t="n">
+        <v>64.37333333333336</v>
+      </c>
+      <c r="H135" t="n">
         <v>64.94066666666669</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,18 +5843,21 @@
         <v>242</v>
       </c>
       <c r="G136" t="n">
+        <v>64.2806666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>64.88900000000002</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5323,18 +5881,21 @@
         <v>660.2068</v>
       </c>
       <c r="G137" t="n">
+        <v>64.18733333333337</v>
+      </c>
+      <c r="H137" t="n">
         <v>64.82566666666669</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5358,18 +5919,21 @@
         <v>157.8322</v>
       </c>
       <c r="G138" t="n">
+        <v>64.08733333333336</v>
+      </c>
+      <c r="H138" t="n">
         <v>64.76233333333336</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5393,18 +5957,21 @@
         <v>1806.3724</v>
       </c>
       <c r="G139" t="n">
+        <v>63.94733333333336</v>
+      </c>
+      <c r="H139" t="n">
         <v>64.68733333333336</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,18 +5995,21 @@
         <v>55926.0431</v>
       </c>
       <c r="G140" t="n">
+        <v>63.8146666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>64.61750000000002</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5463,18 +6033,21 @@
         <v>1319</v>
       </c>
       <c r="G141" t="n">
+        <v>63.7346666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>64.55933333333336</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5498,18 +6071,21 @@
         <v>1406.641</v>
       </c>
       <c r="G142" t="n">
+        <v>63.64133333333336</v>
+      </c>
+      <c r="H142" t="n">
         <v>64.51600000000002</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5533,18 +6109,21 @@
         <v>7682.1651</v>
       </c>
       <c r="G143" t="n">
+        <v>63.5826666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>64.47133333333335</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,18 +6147,21 @@
         <v>21884.8083</v>
       </c>
       <c r="G144" t="n">
+        <v>63.5226666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>64.43633333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5603,18 +6185,21 @@
         <v>6321.632</v>
       </c>
       <c r="G145" t="n">
+        <v>63.45533333333336</v>
+      </c>
+      <c r="H145" t="n">
         <v>64.3995</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,18 +6223,21 @@
         <v>1878.9862</v>
       </c>
       <c r="G146" t="n">
+        <v>63.37533333333337</v>
+      </c>
+      <c r="H146" t="n">
         <v>64.3545</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5673,18 +6261,21 @@
         <v>7161.6546</v>
       </c>
       <c r="G147" t="n">
+        <v>63.30200000000004</v>
+      </c>
+      <c r="H147" t="n">
         <v>64.30783333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5708,18 +6299,21 @@
         <v>938.4477000000001</v>
       </c>
       <c r="G148" t="n">
+        <v>63.21733333333338</v>
+      </c>
+      <c r="H148" t="n">
         <v>64.28166666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5743,18 +6337,21 @@
         <v>10161.8426</v>
       </c>
       <c r="G149" t="n">
+        <v>63.19800000000005</v>
+      </c>
+      <c r="H149" t="n">
         <v>64.27683333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,18 +6375,21 @@
         <v>3336.7096</v>
       </c>
       <c r="G150" t="n">
+        <v>63.14533333333338</v>
+      </c>
+      <c r="H150" t="n">
         <v>64.25849999999998</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5813,18 +6413,21 @@
         <v>10914.4198</v>
       </c>
       <c r="G151" t="n">
+        <v>63.13933333333338</v>
+      </c>
+      <c r="H151" t="n">
         <v>64.25033333333332</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,18 +6451,21 @@
         <v>4765.4848</v>
       </c>
       <c r="G152" t="n">
+        <v>63.18000000000005</v>
+      </c>
+      <c r="H152" t="n">
         <v>64.24733333333332</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5883,18 +6489,21 @@
         <v>495.2045</v>
       </c>
       <c r="G153" t="n">
+        <v>63.22133333333338</v>
+      </c>
+      <c r="H153" t="n">
         <v>64.24433333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5918,18 +6527,21 @@
         <v>134.0909</v>
       </c>
       <c r="G154" t="n">
+        <v>63.31466666666672</v>
+      </c>
+      <c r="H154" t="n">
         <v>64.24266666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,18 +6565,21 @@
         <v>7590.3528</v>
       </c>
       <c r="G155" t="n">
+        <v>63.42266666666671</v>
+      </c>
+      <c r="H155" t="n">
         <v>64.24166666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,18 +6603,21 @@
         <v>11666.7009</v>
       </c>
       <c r="G156" t="n">
+        <v>63.49133333333337</v>
+      </c>
+      <c r="H156" t="n">
         <v>64.24049999999998</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6023,18 +6641,21 @@
         <v>3047.692</v>
       </c>
       <c r="G157" t="n">
+        <v>63.57333333333337</v>
+      </c>
+      <c r="H157" t="n">
         <v>64.23933333333332</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,18 +6679,21 @@
         <v>1379.4683</v>
       </c>
       <c r="G158" t="n">
+        <v>63.62066666666669</v>
+      </c>
+      <c r="H158" t="n">
         <v>64.23816666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6093,18 +6717,21 @@
         <v>2656.2963</v>
       </c>
       <c r="G159" t="n">
+        <v>63.67400000000002</v>
+      </c>
+      <c r="H159" t="n">
         <v>64.23816666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6128,18 +6755,21 @@
         <v>8223.1942</v>
       </c>
       <c r="G160" t="n">
+        <v>63.73466666666669</v>
+      </c>
+      <c r="H160" t="n">
         <v>64.23816666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6163,18 +6793,21 @@
         <v>77.76049766718506</v>
       </c>
       <c r="G161" t="n">
+        <v>63.81466666666668</v>
+      </c>
+      <c r="H161" t="n">
         <v>64.22316666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6198,18 +6831,21 @@
         <v>628.147502332815</v>
       </c>
       <c r="G162" t="n">
+        <v>63.89466666666668</v>
+      </c>
+      <c r="H162" t="n">
         <v>64.20983333333332</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6233,18 +6869,21 @@
         <v>4061.4129</v>
       </c>
       <c r="G163" t="n">
+        <v>63.97200000000001</v>
+      </c>
+      <c r="H163" t="n">
         <v>64.22449999999999</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6268,18 +6907,21 @@
         <v>222.3084</v>
       </c>
       <c r="G164" t="n">
+        <v>64.01666666666668</v>
+      </c>
+      <c r="H164" t="n">
         <v>64.23083333333332</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6303,18 +6945,21 @@
         <v>5284.3238</v>
       </c>
       <c r="G165" t="n">
+        <v>64.07733333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>64.23183333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6338,18 +6983,21 @@
         <v>30322.1989</v>
       </c>
       <c r="G166" t="n">
+        <v>64.07866666666668</v>
+      </c>
+      <c r="H166" t="n">
         <v>64.20566666666666</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6373,18 +7021,21 @@
         <v>5782.6401</v>
       </c>
       <c r="G167" t="n">
+        <v>64.08066666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>64.16966666666666</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6408,18 +7059,21 @@
         <v>861.6082</v>
       </c>
       <c r="G168" t="n">
+        <v>64.08199999999999</v>
+      </c>
+      <c r="H168" t="n">
         <v>64.12249999999999</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6443,18 +7097,21 @@
         <v>66964.7016</v>
       </c>
       <c r="G169" t="n">
+        <v>64.148</v>
+      </c>
+      <c r="H169" t="n">
         <v>64.11399999999999</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6478,18 +7135,21 @@
         <v>5097.8778</v>
       </c>
       <c r="G170" t="n">
+        <v>64.212</v>
+      </c>
+      <c r="H170" t="n">
         <v>64.10633333333332</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6513,18 +7173,21 @@
         <v>10077.3882</v>
       </c>
       <c r="G171" t="n">
+        <v>64.276</v>
+      </c>
+      <c r="H171" t="n">
         <v>64.09866666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6548,18 +7211,21 @@
         <v>2618.985</v>
       </c>
       <c r="G172" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="H172" t="n">
         <v>64.09099999999998</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6583,18 +7249,21 @@
         <v>2652.959</v>
       </c>
       <c r="G173" t="n">
+        <v>64.41133333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>64.08416666666666</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6618,18 +7287,21 @@
         <v>20552.5</v>
       </c>
       <c r="G174" t="n">
+        <v>64.52466666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>64.10566666666665</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6653,18 +7325,21 @@
         <v>1162.2904</v>
       </c>
       <c r="G175" t="n">
+        <v>64.64266666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>64.10583333333332</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6688,18 +7363,21 @@
         <v>10896.0114</v>
       </c>
       <c r="G176" t="n">
+        <v>64.73666666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>64.10516666666665</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6723,18 +7401,21 @@
         <v>1288.584</v>
       </c>
       <c r="G177" t="n">
+        <v>64.824</v>
+      </c>
+      <c r="H177" t="n">
         <v>64.12483333333331</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6758,18 +7439,21 @@
         <v>8238.9758</v>
       </c>
       <c r="G178" t="n">
+        <v>64.87866666666666</v>
+      </c>
+      <c r="H178" t="n">
         <v>64.14449999999998</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6793,18 +7477,21 @@
         <v>1208.8973</v>
       </c>
       <c r="G179" t="n">
+        <v>64.93866666666666</v>
+      </c>
+      <c r="H179" t="n">
         <v>64.13683333333331</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6828,18 +7515,21 @@
         <v>23807.8328</v>
       </c>
       <c r="G180" t="n">
+        <v>65.00466666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>64.15016666666664</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6863,18 +7553,21 @@
         <v>2493.1523</v>
       </c>
       <c r="G181" t="n">
+        <v>65.09666666666666</v>
+      </c>
+      <c r="H181" t="n">
         <v>64.14883333333331</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6898,18 +7591,21 @@
         <v>2157.8887</v>
       </c>
       <c r="G182" t="n">
+        <v>65.18799999999999</v>
+      </c>
+      <c r="H182" t="n">
         <v>64.15899999999998</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6933,18 +7629,21 @@
         <v>1532</v>
       </c>
       <c r="G183" t="n">
+        <v>65.32533333333332</v>
+      </c>
+      <c r="H183" t="n">
         <v>64.17899999999999</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6968,18 +7667,21 @@
         <v>54025.2821</v>
       </c>
       <c r="G184" t="n">
+        <v>65.39266666666666</v>
+      </c>
+      <c r="H184" t="n">
         <v>64.20066666666665</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7003,18 +7705,21 @@
         <v>47302.1349</v>
       </c>
       <c r="G185" t="n">
+        <v>65.45999999999998</v>
+      </c>
+      <c r="H185" t="n">
         <v>64.22733333333332</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7038,18 +7743,21 @@
         <v>6189.6567</v>
       </c>
       <c r="G186" t="n">
+        <v>65.53399999999998</v>
+      </c>
+      <c r="H186" t="n">
         <v>64.25899999999999</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7073,18 +7781,21 @@
         <v>2789</v>
       </c>
       <c r="G187" t="n">
+        <v>65.61466666666665</v>
+      </c>
+      <c r="H187" t="n">
         <v>64.29233333333332</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7108,18 +7819,21 @@
         <v>15115.2965</v>
       </c>
       <c r="G188" t="n">
+        <v>65.74933333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>64.34099999999998</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7143,18 +7857,21 @@
         <v>1449</v>
       </c>
       <c r="G189" t="n">
+        <v>65.74933333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>64.36766666666665</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7178,18 +7895,21 @@
         <v>15257.8277</v>
       </c>
       <c r="G190" t="n">
+        <v>65.71799999999999</v>
+      </c>
+      <c r="H190" t="n">
         <v>64.38766666666666</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7213,18 +7933,21 @@
         <v>2235.0574</v>
       </c>
       <c r="G191" t="n">
+        <v>65.67133333333331</v>
+      </c>
+      <c r="H191" t="n">
         <v>64.39949999999999</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7248,18 +7971,21 @@
         <v>716</v>
       </c>
       <c r="G192" t="n">
+        <v>65.65066666666665</v>
+      </c>
+      <c r="H192" t="n">
         <v>64.41783333333332</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7283,18 +8009,21 @@
         <v>7033.8072</v>
       </c>
       <c r="G193" t="n">
+        <v>65.62333333333331</v>
+      </c>
+      <c r="H193" t="n">
         <v>64.42283333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7318,18 +8047,21 @@
         <v>274.6655</v>
       </c>
       <c r="G194" t="n">
+        <v>65.60399999999998</v>
+      </c>
+      <c r="H194" t="n">
         <v>64.43933333333332</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7353,18 +8085,21 @@
         <v>153.9171</v>
       </c>
       <c r="G195" t="n">
+        <v>65.59533333333331</v>
+      </c>
+      <c r="H195" t="n">
         <v>64.45566666666666</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7388,18 +8123,21 @@
         <v>763.0308</v>
       </c>
       <c r="G196" t="n">
+        <v>65.58199999999998</v>
+      </c>
+      <c r="H196" t="n">
         <v>64.47416666666666</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7423,18 +8161,21 @@
         <v>2235.0574</v>
       </c>
       <c r="G197" t="n">
+        <v>65.56866666666664</v>
+      </c>
+      <c r="H197" t="n">
         <v>64.50433333333334</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7458,18 +8199,21 @@
         <v>55.00761035007611</v>
       </c>
       <c r="G198" t="n">
+        <v>65.55533333333332</v>
+      </c>
+      <c r="H198" t="n">
         <v>64.54600000000001</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7493,18 +8237,401 @@
         <v>14269.1921</v>
       </c>
       <c r="G199" t="n">
+        <v>65.49733333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>64.58816666666668</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="C200" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D200" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="E200" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>121588.4931</v>
+      </c>
+      <c r="G200" t="n">
+        <v>65.39066666666666</v>
+      </c>
+      <c r="H200" t="n">
+        <v>64.62133333333334</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="C201" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="D201" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="E201" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="F201" t="n">
+        <v>86.7555</v>
+      </c>
+      <c r="G201" t="n">
+        <v>65.32466666666667</v>
+      </c>
+      <c r="H201" t="n">
+        <v>64.65650000000001</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C202" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D202" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="E202" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F202" t="n">
+        <v>778.2722</v>
+      </c>
+      <c r="G202" t="n">
+        <v>65.258</v>
+      </c>
+      <c r="H202" t="n">
+        <v>64.69650000000001</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C203" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="D203" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="E203" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F203" t="n">
+        <v>14498.3383</v>
+      </c>
+      <c r="G203" t="n">
+        <v>65.14933333333333</v>
+      </c>
+      <c r="H203" t="n">
+        <v>64.73266666666669</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="C204" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="D204" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="E204" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.4596</v>
+      </c>
+      <c r="G204" t="n">
+        <v>65.12866666666667</v>
+      </c>
+      <c r="H204" t="n">
+        <v>64.76916666666668</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="D205" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="E205" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="F205" t="n">
+        <v>30</v>
+      </c>
+      <c r="G205" t="n">
+        <v>65.14866666666667</v>
+      </c>
+      <c r="H205" t="n">
+        <v>64.81100000000001</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C206" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="D206" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="E206" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="F206" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G206" t="n">
+        <v>65.194</v>
+      </c>
+      <c r="H206" t="n">
+        <v>64.85416666666669</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="C207" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="D207" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="E207" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="F207" t="n">
+        <v>850</v>
+      </c>
+      <c r="G207" t="n">
+        <v>65.21333333333334</v>
+      </c>
+      <c r="H207" t="n">
+        <v>64.89566666666668</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="C208" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="D208" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="E208" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>65.23933333333335</v>
+      </c>
+      <c r="H208" t="n">
+        <v>64.92833333333336</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="C209" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="D209" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="E209" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26</v>
+      </c>
+      <c r="G209" t="n">
+        <v>65.24600000000001</v>
+      </c>
+      <c r="H209" t="n">
+        <v>64.95133333333335</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest FX.xlsx
+++ b/BackTest/2020-01-16 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N196"/>
+  <dimension ref="A1:N267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>61.9</v>
+        <v>64.3</v>
       </c>
       <c r="C2" t="n">
-        <v>61.9</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>61.9</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>61.9</v>
+        <v>64.3</v>
       </c>
       <c r="F2" t="n">
-        <v>360</v>
+        <v>14200</v>
       </c>
       <c r="G2" t="n">
-        <v>-130133.407705559</v>
+        <v>64980.47359444099</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>61.9</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>61.9</v>
+        <v>64.5</v>
       </c>
       <c r="D3" t="n">
-        <v>61.9</v>
+        <v>64.5</v>
       </c>
       <c r="E3" t="n">
-        <v>61.9</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>17777</v>
+        <v>27000</v>
       </c>
       <c r="G3" t="n">
-        <v>-130133.407705559</v>
+        <v>91980.47359444099</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,35 +510,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>61.9</v>
+        <v>64.5</v>
       </c>
       <c r="C4" t="n">
-        <v>61.9</v>
+        <v>64.5</v>
       </c>
       <c r="D4" t="n">
-        <v>61.9</v>
+        <v>64.5</v>
       </c>
       <c r="E4" t="n">
-        <v>61.9</v>
+        <v>64.5</v>
       </c>
       <c r="F4" t="n">
-        <v>13778.9712</v>
+        <v>1300</v>
       </c>
       <c r="G4" t="n">
-        <v>-130133.407705559</v>
+        <v>91980.47359444099</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>61.9</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -550,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>61.9</v>
+        <v>64.5</v>
       </c>
       <c r="C5" t="n">
-        <v>61.9</v>
+        <v>64.61</v>
       </c>
       <c r="D5" t="n">
-        <v>61.9</v>
+        <v>64.61</v>
       </c>
       <c r="E5" t="n">
-        <v>61.9</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>40564.1053</v>
+        <v>6966.701905559006</v>
       </c>
       <c r="G5" t="n">
-        <v>-130133.407705559</v>
+        <v>98947.1755</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -574,14 +570,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -592,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62</v>
+        <v>64.61</v>
       </c>
       <c r="C6" t="n">
-        <v>62.69</v>
+        <v>64.64</v>
       </c>
       <c r="D6" t="n">
-        <v>62.69</v>
+        <v>64.64</v>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>499.4710367203701</v>
+        <v>22133.84219444099</v>
       </c>
       <c r="G6" t="n">
-        <v>-129633.9366688387</v>
+        <v>121081.017694441</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -616,14 +606,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -634,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62</v>
+        <v>64.64</v>
       </c>
       <c r="C7" t="n">
-        <v>61.9</v>
+        <v>64.97</v>
       </c>
       <c r="D7" t="n">
-        <v>62</v>
+        <v>64.97</v>
       </c>
       <c r="E7" t="n">
-        <v>61.9</v>
+        <v>64.64</v>
       </c>
       <c r="F7" t="n">
-        <v>22000</v>
+        <v>27200</v>
       </c>
       <c r="G7" t="n">
-        <v>-151633.9366688387</v>
+        <v>148281.017694441</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -670,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62.5</v>
+        <v>64.95</v>
       </c>
       <c r="C8" t="n">
-        <v>61.9</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>62.5</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>61.9</v>
+        <v>64.95</v>
       </c>
       <c r="F8" t="n">
-        <v>26904.2712</v>
+        <v>53000</v>
       </c>
       <c r="G8" t="n">
-        <v>-151633.9366688387</v>
+        <v>201281.017694441</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -706,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61.9</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>61.9</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>61.9</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>61.9</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>1545.2525</v>
+        <v>1043</v>
       </c>
       <c r="G9" t="n">
-        <v>-151633.9366688387</v>
+        <v>201281.017694441</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -742,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>61.9</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>62.4</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>62.4</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>61.9</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>50009</v>
+        <v>0.7020576526022703</v>
       </c>
       <c r="G10" t="n">
-        <v>-101624.9366688387</v>
+        <v>201281.017694441</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -778,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>61.9</v>
+        <v>65.2</v>
       </c>
       <c r="C11" t="n">
-        <v>61.9</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>61.9</v>
+        <v>65.2</v>
       </c>
       <c r="E11" t="n">
-        <v>61.9</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>73621.5073</v>
+        <v>2607.297942347398</v>
       </c>
       <c r="G11" t="n">
-        <v>-175246.4439688387</v>
+        <v>201281.017694441</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -814,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>61.2</v>
+        <v>63.98</v>
       </c>
       <c r="C12" t="n">
-        <v>61.89</v>
+        <v>62.22</v>
       </c>
       <c r="D12" t="n">
-        <v>61.89</v>
+        <v>63.98</v>
       </c>
       <c r="E12" t="n">
-        <v>61.2</v>
+        <v>62.22</v>
       </c>
       <c r="F12" t="n">
-        <v>5245.5706</v>
+        <v>1013.1525</v>
       </c>
       <c r="G12" t="n">
-        <v>-180492.0145688387</v>
+        <v>200267.865194441</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -850,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>61.89</v>
+        <v>62.64</v>
       </c>
       <c r="C13" t="n">
-        <v>61.89</v>
+        <v>62.64</v>
       </c>
       <c r="D13" t="n">
-        <v>61.89</v>
+        <v>62.64</v>
       </c>
       <c r="E13" t="n">
-        <v>61.89</v>
+        <v>62.64</v>
       </c>
       <c r="F13" t="n">
-        <v>4343.7821</v>
+        <v>1603.0652</v>
       </c>
       <c r="G13" t="n">
-        <v>-180492.0145688387</v>
+        <v>201870.930394441</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -886,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>62.29</v>
+        <v>63.21</v>
       </c>
       <c r="C14" t="n">
-        <v>62.29</v>
+        <v>63.21</v>
       </c>
       <c r="D14" t="n">
-        <v>62.29</v>
+        <v>63.21</v>
       </c>
       <c r="E14" t="n">
-        <v>62.29</v>
+        <v>63.21</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>2618</v>
       </c>
       <c r="G14" t="n">
-        <v>-180483.0145688387</v>
+        <v>204488.930394441</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -922,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>62.06</v>
+        <v>63.11</v>
       </c>
       <c r="C15" t="n">
-        <v>62.06</v>
+        <v>63.11</v>
       </c>
       <c r="D15" t="n">
-        <v>62.06</v>
+        <v>63.11</v>
       </c>
       <c r="E15" t="n">
-        <v>62.06</v>
+        <v>63.11</v>
       </c>
       <c r="F15" t="n">
-        <v>285.5341</v>
+        <v>306</v>
       </c>
       <c r="G15" t="n">
-        <v>-180768.5486688387</v>
+        <v>204182.930394441</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -958,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>62.06</v>
+        <v>63.11</v>
       </c>
       <c r="C16" t="n">
-        <v>62.06</v>
+        <v>63.11</v>
       </c>
       <c r="D16" t="n">
-        <v>62.06</v>
+        <v>63.11</v>
       </c>
       <c r="E16" t="n">
-        <v>62.06</v>
+        <v>63.11</v>
       </c>
       <c r="F16" t="n">
-        <v>74.5838</v>
+        <v>34.5191</v>
       </c>
       <c r="G16" t="n">
-        <v>-180768.5486688387</v>
+        <v>204182.930394441</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -994,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>61</v>
+        <v>63.11</v>
       </c>
       <c r="C17" t="n">
-        <v>61</v>
+        <v>63.11</v>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>63.11</v>
       </c>
       <c r="E17" t="n">
-        <v>61</v>
+        <v>63.11</v>
       </c>
       <c r="F17" t="n">
-        <v>3925.4162</v>
+        <v>209.6648</v>
       </c>
       <c r="G17" t="n">
-        <v>-184693.9648688387</v>
+        <v>204182.930394441</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1030,35 +1014,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>62.07</v>
+        <v>62.31</v>
       </c>
       <c r="C18" t="n">
-        <v>62.07</v>
+        <v>62.1</v>
       </c>
       <c r="D18" t="n">
-        <v>62.07</v>
+        <v>62.31</v>
       </c>
       <c r="E18" t="n">
-        <v>62.07</v>
+        <v>62.1</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>7927.3573</v>
       </c>
       <c r="G18" t="n">
-        <v>-184684.9648688387</v>
+        <v>196255.573094441</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>61</v>
-      </c>
-      <c r="K18" t="n">
-        <v>61</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1070,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>61.01</v>
+        <v>63.99</v>
       </c>
       <c r="C19" t="n">
-        <v>61.01</v>
+        <v>62.1</v>
       </c>
       <c r="D19" t="n">
-        <v>61.01</v>
+        <v>64</v>
       </c>
       <c r="E19" t="n">
-        <v>61.01</v>
+        <v>62</v>
       </c>
       <c r="F19" t="n">
-        <v>5108.6068</v>
+        <v>7461.669905140625</v>
       </c>
       <c r="G19" t="n">
-        <v>-189793.5716688387</v>
+        <v>196255.573094441</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="K19" t="n">
-        <v>61</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1114,40 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>61.99</v>
+        <v>63.9</v>
       </c>
       <c r="C20" t="n">
-        <v>61.99</v>
+        <v>63.9</v>
       </c>
       <c r="D20" t="n">
-        <v>61.99</v>
+        <v>63.9</v>
       </c>
       <c r="E20" t="n">
-        <v>61.99</v>
+        <v>63.9</v>
       </c>
       <c r="F20" t="n">
-        <v>5108.6068</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>-184684.9648688387</v>
+        <v>196263.573094441</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>61.01</v>
-      </c>
-      <c r="K20" t="n">
-        <v>61</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1158,35 +1122,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>62.07</v>
+        <v>62.11</v>
       </c>
       <c r="C21" t="n">
-        <v>63.5</v>
+        <v>62.11</v>
       </c>
       <c r="D21" t="n">
-        <v>63.5</v>
+        <v>62.11</v>
       </c>
       <c r="E21" t="n">
-        <v>62.07</v>
+        <v>62</v>
       </c>
       <c r="F21" t="n">
-        <v>22852.9305</v>
+        <v>3534.8398</v>
       </c>
       <c r="G21" t="n">
-        <v>-161832.0343688387</v>
+        <v>192728.733294441</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>61.99</v>
-      </c>
-      <c r="K21" t="n">
-        <v>61.99</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1198,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>63.5</v>
+        <v>62.11</v>
       </c>
       <c r="C22" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" t="n">
-        <v>64</v>
+        <v>62.11</v>
       </c>
       <c r="E22" t="n">
-        <v>63.5</v>
+        <v>62</v>
       </c>
       <c r="F22" t="n">
-        <v>15417.58419485938</v>
+        <v>3291.8472</v>
       </c>
       <c r="G22" t="n">
-        <v>-146414.4501739793</v>
+        <v>189436.886094441</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>61.99</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1242,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>64.09999999999999</v>
+        <v>62</v>
       </c>
       <c r="C23" t="n">
-        <v>64.95999999999999</v>
+        <v>62</v>
       </c>
       <c r="D23" t="n">
-        <v>64.95999999999999</v>
+        <v>62</v>
       </c>
       <c r="E23" t="n">
-        <v>64.09999999999999</v>
+        <v>62</v>
       </c>
       <c r="F23" t="n">
-        <v>2089.7643</v>
+        <v>160.887</v>
       </c>
       <c r="G23" t="n">
-        <v>-144324.6858739793</v>
+        <v>189436.886094441</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1266,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>61.99</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1284,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>64.95999999999999</v>
+        <v>61.99</v>
       </c>
       <c r="C24" t="n">
-        <v>64.98</v>
+        <v>61.99</v>
       </c>
       <c r="D24" t="n">
-        <v>64.98</v>
+        <v>61.99</v>
       </c>
       <c r="E24" t="n">
-        <v>64.95999999999999</v>
+        <v>61.99</v>
       </c>
       <c r="F24" t="n">
-        <v>44764.6904</v>
+        <v>11864.8106</v>
       </c>
       <c r="G24" t="n">
-        <v>-99559.9954739793</v>
+        <v>177572.075494441</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1320,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" t="n">
-        <v>65</v>
+        <v>61.99</v>
       </c>
       <c r="D25" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E25" t="n">
-        <v>65</v>
+        <v>61.99</v>
       </c>
       <c r="F25" t="n">
-        <v>18406.428</v>
+        <v>309.8413</v>
       </c>
       <c r="G25" t="n">
-        <v>-81153.5674739793</v>
+        <v>177572.075494441</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1356,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>65</v>
+        <v>61.9</v>
       </c>
       <c r="C26" t="n">
-        <v>65.15000000000001</v>
+        <v>61.9</v>
       </c>
       <c r="D26" t="n">
-        <v>65.15000000000001</v>
+        <v>61.9</v>
       </c>
       <c r="E26" t="n">
-        <v>65</v>
+        <v>61.9</v>
       </c>
       <c r="F26" t="n">
-        <v>1755.3553</v>
+        <v>1359.719</v>
       </c>
       <c r="G26" t="n">
-        <v>-79398.21217397931</v>
+        <v>176212.356494441</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1392,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>65.15000000000001</v>
+        <v>61.7</v>
       </c>
       <c r="C27" t="n">
-        <v>65.84999999999999</v>
+        <v>61.6</v>
       </c>
       <c r="D27" t="n">
-        <v>65.84999999999999</v>
+        <v>61.7</v>
       </c>
       <c r="E27" t="n">
-        <v>65.15000000000001</v>
+        <v>61.6</v>
       </c>
       <c r="F27" t="n">
-        <v>24360.8273</v>
+        <v>3155.4125</v>
       </c>
       <c r="G27" t="n">
-        <v>-55037.3848739793</v>
+        <v>173056.943994441</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1428,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>65.84999999999999</v>
+        <v>61.53</v>
       </c>
       <c r="C28" t="n">
-        <v>66.97</v>
+        <v>61.48</v>
       </c>
       <c r="D28" t="n">
-        <v>66.97</v>
+        <v>61.53</v>
       </c>
       <c r="E28" t="n">
-        <v>65.84999999999999</v>
+        <v>61.48</v>
       </c>
       <c r="F28" t="n">
-        <v>29255.66</v>
+        <v>4409.5693</v>
       </c>
       <c r="G28" t="n">
-        <v>-25781.7248739793</v>
+        <v>168647.374694441</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1464,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>66.97</v>
+        <v>61.42</v>
       </c>
       <c r="C29" t="n">
-        <v>68.28</v>
+        <v>61.42</v>
       </c>
       <c r="D29" t="n">
-        <v>68.3</v>
+        <v>61.42</v>
       </c>
       <c r="E29" t="n">
-        <v>66.97</v>
+        <v>61.41</v>
       </c>
       <c r="F29" t="n">
-        <v>99468.24796969253</v>
+        <v>1451.039</v>
       </c>
       <c r="G29" t="n">
-        <v>73686.52309571323</v>
+        <v>167196.335694441</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1500,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68.28</v>
+        <v>61.42</v>
       </c>
       <c r="C30" t="n">
-        <v>68.28</v>
+        <v>62.83</v>
       </c>
       <c r="D30" t="n">
-        <v>68.28</v>
+        <v>62.83</v>
       </c>
       <c r="E30" t="n">
-        <v>68.28</v>
+        <v>61.39</v>
       </c>
       <c r="F30" t="n">
-        <v>2031.835</v>
+        <v>14813.4079</v>
       </c>
       <c r="G30" t="n">
-        <v>73686.52309571323</v>
+        <v>182009.743594441</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1536,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>67.23</v>
+        <v>62.7</v>
       </c>
       <c r="C31" t="n">
-        <v>67.09999999999999</v>
+        <v>62.7</v>
       </c>
       <c r="D31" t="n">
-        <v>67.23</v>
+        <v>62.7</v>
       </c>
       <c r="E31" t="n">
-        <v>67.09999999999999</v>
+        <v>62.7</v>
       </c>
       <c r="F31" t="n">
-        <v>87712.3817</v>
+        <v>302.4025</v>
       </c>
       <c r="G31" t="n">
-        <v>-14025.85860428677</v>
+        <v>181707.341094441</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1572,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>65.3</v>
+        <v>62.7</v>
       </c>
       <c r="C32" t="n">
-        <v>67.09999999999999</v>
+        <v>62.7</v>
       </c>
       <c r="D32" t="n">
-        <v>67.09999999999999</v>
+        <v>62.7</v>
       </c>
       <c r="E32" t="n">
-        <v>64.7</v>
+        <v>62.7</v>
       </c>
       <c r="F32" t="n">
-        <v>1755.718</v>
+        <v>1445.8395</v>
       </c>
       <c r="G32" t="n">
-        <v>-14025.85860428677</v>
+        <v>181707.341094441</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1608,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.2</v>
+        <v>62.7</v>
       </c>
       <c r="C33" t="n">
-        <v>67.09999999999999</v>
+        <v>62.7</v>
       </c>
       <c r="D33" t="n">
-        <v>67.2</v>
+        <v>62.7</v>
       </c>
       <c r="E33" t="n">
-        <v>67.09999999999999</v>
+        <v>62.7</v>
       </c>
       <c r="F33" t="n">
-        <v>7746.0928</v>
+        <v>852.7539</v>
       </c>
       <c r="G33" t="n">
-        <v>-14025.85860428677</v>
+        <v>181707.341094441</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1644,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.90000000000001</v>
+        <v>61.5</v>
       </c>
       <c r="C34" t="n">
-        <v>66.90000000000001</v>
+        <v>61.5</v>
       </c>
       <c r="D34" t="n">
-        <v>66.90000000000001</v>
+        <v>61.5</v>
       </c>
       <c r="E34" t="n">
-        <v>66.90000000000001</v>
+        <v>61.5</v>
       </c>
       <c r="F34" t="n">
-        <v>2995.3715</v>
+        <v>7229.4084</v>
       </c>
       <c r="G34" t="n">
-        <v>-17021.23010428677</v>
+        <v>174477.932694441</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1680,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.91</v>
+        <v>62.69</v>
       </c>
       <c r="C35" t="n">
-        <v>67.02</v>
+        <v>62.69</v>
       </c>
       <c r="D35" t="n">
-        <v>67.02</v>
+        <v>62.69</v>
       </c>
       <c r="E35" t="n">
-        <v>66.91</v>
+        <v>62.69</v>
       </c>
       <c r="F35" t="n">
-        <v>187355.9282</v>
+        <v>167.1162</v>
       </c>
       <c r="G35" t="n">
-        <v>170334.6980957132</v>
+        <v>174645.048894441</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1716,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.09999999999999</v>
+        <v>62.69</v>
       </c>
       <c r="C36" t="n">
-        <v>68.3</v>
+        <v>62.69</v>
       </c>
       <c r="D36" t="n">
-        <v>68.3</v>
+        <v>62.69</v>
       </c>
       <c r="E36" t="n">
-        <v>67.09999999999999</v>
+        <v>62.69</v>
       </c>
       <c r="F36" t="n">
-        <v>18485.7171</v>
+        <v>615</v>
       </c>
       <c r="G36" t="n">
-        <v>188820.4151957132</v>
+        <v>174645.048894441</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1752,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68</v>
+        <v>62.69</v>
       </c>
       <c r="C37" t="n">
-        <v>68.29000000000001</v>
+        <v>62.69</v>
       </c>
       <c r="D37" t="n">
-        <v>68.29000000000001</v>
+        <v>62.69</v>
       </c>
       <c r="E37" t="n">
-        <v>68</v>
+        <v>62.69</v>
       </c>
       <c r="F37" t="n">
-        <v>28808.3138</v>
+        <v>324</v>
       </c>
       <c r="G37" t="n">
-        <v>160012.1013957132</v>
+        <v>174645.048894441</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1788,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68.29000000000001</v>
+        <v>62.67</v>
       </c>
       <c r="C38" t="n">
-        <v>68.29000000000001</v>
+        <v>62.67</v>
       </c>
       <c r="D38" t="n">
-        <v>68.29000000000001</v>
+        <v>62.67</v>
       </c>
       <c r="E38" t="n">
-        <v>68.29000000000001</v>
+        <v>62.67</v>
       </c>
       <c r="F38" t="n">
-        <v>3269.4951</v>
+        <v>727</v>
       </c>
       <c r="G38" t="n">
-        <v>160012.1013957132</v>
+        <v>173918.048894441</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1824,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68.29000000000001</v>
+        <v>62.67</v>
       </c>
       <c r="C39" t="n">
-        <v>65.95</v>
+        <v>62.67</v>
       </c>
       <c r="D39" t="n">
-        <v>68.29000000000001</v>
+        <v>62.67</v>
       </c>
       <c r="E39" t="n">
-        <v>65.95</v>
+        <v>62.67</v>
       </c>
       <c r="F39" t="n">
-        <v>73072.6073</v>
+        <v>81.748</v>
       </c>
       <c r="G39" t="n">
-        <v>86939.49409571322</v>
+        <v>173918.048894441</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1860,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>65.95</v>
+        <v>62.69</v>
       </c>
       <c r="C40" t="n">
-        <v>65.8</v>
+        <v>62.68</v>
       </c>
       <c r="D40" t="n">
-        <v>65.95</v>
+        <v>62.69</v>
       </c>
       <c r="E40" t="n">
-        <v>65.8</v>
+        <v>61.5</v>
       </c>
       <c r="F40" t="n">
-        <v>5838.7845</v>
+        <v>7970.282</v>
       </c>
       <c r="G40" t="n">
-        <v>81100.70959571323</v>
+        <v>181888.330894441</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1896,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>65.8</v>
+        <v>61.5</v>
       </c>
       <c r="C41" t="n">
-        <v>65.95</v>
+        <v>62.6</v>
       </c>
       <c r="D41" t="n">
-        <v>65.95</v>
+        <v>62.6</v>
       </c>
       <c r="E41" t="n">
-        <v>65.8</v>
+        <v>61.38</v>
       </c>
       <c r="F41" t="n">
-        <v>9872.293900000001</v>
+        <v>72281.6586</v>
       </c>
       <c r="G41" t="n">
-        <v>90973.00349571323</v>
+        <v>109606.672294441</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1932,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>66.3</v>
+        <v>61.38</v>
       </c>
       <c r="C42" t="n">
-        <v>66.3</v>
+        <v>61.38</v>
       </c>
       <c r="D42" t="n">
-        <v>66.3</v>
+        <v>61.38</v>
       </c>
       <c r="E42" t="n">
-        <v>66.15000000000001</v>
+        <v>61.38</v>
       </c>
       <c r="F42" t="n">
-        <v>14264.1239</v>
+        <v>39416.5327</v>
       </c>
       <c r="G42" t="n">
-        <v>105237.1273957132</v>
+        <v>70190.13959444099</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1968,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>66.44</v>
+        <v>61.38</v>
       </c>
       <c r="C43" t="n">
-        <v>66.43000000000001</v>
+        <v>61.33</v>
       </c>
       <c r="D43" t="n">
-        <v>66.44</v>
+        <v>61.38</v>
       </c>
       <c r="E43" t="n">
-        <v>66.43000000000001</v>
+        <v>61.33</v>
       </c>
       <c r="F43" t="n">
-        <v>14954.8439</v>
+        <v>21882.0883</v>
       </c>
       <c r="G43" t="n">
-        <v>120191.9712957132</v>
+        <v>48308.05129444099</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2004,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>66.42</v>
+        <v>61.34</v>
       </c>
       <c r="C44" t="n">
-        <v>66.5</v>
+        <v>61.33</v>
       </c>
       <c r="D44" t="n">
-        <v>66.5</v>
+        <v>61.34</v>
       </c>
       <c r="E44" t="n">
-        <v>66.42</v>
+        <v>61.33</v>
       </c>
       <c r="F44" t="n">
-        <v>3740.9882</v>
+        <v>5367.83</v>
       </c>
       <c r="G44" t="n">
-        <v>123932.9594957132</v>
+        <v>48308.05129444099</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2040,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>66.42</v>
+        <v>61.32</v>
       </c>
       <c r="C45" t="n">
-        <v>66.42</v>
+        <v>61.32</v>
       </c>
       <c r="D45" t="n">
-        <v>66.42</v>
+        <v>61.32</v>
       </c>
       <c r="E45" t="n">
-        <v>66.42</v>
+        <v>61.32</v>
       </c>
       <c r="F45" t="n">
-        <v>1347.3971</v>
+        <v>1637.072</v>
       </c>
       <c r="G45" t="n">
-        <v>122585.5623957132</v>
+        <v>46670.97929444099</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2076,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>66.42</v>
+        <v>61.33</v>
       </c>
       <c r="C46" t="n">
-        <v>66.41</v>
+        <v>61.33</v>
       </c>
       <c r="D46" t="n">
-        <v>66.42</v>
+        <v>61.33</v>
       </c>
       <c r="E46" t="n">
-        <v>66.41</v>
+        <v>61.33</v>
       </c>
       <c r="F46" t="n">
-        <v>4051.5566</v>
+        <v>1095.7618</v>
       </c>
       <c r="G46" t="n">
-        <v>118534.0057957132</v>
+        <v>47766.74109444099</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2112,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>66.5</v>
+        <v>61.33</v>
       </c>
       <c r="C47" t="n">
-        <v>66.5</v>
+        <v>61.15</v>
       </c>
       <c r="D47" t="n">
-        <v>66.5</v>
+        <v>61.33</v>
       </c>
       <c r="E47" t="n">
-        <v>66.5</v>
+        <v>61.15</v>
       </c>
       <c r="F47" t="n">
-        <v>1130</v>
+        <v>19077.1461</v>
       </c>
       <c r="G47" t="n">
-        <v>119664.0057957132</v>
+        <v>28689.59499444098</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2148,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>66.5</v>
+        <v>62.1</v>
       </c>
       <c r="C48" t="n">
-        <v>66.5</v>
+        <v>62.1</v>
       </c>
       <c r="D48" t="n">
-        <v>66.5</v>
+        <v>62.1</v>
       </c>
       <c r="E48" t="n">
-        <v>66.5</v>
+        <v>62.1</v>
       </c>
       <c r="F48" t="n">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="G48" t="n">
-        <v>119664.0057957132</v>
+        <v>28698.59499444098</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2184,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>66.5</v>
+        <v>62.3</v>
       </c>
       <c r="C49" t="n">
-        <v>66.5</v>
+        <v>62.3</v>
       </c>
       <c r="D49" t="n">
-        <v>66.5</v>
+        <v>62.3</v>
       </c>
       <c r="E49" t="n">
-        <v>66.5</v>
+        <v>62.3</v>
       </c>
       <c r="F49" t="n">
-        <v>1633</v>
+        <v>10.5498</v>
       </c>
       <c r="G49" t="n">
-        <v>119664.0057957132</v>
+        <v>28709.14479444098</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2220,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>66.51000000000001</v>
+        <v>61.15</v>
       </c>
       <c r="C50" t="n">
-        <v>66.51000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="D50" t="n">
-        <v>66.51000000000001</v>
+        <v>61.15</v>
       </c>
       <c r="E50" t="n">
-        <v>66.51000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>55968.2879</v>
       </c>
       <c r="G50" t="n">
-        <v>121664.0057957132</v>
+        <v>-27259.14310555902</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2256,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.52</v>
+        <v>60.24</v>
       </c>
       <c r="C51" t="n">
-        <v>66.52</v>
+        <v>60.24</v>
       </c>
       <c r="D51" t="n">
-        <v>66.52</v>
+        <v>60.24</v>
       </c>
       <c r="E51" t="n">
-        <v>66.52</v>
+        <v>60.24</v>
       </c>
       <c r="F51" t="n">
-        <v>3446.55</v>
+        <v>1092.3427</v>
       </c>
       <c r="G51" t="n">
-        <v>125110.5557957132</v>
+        <v>-28351.48580555902</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2292,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.52</v>
+        <v>61</v>
       </c>
       <c r="C52" t="n">
-        <v>66.5</v>
+        <v>61</v>
       </c>
       <c r="D52" t="n">
-        <v>66.52</v>
+        <v>61</v>
       </c>
       <c r="E52" t="n">
-        <v>66.5</v>
+        <v>61</v>
       </c>
       <c r="F52" t="n">
-        <v>24464.5002</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>100646.0555957132</v>
+        <v>-28341.48580555902</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2328,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.5</v>
+        <v>61</v>
       </c>
       <c r="C53" t="n">
-        <v>66.52</v>
+        <v>61</v>
       </c>
       <c r="D53" t="n">
-        <v>66.52</v>
+        <v>61</v>
       </c>
       <c r="E53" t="n">
-        <v>66.5</v>
+        <v>61</v>
       </c>
       <c r="F53" t="n">
-        <v>35.2802</v>
+        <v>17996.9859</v>
       </c>
       <c r="G53" t="n">
-        <v>100681.3357957132</v>
+        <v>-28341.48580555902</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2364,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.52</v>
+        <v>60.32</v>
       </c>
       <c r="C54" t="n">
-        <v>66.41</v>
+        <v>60.31</v>
       </c>
       <c r="D54" t="n">
-        <v>66.52</v>
+        <v>60.32</v>
       </c>
       <c r="E54" t="n">
-        <v>66.41</v>
+        <v>60.31</v>
       </c>
       <c r="F54" t="n">
-        <v>15632.8944</v>
+        <v>98774.13860000001</v>
       </c>
       <c r="G54" t="n">
-        <v>85048.44139571323</v>
+        <v>-127115.624405559</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2400,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.98999999999999</v>
+        <v>60.9</v>
       </c>
       <c r="C55" t="n">
-        <v>67</v>
+        <v>60.9</v>
       </c>
       <c r="D55" t="n">
-        <v>67</v>
+        <v>60.9</v>
       </c>
       <c r="E55" t="n">
-        <v>66.98999999999999</v>
+        <v>60.9</v>
       </c>
       <c r="F55" t="n">
-        <v>2812.3136</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>87860.75499571323</v>
+        <v>-127105.624405559</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2436,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>67</v>
+        <v>60.31</v>
       </c>
       <c r="C56" t="n">
-        <v>67</v>
+        <v>60.31</v>
       </c>
       <c r="D56" t="n">
-        <v>67</v>
+        <v>60.31</v>
       </c>
       <c r="E56" t="n">
-        <v>67</v>
+        <v>60.31</v>
       </c>
       <c r="F56" t="n">
-        <v>4794.4363</v>
+        <v>389.1167</v>
       </c>
       <c r="G56" t="n">
-        <v>87860.75499571323</v>
+        <v>-127494.741105559</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2472,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>67.09999999999999</v>
+        <v>60.31</v>
       </c>
       <c r="C57" t="n">
-        <v>67.5</v>
+        <v>60.2</v>
       </c>
       <c r="D57" t="n">
-        <v>67.5</v>
+        <v>60.31</v>
       </c>
       <c r="E57" t="n">
-        <v>67.09999999999999</v>
+        <v>60.2</v>
       </c>
       <c r="F57" t="n">
-        <v>7329.2627</v>
+        <v>34071.0635</v>
       </c>
       <c r="G57" t="n">
-        <v>95190.01769571324</v>
+        <v>-161565.804605559</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2508,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>67.59</v>
+        <v>60</v>
       </c>
       <c r="C58" t="n">
-        <v>67.7</v>
+        <v>60</v>
       </c>
       <c r="D58" t="n">
-        <v>67.7</v>
+        <v>60</v>
       </c>
       <c r="E58" t="n">
-        <v>67.59</v>
+        <v>60</v>
       </c>
       <c r="F58" t="n">
-        <v>23895.8956</v>
+        <v>4747.2535</v>
       </c>
       <c r="G58" t="n">
-        <v>119085.9132957132</v>
+        <v>-166313.058105559</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2544,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>67.81999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="C59" t="n">
-        <v>67.81999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="D59" t="n">
-        <v>67.81999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="E59" t="n">
-        <v>67.81999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="F59" t="n">
-        <v>17244.8904</v>
+        <v>2754.3242</v>
       </c>
       <c r="G59" t="n">
-        <v>136330.8036957132</v>
+        <v>-163558.733905559</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2580,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>67.81999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="C60" t="n">
-        <v>67.81999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="D60" t="n">
-        <v>67.81999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="E60" t="n">
-        <v>67.81999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="F60" t="n">
-        <v>459.9987</v>
+        <v>108.0354</v>
       </c>
       <c r="G60" t="n">
-        <v>136330.8036957132</v>
+        <v>-163558.733905559</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2616,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>67.81999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="C61" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>68</v>
+        <v>60.1</v>
       </c>
       <c r="E61" t="n">
-        <v>67.81999999999999</v>
+        <v>60</v>
       </c>
       <c r="F61" t="n">
-        <v>80347.0321</v>
+        <v>28527.4953</v>
       </c>
       <c r="G61" t="n">
-        <v>216677.8357957132</v>
+        <v>-192086.229205559</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2652,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68</v>
+        <v>60.1</v>
       </c>
       <c r="C62" t="n">
-        <v>68</v>
+        <v>60.1</v>
       </c>
       <c r="D62" t="n">
-        <v>68</v>
+        <v>60.1</v>
       </c>
       <c r="E62" t="n">
-        <v>68</v>
+        <v>60.1</v>
       </c>
       <c r="F62" t="n">
-        <v>51961.9925</v>
+        <v>1500</v>
       </c>
       <c r="G62" t="n">
-        <v>216677.8357957132</v>
+        <v>-190586.229205559</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2688,28 +2634,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67</v>
+        <v>60.8</v>
       </c>
       <c r="C63" t="n">
-        <v>67</v>
+        <v>60.8</v>
       </c>
       <c r="D63" t="n">
-        <v>67</v>
+        <v>60.8</v>
       </c>
       <c r="E63" t="n">
-        <v>67</v>
+        <v>60.8</v>
       </c>
       <c r="F63" t="n">
-        <v>8803.4408</v>
+        <v>2812.6433</v>
       </c>
       <c r="G63" t="n">
-        <v>207874.3949957132</v>
+        <v>-187773.585905559</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2724,31 +2670,35 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>67</v>
+        <v>60.99</v>
       </c>
       <c r="C64" t="n">
-        <v>67</v>
+        <v>60.99</v>
       </c>
       <c r="D64" t="n">
-        <v>67</v>
+        <v>60.99</v>
       </c>
       <c r="E64" t="n">
-        <v>67</v>
+        <v>60.99</v>
       </c>
       <c r="F64" t="n">
-        <v>661</v>
+        <v>12314.4668</v>
       </c>
       <c r="G64" t="n">
-        <v>207874.3949957132</v>
+        <v>-175459.119105559</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="K64" t="n">
+        <v>60.8</v>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
@@ -2760,32 +2710,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>67</v>
+        <v>60.99</v>
       </c>
       <c r="C65" t="n">
-        <v>67</v>
+        <v>60.99</v>
       </c>
       <c r="D65" t="n">
-        <v>67</v>
+        <v>60.99</v>
       </c>
       <c r="E65" t="n">
-        <v>67</v>
+        <v>60.99</v>
       </c>
       <c r="F65" t="n">
-        <v>158</v>
+        <v>7412.1484</v>
       </c>
       <c r="G65" t="n">
-        <v>207874.3949957132</v>
+        <v>-175459.119105559</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>60.99</v>
+      </c>
+      <c r="K65" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2796,32 +2754,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>67</v>
+        <v>60.23</v>
       </c>
       <c r="C66" t="n">
-        <v>67</v>
+        <v>60.21</v>
       </c>
       <c r="D66" t="n">
-        <v>67</v>
+        <v>60.23</v>
       </c>
       <c r="E66" t="n">
-        <v>67</v>
+        <v>60.21</v>
       </c>
       <c r="F66" t="n">
-        <v>644.4046</v>
+        <v>20000</v>
       </c>
       <c r="G66" t="n">
-        <v>207874.3949957132</v>
+        <v>-195459.119105559</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>60.99</v>
+      </c>
+      <c r="K66" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2832,32 +2798,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>66.51000000000001</v>
+        <v>60.22</v>
       </c>
       <c r="C67" t="n">
-        <v>66.5</v>
+        <v>60.11</v>
       </c>
       <c r="D67" t="n">
-        <v>66.51000000000001</v>
+        <v>60.22</v>
       </c>
       <c r="E67" t="n">
-        <v>66.5</v>
+        <v>60.11</v>
       </c>
       <c r="F67" t="n">
-        <v>2944.1051</v>
+        <v>20000</v>
       </c>
       <c r="G67" t="n">
-        <v>204930.2898957132</v>
+        <v>-215459.119105559</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="K67" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2868,32 +2842,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>66.40000000000001</v>
+        <v>60.9</v>
       </c>
       <c r="C68" t="n">
-        <v>66.39</v>
+        <v>60.9</v>
       </c>
       <c r="D68" t="n">
-        <v>66.40000000000001</v>
+        <v>60.9</v>
       </c>
       <c r="E68" t="n">
-        <v>66.39</v>
+        <v>60.9</v>
       </c>
       <c r="F68" t="n">
-        <v>24604.6989</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>180325.5909957133</v>
+        <v>-215449.119105559</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>60.11</v>
+      </c>
+      <c r="K68" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2904,32 +2886,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>65.90000000000001</v>
+        <v>60.7</v>
       </c>
       <c r="C69" t="n">
-        <v>65.3</v>
+        <v>60.9</v>
       </c>
       <c r="D69" t="n">
-        <v>66</v>
+        <v>60.9</v>
       </c>
       <c r="E69" t="n">
-        <v>65.3</v>
+        <v>60.7</v>
       </c>
       <c r="F69" t="n">
-        <v>29568.7469</v>
+        <v>13778.9712</v>
       </c>
       <c r="G69" t="n">
-        <v>150756.8440957133</v>
+        <v>-215449.119105559</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K69" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2940,32 +2930,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>65.40000000000001</v>
+        <v>60.9</v>
       </c>
       <c r="C70" t="n">
-        <v>65.90000000000001</v>
+        <v>60.9</v>
       </c>
       <c r="D70" t="n">
-        <v>65.90000000000001</v>
+        <v>60.9</v>
       </c>
       <c r="E70" t="n">
-        <v>65.40000000000001</v>
+        <v>60.9</v>
       </c>
       <c r="F70" t="n">
-        <v>19.9369</v>
+        <v>1135.5021</v>
       </c>
       <c r="G70" t="n">
-        <v>150776.7809957133</v>
+        <v>-215449.119105559</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K70" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2976,32 +2974,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>65.40000000000001</v>
+        <v>60.9</v>
       </c>
       <c r="C71" t="n">
-        <v>65.3</v>
+        <v>61</v>
       </c>
       <c r="D71" t="n">
-        <v>65.40000000000001</v>
+        <v>61</v>
       </c>
       <c r="E71" t="n">
-        <v>65.3</v>
+        <v>60.9</v>
       </c>
       <c r="F71" t="n">
-        <v>33195.7082</v>
+        <v>28933.0571</v>
       </c>
       <c r="G71" t="n">
-        <v>117581.0727957133</v>
+        <v>-186516.062005559</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K71" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3012,32 +3018,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>65.3</v>
+        <v>61</v>
       </c>
       <c r="C72" t="n">
-        <v>65.3</v>
+        <v>61.58</v>
       </c>
       <c r="D72" t="n">
-        <v>65.3</v>
+        <v>61.58</v>
       </c>
       <c r="E72" t="n">
-        <v>65.3</v>
+        <v>61</v>
       </c>
       <c r="F72" t="n">
-        <v>9</v>
+        <v>56022.6543</v>
       </c>
       <c r="G72" t="n">
-        <v>117581.0727957133</v>
+        <v>-130493.407705559</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>61</v>
+      </c>
+      <c r="K72" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3048,32 +3062,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>65.8</v>
+        <v>61.9</v>
       </c>
       <c r="C73" t="n">
-        <v>65.8</v>
+        <v>61.9</v>
       </c>
       <c r="D73" t="n">
-        <v>65.8</v>
+        <v>61.9</v>
       </c>
       <c r="E73" t="n">
-        <v>65.8</v>
+        <v>61.9</v>
       </c>
       <c r="F73" t="n">
-        <v>160.5298</v>
+        <v>360</v>
       </c>
       <c r="G73" t="n">
-        <v>117741.6025957133</v>
+        <v>-130133.407705559</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>61.58</v>
+      </c>
+      <c r="K73" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3084,32 +3106,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>66</v>
+        <v>61.9</v>
       </c>
       <c r="C74" t="n">
-        <v>66</v>
+        <v>61.9</v>
       </c>
       <c r="D74" t="n">
-        <v>66</v>
+        <v>61.9</v>
       </c>
       <c r="E74" t="n">
-        <v>66</v>
+        <v>61.9</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>17777</v>
       </c>
       <c r="G74" t="n">
-        <v>117751.6025957133</v>
+        <v>-130133.407705559</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="K74" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3120,32 +3150,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>65.34999999999999</v>
+        <v>61.9</v>
       </c>
       <c r="C75" t="n">
-        <v>65.3</v>
+        <v>61.9</v>
       </c>
       <c r="D75" t="n">
-        <v>65.34999999999999</v>
+        <v>61.9</v>
       </c>
       <c r="E75" t="n">
-        <v>65.3</v>
+        <v>61.9</v>
       </c>
       <c r="F75" t="n">
-        <v>11660.1085</v>
+        <v>13778.9712</v>
       </c>
       <c r="G75" t="n">
-        <v>106091.4940957133</v>
+        <v>-130133.407705559</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="K75" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3156,22 +3194,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>64.97</v>
+        <v>61.9</v>
       </c>
       <c r="C76" t="n">
-        <v>64.02</v>
+        <v>61.9</v>
       </c>
       <c r="D76" t="n">
-        <v>64.97</v>
+        <v>61.9</v>
       </c>
       <c r="E76" t="n">
-        <v>64.02</v>
+        <v>61.9</v>
       </c>
       <c r="F76" t="n">
-        <v>10953.0055</v>
+        <v>40564.1053</v>
       </c>
       <c r="G76" t="n">
-        <v>95138.48859571326</v>
+        <v>-130133.407705559</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3180,8 +3218,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3192,32 +3236,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>64.40000000000001</v>
+        <v>62</v>
       </c>
       <c r="C77" t="n">
-        <v>64.3</v>
+        <v>62.69</v>
       </c>
       <c r="D77" t="n">
-        <v>64.40000000000001</v>
+        <v>62.69</v>
       </c>
       <c r="E77" t="n">
-        <v>64.3</v>
+        <v>62</v>
       </c>
       <c r="F77" t="n">
-        <v>31749.4027</v>
+        <v>499.4710367203701</v>
       </c>
       <c r="G77" t="n">
-        <v>126887.8912957133</v>
+        <v>-129633.9366688387</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="K77" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3228,22 +3280,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>64.3</v>
+        <v>62</v>
       </c>
       <c r="C78" t="n">
-        <v>64.3</v>
+        <v>61.9</v>
       </c>
       <c r="D78" t="n">
-        <v>64.3</v>
+        <v>62</v>
       </c>
       <c r="E78" t="n">
-        <v>64.3</v>
+        <v>61.9</v>
       </c>
       <c r="F78" t="n">
-        <v>155.1321</v>
+        <v>22000</v>
       </c>
       <c r="G78" t="n">
-        <v>126887.8912957133</v>
+        <v>-151633.9366688387</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3252,8 +3304,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3264,22 +3322,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>64.02</v>
+        <v>62.5</v>
       </c>
       <c r="C79" t="n">
-        <v>63.99</v>
+        <v>61.9</v>
       </c>
       <c r="D79" t="n">
-        <v>64.02</v>
+        <v>62.5</v>
       </c>
       <c r="E79" t="n">
-        <v>63.99</v>
+        <v>61.9</v>
       </c>
       <c r="F79" t="n">
-        <v>20734.9774</v>
+        <v>26904.2712</v>
       </c>
       <c r="G79" t="n">
-        <v>106152.9138957133</v>
+        <v>-151633.9366688387</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3288,8 +3346,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3300,22 +3364,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>64</v>
+        <v>61.9</v>
       </c>
       <c r="C80" t="n">
-        <v>64</v>
+        <v>61.9</v>
       </c>
       <c r="D80" t="n">
-        <v>64</v>
+        <v>61.9</v>
       </c>
       <c r="E80" t="n">
-        <v>64</v>
+        <v>61.9</v>
       </c>
       <c r="F80" t="n">
-        <v>16539.9727</v>
+        <v>1545.2525</v>
       </c>
       <c r="G80" t="n">
-        <v>122692.8865957133</v>
+        <v>-151633.9366688387</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3324,8 +3388,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3336,22 +3406,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>63.99</v>
+        <v>61.9</v>
       </c>
       <c r="C81" t="n">
-        <v>64</v>
+        <v>62.4</v>
       </c>
       <c r="D81" t="n">
-        <v>64</v>
+        <v>62.4</v>
       </c>
       <c r="E81" t="n">
-        <v>63.99</v>
+        <v>61.9</v>
       </c>
       <c r="F81" t="n">
-        <v>2436.9341</v>
+        <v>50009</v>
       </c>
       <c r="G81" t="n">
-        <v>122692.8865957133</v>
+        <v>-101624.9366688387</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3360,8 +3430,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3372,22 +3448,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>63.99</v>
+        <v>61.9</v>
       </c>
       <c r="C82" t="n">
-        <v>63.99</v>
+        <v>61.9</v>
       </c>
       <c r="D82" t="n">
-        <v>63.99</v>
+        <v>61.9</v>
       </c>
       <c r="E82" t="n">
-        <v>63.99</v>
+        <v>61.9</v>
       </c>
       <c r="F82" t="n">
-        <v>792.9946</v>
+        <v>73621.5073</v>
       </c>
       <c r="G82" t="n">
-        <v>121899.8919957132</v>
+        <v>-175246.4439688387</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3396,8 +3472,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3490,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>63.99</v>
+        <v>61.2</v>
       </c>
       <c r="C83" t="n">
-        <v>64</v>
+        <v>61.89</v>
       </c>
       <c r="D83" t="n">
-        <v>64</v>
+        <v>61.89</v>
       </c>
       <c r="E83" t="n">
-        <v>63.99</v>
+        <v>61.2</v>
       </c>
       <c r="F83" t="n">
-        <v>25701.4448</v>
+        <v>5245.5706</v>
       </c>
       <c r="G83" t="n">
-        <v>147601.3367957133</v>
+        <v>-180492.0145688387</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3432,8 +3514,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3444,22 +3532,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>64.01000000000001</v>
+        <v>61.89</v>
       </c>
       <c r="C84" t="n">
-        <v>64</v>
+        <v>61.89</v>
       </c>
       <c r="D84" t="n">
-        <v>64.01000000000001</v>
+        <v>61.89</v>
       </c>
       <c r="E84" t="n">
-        <v>64</v>
+        <v>61.89</v>
       </c>
       <c r="F84" t="n">
-        <v>82547.8239</v>
+        <v>4343.7821</v>
       </c>
       <c r="G84" t="n">
-        <v>147601.3367957133</v>
+        <v>-180492.0145688387</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3468,8 +3556,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3480,22 +3574,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>64</v>
+        <v>62.29</v>
       </c>
       <c r="C85" t="n">
-        <v>64</v>
+        <v>62.29</v>
       </c>
       <c r="D85" t="n">
-        <v>64</v>
+        <v>62.29</v>
       </c>
       <c r="E85" t="n">
-        <v>64</v>
+        <v>62.29</v>
       </c>
       <c r="F85" t="n">
-        <v>8745.0561</v>
+        <v>9</v>
       </c>
       <c r="G85" t="n">
-        <v>147601.3367957133</v>
+        <v>-180483.0145688387</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3504,8 +3598,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3516,22 +3616,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>64</v>
+        <v>62.06</v>
       </c>
       <c r="C86" t="n">
-        <v>64</v>
+        <v>62.06</v>
       </c>
       <c r="D86" t="n">
-        <v>64</v>
+        <v>62.06</v>
       </c>
       <c r="E86" t="n">
-        <v>64</v>
+        <v>62.06</v>
       </c>
       <c r="F86" t="n">
-        <v>551.8819</v>
+        <v>285.5341</v>
       </c>
       <c r="G86" t="n">
-        <v>147601.3367957133</v>
+        <v>-180768.5486688387</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3540,8 +3640,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3552,22 +3658,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>64</v>
+        <v>62.06</v>
       </c>
       <c r="C87" t="n">
-        <v>64</v>
+        <v>62.06</v>
       </c>
       <c r="D87" t="n">
-        <v>64</v>
+        <v>62.06</v>
       </c>
       <c r="E87" t="n">
-        <v>64</v>
+        <v>62.06</v>
       </c>
       <c r="F87" t="n">
-        <v>459.9987</v>
+        <v>74.5838</v>
       </c>
       <c r="G87" t="n">
-        <v>147601.3367957133</v>
+        <v>-180768.5486688387</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3576,8 +3682,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3588,22 +3700,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>65.2</v>
+        <v>61</v>
       </c>
       <c r="C88" t="n">
-        <v>65.2</v>
+        <v>61</v>
       </c>
       <c r="D88" t="n">
-        <v>65.2</v>
+        <v>61</v>
       </c>
       <c r="E88" t="n">
-        <v>65.2</v>
+        <v>61</v>
       </c>
       <c r="F88" t="n">
-        <v>71.1049</v>
+        <v>3925.4162</v>
       </c>
       <c r="G88" t="n">
-        <v>147672.4416957133</v>
+        <v>-184693.9648688387</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3612,8 +3724,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3624,22 +3742,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>65.2</v>
+        <v>62.07</v>
       </c>
       <c r="C89" t="n">
-        <v>65.2</v>
+        <v>62.07</v>
       </c>
       <c r="D89" t="n">
-        <v>65.2</v>
+        <v>62.07</v>
       </c>
       <c r="E89" t="n">
-        <v>65.2</v>
+        <v>62.07</v>
       </c>
       <c r="F89" t="n">
-        <v>70.54649999999999</v>
+        <v>9</v>
       </c>
       <c r="G89" t="n">
-        <v>147672.4416957133</v>
+        <v>-184684.9648688387</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3648,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3660,22 +3784,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>64.01000000000001</v>
+        <v>61.01</v>
       </c>
       <c r="C90" t="n">
-        <v>64.01000000000001</v>
+        <v>61.01</v>
       </c>
       <c r="D90" t="n">
-        <v>64.01000000000001</v>
+        <v>61.01</v>
       </c>
       <c r="E90" t="n">
-        <v>64.01000000000001</v>
+        <v>61.01</v>
       </c>
       <c r="F90" t="n">
-        <v>7656.165</v>
+        <v>5108.6068</v>
       </c>
       <c r="G90" t="n">
-        <v>140016.2766957133</v>
+        <v>-189793.5716688387</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3684,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3696,22 +3826,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>64.13</v>
+        <v>61.99</v>
       </c>
       <c r="C91" t="n">
-        <v>64.02</v>
+        <v>61.99</v>
       </c>
       <c r="D91" t="n">
-        <v>64.13</v>
+        <v>61.99</v>
       </c>
       <c r="E91" t="n">
-        <v>64.02</v>
+        <v>61.99</v>
       </c>
       <c r="F91" t="n">
-        <v>23103.8225</v>
+        <v>5108.6068</v>
       </c>
       <c r="G91" t="n">
-        <v>163120.0991957133</v>
+        <v>-184684.9648688387</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3720,8 +3850,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3732,22 +3868,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>64.05</v>
+        <v>62.07</v>
       </c>
       <c r="C92" t="n">
-        <v>64.05</v>
+        <v>63.5</v>
       </c>
       <c r="D92" t="n">
-        <v>64.05</v>
+        <v>63.5</v>
       </c>
       <c r="E92" t="n">
-        <v>64.05</v>
+        <v>62.07</v>
       </c>
       <c r="F92" t="n">
-        <v>10972.75</v>
+        <v>22852.9305</v>
       </c>
       <c r="G92" t="n">
-        <v>174092.8491957133</v>
+        <v>-161832.0343688387</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3756,8 +3892,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3768,22 +3910,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>65</v>
+        <v>63.5</v>
       </c>
       <c r="C93" t="n">
-        <v>65.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="D93" t="n">
-        <v>65.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="E93" t="n">
-        <v>65</v>
+        <v>63.5</v>
       </c>
       <c r="F93" t="n">
-        <v>23637.2357</v>
+        <v>15417.58419485938</v>
       </c>
       <c r="G93" t="n">
-        <v>197730.0848957133</v>
+        <v>-146414.4501739793</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3792,8 +3934,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3804,22 +3952,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>65.47</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>66</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>66</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>65.47</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>5662.6632</v>
+        <v>2089.7643</v>
       </c>
       <c r="G94" t="n">
-        <v>203392.7480957133</v>
+        <v>-144324.6858739793</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3828,8 +3976,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3840,22 +3994,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>66.67</v>
+        <v>64.98</v>
       </c>
       <c r="D95" t="n">
-        <v>66.67</v>
+        <v>64.98</v>
       </c>
       <c r="E95" t="n">
-        <v>66</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>44764.6904</v>
       </c>
       <c r="G95" t="n">
-        <v>203402.7480957133</v>
+        <v>-99559.9954739793</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3864,8 +4018,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3876,32 +4036,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>65.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="C96" t="n">
-        <v>65.40000000000001</v>
+        <v>65</v>
       </c>
       <c r="D96" t="n">
-        <v>65.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="E96" t="n">
-        <v>65.40000000000001</v>
+        <v>65</v>
       </c>
       <c r="F96" t="n">
-        <v>2622.5758</v>
+        <v>18406.428</v>
       </c>
       <c r="G96" t="n">
-        <v>200780.1722957133</v>
+        <v>-81153.5674739793</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3912,32 +4078,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>65.40000000000001</v>
+        <v>65</v>
       </c>
       <c r="C97" t="n">
-        <v>65.34999999999999</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>65.40000000000001</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>65.34999999999999</v>
+        <v>65</v>
       </c>
       <c r="F97" t="n">
-        <v>12632.3975</v>
+        <v>1755.3553</v>
       </c>
       <c r="G97" t="n">
-        <v>188147.7747957133</v>
+        <v>-79398.21217397931</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3948,32 +4120,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>65.41</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>65.34999999999999</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>65.41</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>65.34999999999999</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>16047.7974</v>
+        <v>24360.8273</v>
       </c>
       <c r="G98" t="n">
-        <v>188147.7747957133</v>
+        <v>-55037.3848739793</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3984,32 +4162,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>65.34999999999999</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>65.34999999999999</v>
+        <v>66.97</v>
       </c>
       <c r="D99" t="n">
-        <v>65.34999999999999</v>
+        <v>66.97</v>
       </c>
       <c r="E99" t="n">
-        <v>65.34999999999999</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>1993.0823</v>
+        <v>29255.66</v>
       </c>
       <c r="G99" t="n">
-        <v>188147.7747957133</v>
+        <v>-25781.7248739793</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4020,32 +4204,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>65.3</v>
+        <v>66.97</v>
       </c>
       <c r="C100" t="n">
-        <v>65.41</v>
+        <v>68.28</v>
       </c>
       <c r="D100" t="n">
-        <v>65.41</v>
+        <v>68.3</v>
       </c>
       <c r="E100" t="n">
-        <v>65.3</v>
+        <v>66.97</v>
       </c>
       <c r="F100" t="n">
-        <v>11141.0516</v>
+        <v>99468.24796969253</v>
       </c>
       <c r="G100" t="n">
-        <v>199288.8263957133</v>
+        <v>73686.52309571323</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4056,32 +4246,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>64.5</v>
+        <v>68.28</v>
       </c>
       <c r="C101" t="n">
-        <v>64.41</v>
+        <v>68.28</v>
       </c>
       <c r="D101" t="n">
-        <v>64.5</v>
+        <v>68.28</v>
       </c>
       <c r="E101" t="n">
-        <v>64.41</v>
+        <v>68.28</v>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>2031.835</v>
       </c>
       <c r="G101" t="n">
-        <v>198288.8263957133</v>
+        <v>73686.52309571323</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4092,32 +4288,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>65.76000000000001</v>
+        <v>67.23</v>
       </c>
       <c r="C102" t="n">
-        <v>65.76000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>65.76000000000001</v>
+        <v>67.23</v>
       </c>
       <c r="E102" t="n">
-        <v>65.76000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>8</v>
+        <v>87712.3817</v>
       </c>
       <c r="G102" t="n">
-        <v>198296.8263957133</v>
+        <v>-14025.85860428677</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4128,32 +4330,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>65.59999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="C103" t="n">
-        <v>65.75</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>65.75</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>65.59999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="F103" t="n">
-        <v>6600.4548</v>
+        <v>1755.718</v>
       </c>
       <c r="G103" t="n">
-        <v>191696.3715957133</v>
+        <v>-14025.85860428677</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4164,32 +4372,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>65.75</v>
+        <v>67.2</v>
       </c>
       <c r="C104" t="n">
-        <v>64.53</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>65.75</v>
+        <v>67.2</v>
       </c>
       <c r="E104" t="n">
-        <v>64.53</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>6600.4547</v>
+        <v>7746.0928</v>
       </c>
       <c r="G104" t="n">
-        <v>185095.9168957133</v>
+        <v>-14025.85860428677</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4200,32 +4414,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>64.53</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>64.53</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>64.53</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>64.53</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0001</v>
+        <v>2995.3715</v>
       </c>
       <c r="G105" t="n">
-        <v>185095.9168957133</v>
+        <v>-17021.23010428677</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4236,32 +4456,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>65.76000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="C106" t="n">
-        <v>65.76000000000001</v>
+        <v>67.02</v>
       </c>
       <c r="D106" t="n">
-        <v>65.76000000000001</v>
+        <v>67.02</v>
       </c>
       <c r="E106" t="n">
-        <v>65.76000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="F106" t="n">
-        <v>8</v>
+        <v>187355.9282</v>
       </c>
       <c r="G106" t="n">
-        <v>185103.9168957133</v>
+        <v>170334.6980957132</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4272,32 +4498,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>64.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>64.3</v>
+        <v>68.3</v>
       </c>
       <c r="D107" t="n">
-        <v>64.7</v>
+        <v>68.3</v>
       </c>
       <c r="E107" t="n">
-        <v>64.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>11141.0516</v>
+        <v>18485.7171</v>
       </c>
       <c r="G107" t="n">
-        <v>173962.8652957133</v>
+        <v>188820.4151957132</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4308,32 +4540,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>65.29000000000001</v>
+        <v>68</v>
       </c>
       <c r="C108" t="n">
-        <v>65.29000000000001</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>65.29000000000001</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>65.29000000000001</v>
+        <v>68</v>
       </c>
       <c r="F108" t="n">
-        <v>153.1628120692296</v>
+        <v>28808.3138</v>
       </c>
       <c r="G108" t="n">
-        <v>174116.0281077825</v>
+        <v>160012.1013957132</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4344,32 +4582,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>64.59999999999999</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>64.59999999999999</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>64.59999999999999</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>64.59999999999999</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>152.7799</v>
+        <v>3269.4951</v>
       </c>
       <c r="G109" t="n">
-        <v>173963.2482077825</v>
+        <v>160012.1013957132</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4380,22 +4624,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>64.7</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>64.7</v>
+        <v>65.95</v>
       </c>
       <c r="D110" t="n">
-        <v>64.7</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>64.7</v>
+        <v>65.95</v>
       </c>
       <c r="F110" t="n">
-        <v>7968.8886</v>
+        <v>73072.6073</v>
       </c>
       <c r="G110" t="n">
-        <v>181932.1368077825</v>
+        <v>86939.49409571322</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4404,8 +4648,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4416,22 +4666,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>64.59999999999999</v>
+        <v>65.95</v>
       </c>
       <c r="C111" t="n">
-        <v>64.59999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="D111" t="n">
-        <v>64.59999999999999</v>
+        <v>65.95</v>
       </c>
       <c r="E111" t="n">
-        <v>64.59999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="F111" t="n">
-        <v>7275.8963</v>
+        <v>5838.7845</v>
       </c>
       <c r="G111" t="n">
-        <v>174656.2405077825</v>
+        <v>81100.70959571323</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4440,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4452,22 +4708,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>64.3</v>
+        <v>65.8</v>
       </c>
       <c r="C112" t="n">
-        <v>64.3</v>
+        <v>65.95</v>
       </c>
       <c r="D112" t="n">
-        <v>64.3</v>
+        <v>65.95</v>
       </c>
       <c r="E112" t="n">
-        <v>64.3</v>
+        <v>65.8</v>
       </c>
       <c r="F112" t="n">
-        <v>498.9018</v>
+        <v>9872.293900000001</v>
       </c>
       <c r="G112" t="n">
-        <v>174157.3387077825</v>
+        <v>90973.00349571323</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4476,8 +4732,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4488,22 +4750,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>64.2</v>
+        <v>66.3</v>
       </c>
       <c r="C113" t="n">
-        <v>64.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D113" t="n">
-        <v>64.2</v>
+        <v>66.3</v>
       </c>
       <c r="E113" t="n">
-        <v>64.09999999999999</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>24251.1055</v>
+        <v>14264.1239</v>
       </c>
       <c r="G113" t="n">
-        <v>149906.2332077825</v>
+        <v>105237.1273957132</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4512,8 +4774,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4524,22 +4792,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>64.09999999999999</v>
+        <v>66.44</v>
       </c>
       <c r="C114" t="n">
-        <v>64.09999999999999</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>64.09999999999999</v>
+        <v>66.44</v>
       </c>
       <c r="E114" t="n">
-        <v>64.09999999999999</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>677.3366</v>
+        <v>14954.8439</v>
       </c>
       <c r="G114" t="n">
-        <v>149906.2332077825</v>
+        <v>120191.9712957132</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4548,8 +4816,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4560,22 +4834,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>64.09999999999999</v>
+        <v>66.42</v>
       </c>
       <c r="C115" t="n">
-        <v>64.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D115" t="n">
-        <v>64.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E115" t="n">
-        <v>64.09999999999999</v>
+        <v>66.42</v>
       </c>
       <c r="F115" t="n">
-        <v>155.6162</v>
+        <v>3740.9882</v>
       </c>
       <c r="G115" t="n">
-        <v>149906.2332077825</v>
+        <v>123932.9594957132</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4584,8 +4858,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4596,22 +4876,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>64.09999999999999</v>
+        <v>66.42</v>
       </c>
       <c r="C116" t="n">
-        <v>64.09999999999999</v>
+        <v>66.42</v>
       </c>
       <c r="D116" t="n">
-        <v>64.09999999999999</v>
+        <v>66.42</v>
       </c>
       <c r="E116" t="n">
-        <v>64.09999999999999</v>
+        <v>66.42</v>
       </c>
       <c r="F116" t="n">
-        <v>10920.3488</v>
+        <v>1347.3971</v>
       </c>
       <c r="G116" t="n">
-        <v>149906.2332077825</v>
+        <v>122585.5623957132</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4620,8 +4900,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4632,22 +4918,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>64.09999999999999</v>
+        <v>66.42</v>
       </c>
       <c r="C117" t="n">
-        <v>64.09999999999999</v>
+        <v>66.41</v>
       </c>
       <c r="D117" t="n">
-        <v>64.09999999999999</v>
+        <v>66.42</v>
       </c>
       <c r="E117" t="n">
-        <v>64.09999999999999</v>
+        <v>66.41</v>
       </c>
       <c r="F117" t="n">
-        <v>10785.9569</v>
+        <v>4051.5566</v>
       </c>
       <c r="G117" t="n">
-        <v>149906.2332077825</v>
+        <v>118534.0057957132</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4656,8 +4942,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +4960,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>64.3</v>
+        <v>66.5</v>
       </c>
       <c r="C118" t="n">
-        <v>64.3</v>
+        <v>66.5</v>
       </c>
       <c r="D118" t="n">
-        <v>64.3</v>
+        <v>66.5</v>
       </c>
       <c r="E118" t="n">
-        <v>64.3</v>
+        <v>66.5</v>
       </c>
       <c r="F118" t="n">
-        <v>19532.9919</v>
+        <v>1130</v>
       </c>
       <c r="G118" t="n">
-        <v>169439.2251077825</v>
+        <v>119664.0057957132</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4692,8 +4984,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4704,22 +5002,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>64.3</v>
+        <v>66.5</v>
       </c>
       <c r="C119" t="n">
-        <v>64.3</v>
+        <v>66.5</v>
       </c>
       <c r="D119" t="n">
-        <v>64.3</v>
+        <v>66.5</v>
       </c>
       <c r="E119" t="n">
-        <v>64.3</v>
+        <v>66.5</v>
       </c>
       <c r="F119" t="n">
-        <v>136.936</v>
+        <v>186</v>
       </c>
       <c r="G119" t="n">
-        <v>169439.2251077825</v>
+        <v>119664.0057957132</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4728,8 +5026,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4740,22 +5044,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>65</v>
+        <v>66.5</v>
       </c>
       <c r="C120" t="n">
-        <v>65</v>
+        <v>66.5</v>
       </c>
       <c r="D120" t="n">
-        <v>65</v>
+        <v>66.5</v>
       </c>
       <c r="E120" t="n">
-        <v>65</v>
+        <v>66.5</v>
       </c>
       <c r="F120" t="n">
-        <v>86.7946</v>
+        <v>1633</v>
       </c>
       <c r="G120" t="n">
-        <v>169526.0197077825</v>
+        <v>119664.0057957132</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4764,8 +5068,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4776,32 +5086,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>64.3</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>64.02</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>64.3</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>64.02</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>13125.5314</v>
+        <v>2000</v>
       </c>
       <c r="G121" t="n">
-        <v>156400.4883077825</v>
+        <v>121664.0057957132</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4812,22 +5128,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>64.09999999999999</v>
+        <v>66.52</v>
       </c>
       <c r="C122" t="n">
-        <v>63.99</v>
+        <v>66.52</v>
       </c>
       <c r="D122" t="n">
-        <v>64.09999999999999</v>
+        <v>66.52</v>
       </c>
       <c r="E122" t="n">
-        <v>63.99</v>
+        <v>66.52</v>
       </c>
       <c r="F122" t="n">
-        <v>25054.3789</v>
+        <v>3446.55</v>
       </c>
       <c r="G122" t="n">
-        <v>131346.1094077825</v>
+        <v>125110.5557957132</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4836,8 +5152,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4848,22 +5170,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>63.98</v>
+        <v>66.52</v>
       </c>
       <c r="C123" t="n">
-        <v>63.9</v>
+        <v>66.5</v>
       </c>
       <c r="D123" t="n">
-        <v>63.98</v>
+        <v>66.52</v>
       </c>
       <c r="E123" t="n">
-        <v>63.9</v>
+        <v>66.5</v>
       </c>
       <c r="F123" t="n">
-        <v>242</v>
+        <v>24464.5002</v>
       </c>
       <c r="G123" t="n">
-        <v>131104.1094077825</v>
+        <v>100646.0555957132</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4872,8 +5194,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4884,22 +5212,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>63.98</v>
+        <v>66.5</v>
       </c>
       <c r="C124" t="n">
-        <v>63.2</v>
+        <v>66.52</v>
       </c>
       <c r="D124" t="n">
-        <v>63.98</v>
+        <v>66.52</v>
       </c>
       <c r="E124" t="n">
-        <v>63.2</v>
+        <v>66.5</v>
       </c>
       <c r="F124" t="n">
-        <v>660.2068</v>
+        <v>35.2802</v>
       </c>
       <c r="G124" t="n">
-        <v>130443.9026077825</v>
+        <v>100681.3357957132</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4908,8 +5236,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4920,22 +5254,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>63.2</v>
+        <v>66.52</v>
       </c>
       <c r="C125" t="n">
-        <v>63.2</v>
+        <v>66.41</v>
       </c>
       <c r="D125" t="n">
-        <v>63.2</v>
+        <v>66.52</v>
       </c>
       <c r="E125" t="n">
-        <v>63.2</v>
+        <v>66.41</v>
       </c>
       <c r="F125" t="n">
-        <v>157.8322</v>
+        <v>15632.8944</v>
       </c>
       <c r="G125" t="n">
-        <v>130443.9026077825</v>
+        <v>85048.44139571323</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4944,8 +5278,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4956,22 +5296,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>62.5</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>62.5</v>
+        <v>67</v>
       </c>
       <c r="D126" t="n">
-        <v>62.5</v>
+        <v>67</v>
       </c>
       <c r="E126" t="n">
-        <v>62.5</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>1806.3724</v>
+        <v>2812.3136</v>
       </c>
       <c r="G126" t="n">
-        <v>128637.5302077825</v>
+        <v>87860.75499571323</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4980,8 +5320,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4992,22 +5338,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>62.5</v>
+        <v>67</v>
       </c>
       <c r="C127" t="n">
-        <v>62.31</v>
+        <v>67</v>
       </c>
       <c r="D127" t="n">
-        <v>62.5</v>
+        <v>67</v>
       </c>
       <c r="E127" t="n">
-        <v>62.31</v>
+        <v>67</v>
       </c>
       <c r="F127" t="n">
-        <v>55926.0431</v>
+        <v>4794.4363</v>
       </c>
       <c r="G127" t="n">
-        <v>72711.48710778251</v>
+        <v>87860.75499571323</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5016,8 +5362,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5028,22 +5380,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>63.09</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>62.9</v>
+        <v>67.5</v>
       </c>
       <c r="D128" t="n">
-        <v>63.09</v>
+        <v>67.5</v>
       </c>
       <c r="E128" t="n">
-        <v>62.9</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>1319</v>
+        <v>7329.2627</v>
       </c>
       <c r="G128" t="n">
-        <v>74030.48710778251</v>
+        <v>95190.01769571324</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5052,8 +5404,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5064,22 +5422,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>62.7</v>
+        <v>67.59</v>
       </c>
       <c r="C129" t="n">
-        <v>62.7</v>
+        <v>67.7</v>
       </c>
       <c r="D129" t="n">
-        <v>62.7</v>
+        <v>67.7</v>
       </c>
       <c r="E129" t="n">
-        <v>62.7</v>
+        <v>67.59</v>
       </c>
       <c r="F129" t="n">
-        <v>1406.641</v>
+        <v>23895.8956</v>
       </c>
       <c r="G129" t="n">
-        <v>72623.8461077825</v>
+        <v>119085.9132957132</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5088,8 +5446,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5100,22 +5464,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>63.22</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>63.22</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>63.22</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>63.22</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>7682.1651</v>
+        <v>17244.8904</v>
       </c>
       <c r="G130" t="n">
-        <v>80306.0112077825</v>
+        <v>136330.8036957132</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5124,8 +5488,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5136,64 +5506,72 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>63.22</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>63.2</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>63.22</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>63.2</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>21884.8083</v>
+        <v>459.9987</v>
       </c>
       <c r="G131" t="n">
-        <v>58421.2029077825</v>
+        <v>136330.8036957132</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>1.11046052631579</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1.086666666666667</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>63.09</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>63.09</v>
+        <v>68</v>
       </c>
       <c r="D132" t="n">
-        <v>63.09</v>
+        <v>68</v>
       </c>
       <c r="E132" t="n">
-        <v>63.09</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>6321.632</v>
+        <v>80347.0321</v>
       </c>
       <c r="G132" t="n">
-        <v>52099.5709077825</v>
+        <v>216677.8357957132</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5208,28 +5586,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>63.09</v>
+        <v>68</v>
       </c>
       <c r="C133" t="n">
-        <v>63.1</v>
+        <v>68</v>
       </c>
       <c r="D133" t="n">
-        <v>63.1</v>
+        <v>68</v>
       </c>
       <c r="E133" t="n">
-        <v>63.09</v>
+        <v>68</v>
       </c>
       <c r="F133" t="n">
-        <v>1878.9862</v>
+        <v>51961.9925</v>
       </c>
       <c r="G133" t="n">
-        <v>53978.5571077825</v>
+        <v>216677.8357957132</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5244,28 +5622,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>63.21</v>
+        <v>67</v>
       </c>
       <c r="C134" t="n">
-        <v>63.2</v>
+        <v>67</v>
       </c>
       <c r="D134" t="n">
-        <v>63.21</v>
+        <v>67</v>
       </c>
       <c r="E134" t="n">
-        <v>63.2</v>
+        <v>67</v>
       </c>
       <c r="F134" t="n">
-        <v>7161.6546</v>
+        <v>8803.4408</v>
       </c>
       <c r="G134" t="n">
-        <v>61140.2117077825</v>
+        <v>207874.3949957132</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5280,28 +5658,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>63.73</v>
+        <v>67</v>
       </c>
       <c r="C135" t="n">
-        <v>63.73</v>
+        <v>67</v>
       </c>
       <c r="D135" t="n">
-        <v>63.73</v>
+        <v>67</v>
       </c>
       <c r="E135" t="n">
-        <v>63.73</v>
+        <v>67</v>
       </c>
       <c r="F135" t="n">
-        <v>938.4477000000001</v>
+        <v>661</v>
       </c>
       <c r="G135" t="n">
-        <v>62078.6594077825</v>
+        <v>207874.3949957132</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5316,28 +5694,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>63.73</v>
+        <v>67</v>
       </c>
       <c r="C136" t="n">
-        <v>63.73</v>
+        <v>67</v>
       </c>
       <c r="D136" t="n">
-        <v>63.73</v>
+        <v>67</v>
       </c>
       <c r="E136" t="n">
-        <v>63.73</v>
+        <v>67</v>
       </c>
       <c r="F136" t="n">
-        <v>10161.8426</v>
+        <v>158</v>
       </c>
       <c r="G136" t="n">
-        <v>62078.6594077825</v>
+        <v>207874.3949957132</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5352,28 +5730,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>63.2</v>
+        <v>67</v>
       </c>
       <c r="C137" t="n">
-        <v>63.2</v>
+        <v>67</v>
       </c>
       <c r="D137" t="n">
-        <v>63.2</v>
+        <v>67</v>
       </c>
       <c r="E137" t="n">
-        <v>63.2</v>
+        <v>67</v>
       </c>
       <c r="F137" t="n">
-        <v>3336.7096</v>
+        <v>644.4046</v>
       </c>
       <c r="G137" t="n">
-        <v>58741.9498077825</v>
+        <v>207874.3949957132</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5388,28 +5766,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>63.2</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>63.81</v>
+        <v>66.5</v>
       </c>
       <c r="D138" t="n">
-        <v>63.81</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>63.2</v>
+        <v>66.5</v>
       </c>
       <c r="F138" t="n">
-        <v>10914.4198</v>
+        <v>2944.1051</v>
       </c>
       <c r="G138" t="n">
-        <v>69656.3696077825</v>
+        <v>204930.2898957132</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5424,28 +5802,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>63.81</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>63.81</v>
+        <v>66.39</v>
       </c>
       <c r="D139" t="n">
-        <v>63.81</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>63.81</v>
+        <v>66.39</v>
       </c>
       <c r="F139" t="n">
-        <v>4765.4848</v>
+        <v>24604.6989</v>
       </c>
       <c r="G139" t="n">
-        <v>69656.3696077825</v>
+        <v>180325.5909957133</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5460,22 +5838,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>63.82</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>63.82</v>
+        <v>65.3</v>
       </c>
       <c r="D140" t="n">
-        <v>63.82</v>
+        <v>66</v>
       </c>
       <c r="E140" t="n">
-        <v>63.82</v>
+        <v>65.3</v>
       </c>
       <c r="F140" t="n">
-        <v>495.2045</v>
+        <v>29568.7469</v>
       </c>
       <c r="G140" t="n">
-        <v>70151.57410778251</v>
+        <v>150756.8440957133</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5496,22 +5874,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>63.9</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>63.9</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>63.9</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>63.9</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>134.0909</v>
+        <v>19.9369</v>
       </c>
       <c r="G141" t="n">
-        <v>70285.6650077825</v>
+        <v>150776.7809957133</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5532,22 +5910,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>63.93</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>63.93</v>
+        <v>65.3</v>
       </c>
       <c r="D142" t="n">
-        <v>63.93</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>63.93</v>
+        <v>65.3</v>
       </c>
       <c r="F142" t="n">
-        <v>7590.3528</v>
+        <v>33195.7082</v>
       </c>
       <c r="G142" t="n">
-        <v>77876.0178077825</v>
+        <v>117581.0727957133</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5568,22 +5946,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>63.93</v>
+        <v>65.3</v>
       </c>
       <c r="C143" t="n">
-        <v>63.93</v>
+        <v>65.3</v>
       </c>
       <c r="D143" t="n">
-        <v>63.93</v>
+        <v>65.3</v>
       </c>
       <c r="E143" t="n">
-        <v>63.93</v>
+        <v>65.3</v>
       </c>
       <c r="F143" t="n">
-        <v>11666.7009</v>
+        <v>9</v>
       </c>
       <c r="G143" t="n">
-        <v>77876.0178077825</v>
+        <v>117581.0727957133</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5604,22 +5982,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>63.93</v>
+        <v>65.8</v>
       </c>
       <c r="C144" t="n">
-        <v>63.93</v>
+        <v>65.8</v>
       </c>
       <c r="D144" t="n">
-        <v>63.93</v>
+        <v>65.8</v>
       </c>
       <c r="E144" t="n">
-        <v>63.93</v>
+        <v>65.8</v>
       </c>
       <c r="F144" t="n">
-        <v>3047.692</v>
+        <v>160.5298</v>
       </c>
       <c r="G144" t="n">
-        <v>77876.0178077825</v>
+        <v>117741.6025957133</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5640,22 +6018,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>63.93</v>
+        <v>66</v>
       </c>
       <c r="C145" t="n">
-        <v>63.93</v>
+        <v>66</v>
       </c>
       <c r="D145" t="n">
-        <v>63.93</v>
+        <v>66</v>
       </c>
       <c r="E145" t="n">
-        <v>63.93</v>
+        <v>66</v>
       </c>
       <c r="F145" t="n">
-        <v>1379.4683</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>77876.0178077825</v>
+        <v>117751.6025957133</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5676,22 +6054,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>64</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>64</v>
+        <v>65.3</v>
       </c>
       <c r="D146" t="n">
-        <v>64</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>64</v>
+        <v>65.3</v>
       </c>
       <c r="F146" t="n">
-        <v>2656.2963</v>
+        <v>11660.1085</v>
       </c>
       <c r="G146" t="n">
-        <v>80532.3141077825</v>
+        <v>106091.4940957133</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5712,22 +6090,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>64</v>
+        <v>64.97</v>
       </c>
       <c r="C147" t="n">
-        <v>64</v>
+        <v>64.02</v>
       </c>
       <c r="D147" t="n">
-        <v>64</v>
+        <v>64.97</v>
       </c>
       <c r="E147" t="n">
-        <v>64</v>
+        <v>64.02</v>
       </c>
       <c r="F147" t="n">
-        <v>8223.1942</v>
+        <v>10953.0055</v>
       </c>
       <c r="G147" t="n">
-        <v>80532.3141077825</v>
+        <v>95138.48859571326</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5748,22 +6126,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>64.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="C148" t="n">
         <v>64.3</v>
       </c>
       <c r="D148" t="n">
-        <v>64.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E148" t="n">
         <v>64.3</v>
       </c>
       <c r="F148" t="n">
-        <v>77.76049766718506</v>
+        <v>31749.4027</v>
       </c>
       <c r="G148" t="n">
-        <v>80610.07460544968</v>
+        <v>126887.8912957133</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5787,19 +6165,19 @@
         <v>64.3</v>
       </c>
       <c r="C149" t="n">
-        <v>64.40000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="D149" t="n">
-        <v>64.40000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="E149" t="n">
         <v>64.3</v>
       </c>
       <c r="F149" t="n">
-        <v>628.147502332815</v>
+        <v>155.1321</v>
       </c>
       <c r="G149" t="n">
-        <v>81238.22210778249</v>
+        <v>126887.8912957133</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5820,22 +6198,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>64.89</v>
+        <v>64.02</v>
       </c>
       <c r="C150" t="n">
-        <v>64.89</v>
+        <v>63.99</v>
       </c>
       <c r="D150" t="n">
-        <v>64.89</v>
+        <v>64.02</v>
       </c>
       <c r="E150" t="n">
-        <v>64.89</v>
+        <v>63.99</v>
       </c>
       <c r="F150" t="n">
-        <v>4061.4129</v>
+        <v>20734.9774</v>
       </c>
       <c r="G150" t="n">
-        <v>85299.63500778249</v>
+        <v>106152.9138957133</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5856,28 +6234,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>64.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="C151" t="n">
-        <v>64.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="D151" t="n">
-        <v>64.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="E151" t="n">
-        <v>64.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="F151" t="n">
-        <v>222.3084</v>
+        <v>16539.9727</v>
       </c>
       <c r="G151" t="n">
-        <v>85077.3266077825</v>
+        <v>122692.8865957133</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5892,28 +6270,28 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>64.11</v>
+        <v>63.99</v>
       </c>
       <c r="C152" t="n">
-        <v>64.11</v>
+        <v>64</v>
       </c>
       <c r="D152" t="n">
-        <v>64.11</v>
+        <v>64</v>
       </c>
       <c r="E152" t="n">
-        <v>64.11</v>
+        <v>63.99</v>
       </c>
       <c r="F152" t="n">
-        <v>5284.3238</v>
+        <v>2436.9341</v>
       </c>
       <c r="G152" t="n">
-        <v>79793.0028077825</v>
+        <v>122692.8865957133</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -5928,28 +6306,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>63.85</v>
+        <v>63.99</v>
       </c>
       <c r="C153" t="n">
-        <v>63.83</v>
+        <v>63.99</v>
       </c>
       <c r="D153" t="n">
-        <v>63.85</v>
+        <v>63.99</v>
       </c>
       <c r="E153" t="n">
-        <v>63.83</v>
+        <v>63.99</v>
       </c>
       <c r="F153" t="n">
-        <v>30322.1989</v>
+        <v>792.9946</v>
       </c>
       <c r="G153" t="n">
-        <v>49470.80390778249</v>
+        <v>121899.8919957132</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -5964,22 +6342,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>63.84</v>
+        <v>63.99</v>
       </c>
       <c r="C154" t="n">
-        <v>63.84</v>
+        <v>64</v>
       </c>
       <c r="D154" t="n">
-        <v>63.84</v>
+        <v>64</v>
       </c>
       <c r="E154" t="n">
-        <v>63.84</v>
+        <v>63.99</v>
       </c>
       <c r="F154" t="n">
-        <v>5782.6401</v>
+        <v>25701.4448</v>
       </c>
       <c r="G154" t="n">
-        <v>55253.44400778249</v>
+        <v>147601.3367957133</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6000,28 +6378,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>63.84</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="C155" t="n">
-        <v>63.84</v>
+        <v>64</v>
       </c>
       <c r="D155" t="n">
-        <v>63.84</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="E155" t="n">
-        <v>63.84</v>
+        <v>64</v>
       </c>
       <c r="F155" t="n">
-        <v>861.6082</v>
+        <v>82547.8239</v>
       </c>
       <c r="G155" t="n">
-        <v>55253.44400778249</v>
+        <v>147601.3367957133</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6036,22 +6414,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>63.83</v>
+        <v>64</v>
       </c>
       <c r="C156" t="n">
-        <v>64.89</v>
+        <v>64</v>
       </c>
       <c r="D156" t="n">
-        <v>64.89</v>
+        <v>64</v>
       </c>
       <c r="E156" t="n">
-        <v>63.82</v>
+        <v>64</v>
       </c>
       <c r="F156" t="n">
-        <v>66964.7016</v>
+        <v>8745.0561</v>
       </c>
       <c r="G156" t="n">
-        <v>122218.1456077825</v>
+        <v>147601.3367957133</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6072,22 +6450,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>64.89</v>
+        <v>64</v>
       </c>
       <c r="C157" t="n">
-        <v>64.89</v>
+        <v>64</v>
       </c>
       <c r="D157" t="n">
-        <v>64.89</v>
+        <v>64</v>
       </c>
       <c r="E157" t="n">
-        <v>64.89</v>
+        <v>64</v>
       </c>
       <c r="F157" t="n">
-        <v>5097.8778</v>
+        <v>551.8819</v>
       </c>
       <c r="G157" t="n">
-        <v>122218.1456077825</v>
+        <v>147601.3367957133</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6108,28 +6486,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>64.89</v>
+        <v>64</v>
       </c>
       <c r="C158" t="n">
-        <v>64.89</v>
+        <v>64</v>
       </c>
       <c r="D158" t="n">
-        <v>64.89</v>
+        <v>64</v>
       </c>
       <c r="E158" t="n">
-        <v>64.89</v>
+        <v>64</v>
       </c>
       <c r="F158" t="n">
-        <v>10077.3882</v>
+        <v>459.9987</v>
       </c>
       <c r="G158" t="n">
-        <v>122218.1456077825</v>
+        <v>147601.3367957133</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6144,28 +6522,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>64.89</v>
+        <v>65.2</v>
       </c>
       <c r="C159" t="n">
-        <v>64.89</v>
+        <v>65.2</v>
       </c>
       <c r="D159" t="n">
-        <v>64.89</v>
+        <v>65.2</v>
       </c>
       <c r="E159" t="n">
-        <v>64.89</v>
+        <v>65.2</v>
       </c>
       <c r="F159" t="n">
-        <v>2618.985</v>
+        <v>71.1049</v>
       </c>
       <c r="G159" t="n">
-        <v>122218.1456077825</v>
+        <v>147672.4416957133</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6180,22 +6558,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>64.89</v>
+        <v>65.2</v>
       </c>
       <c r="C160" t="n">
-        <v>65</v>
+        <v>65.2</v>
       </c>
       <c r="D160" t="n">
-        <v>65</v>
+        <v>65.2</v>
       </c>
       <c r="E160" t="n">
-        <v>64.89</v>
+        <v>65.2</v>
       </c>
       <c r="F160" t="n">
-        <v>2652.959</v>
+        <v>70.54649999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>124871.1046077825</v>
+        <v>147672.4416957133</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6216,22 +6594,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>65.17</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="C161" t="n">
-        <v>65.7</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>65.7</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>65.17</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="F161" t="n">
-        <v>20552.5</v>
+        <v>7656.165</v>
       </c>
       <c r="G161" t="n">
-        <v>145423.6046077825</v>
+        <v>140016.2766957133</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6252,22 +6630,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>65.77</v>
+        <v>64.13</v>
       </c>
       <c r="C162" t="n">
-        <v>65.77</v>
+        <v>64.02</v>
       </c>
       <c r="D162" t="n">
-        <v>65.77</v>
+        <v>64.13</v>
       </c>
       <c r="E162" t="n">
-        <v>65.77</v>
+        <v>64.02</v>
       </c>
       <c r="F162" t="n">
-        <v>1162.2904</v>
+        <v>23103.8225</v>
       </c>
       <c r="G162" t="n">
-        <v>146585.8950077825</v>
+        <v>163120.0991957133</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6288,28 +6666,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>64.8</v>
+        <v>64.05</v>
       </c>
       <c r="C163" t="n">
-        <v>65.70999999999999</v>
+        <v>64.05</v>
       </c>
       <c r="D163" t="n">
-        <v>65.70999999999999</v>
+        <v>64.05</v>
       </c>
       <c r="E163" t="n">
-        <v>64.8</v>
+        <v>64.05</v>
       </c>
       <c r="F163" t="n">
-        <v>10896.0114</v>
+        <v>10972.75</v>
       </c>
       <c r="G163" t="n">
-        <v>135689.8836077825</v>
+        <v>174092.8491957133</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6324,28 +6702,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>65.70999999999999</v>
+        <v>65</v>
       </c>
       <c r="C164" t="n">
-        <v>65.70999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>65.70999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>65.70999999999999</v>
+        <v>65</v>
       </c>
       <c r="F164" t="n">
-        <v>1288.584</v>
+        <v>23637.2357</v>
       </c>
       <c r="G164" t="n">
-        <v>135689.8836077825</v>
+        <v>197730.0848957133</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6360,28 +6738,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>65.70999999999999</v>
+        <v>65.47</v>
       </c>
       <c r="C165" t="n">
-        <v>65.70999999999999</v>
+        <v>66</v>
       </c>
       <c r="D165" t="n">
-        <v>65.70999999999999</v>
+        <v>66</v>
       </c>
       <c r="E165" t="n">
-        <v>65.70999999999999</v>
+        <v>65.47</v>
       </c>
       <c r="F165" t="n">
-        <v>8238.9758</v>
+        <v>5662.6632</v>
       </c>
       <c r="G165" t="n">
-        <v>135689.8836077825</v>
+        <v>203392.7480957133</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6396,28 +6774,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>65.3</v>
+        <v>66</v>
       </c>
       <c r="C166" t="n">
-        <v>65.3</v>
+        <v>66.67</v>
       </c>
       <c r="D166" t="n">
-        <v>65.3</v>
+        <v>66.67</v>
       </c>
       <c r="E166" t="n">
-        <v>65.3</v>
+        <v>66</v>
       </c>
       <c r="F166" t="n">
-        <v>1208.8973</v>
+        <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>134480.9863077825</v>
+        <v>203402.7480957133</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6432,28 +6810,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>64.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>65.09999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>65.09999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E167" t="n">
-        <v>64.01000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F167" t="n">
-        <v>23807.8328</v>
+        <v>2622.5758</v>
       </c>
       <c r="G167" t="n">
-        <v>110673.1535077825</v>
+        <v>200780.1722957133</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6468,28 +6846,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>65.09999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>65.20999999999999</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="D168" t="n">
-        <v>65.20999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E168" t="n">
-        <v>65.09999999999999</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="F168" t="n">
-        <v>2493.1523</v>
+        <v>12632.3975</v>
       </c>
       <c r="G168" t="n">
-        <v>113166.3058077825</v>
+        <v>188147.7747957133</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6504,28 +6882,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>65.20999999999999</v>
+        <v>65.41</v>
       </c>
       <c r="C169" t="n">
-        <v>65.20999999999999</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="D169" t="n">
-        <v>65.20999999999999</v>
+        <v>65.41</v>
       </c>
       <c r="E169" t="n">
-        <v>65.20999999999999</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="F169" t="n">
-        <v>2157.8887</v>
+        <v>16047.7974</v>
       </c>
       <c r="G169" t="n">
-        <v>113166.3058077825</v>
+        <v>188147.7747957133</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -6540,28 +6918,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>65.90000000000001</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="C170" t="n">
-        <v>65.90000000000001</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="D170" t="n">
-        <v>65.90000000000001</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E170" t="n">
-        <v>65.90000000000001</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="F170" t="n">
-        <v>1532</v>
+        <v>1993.0823</v>
       </c>
       <c r="G170" t="n">
-        <v>114698.3058077825</v>
+        <v>188147.7747957133</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -6576,28 +6954,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>65.90000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="C171" t="n">
-        <v>65.90000000000001</v>
+        <v>65.41</v>
       </c>
       <c r="D171" t="n">
-        <v>65.90000000000001</v>
+        <v>65.41</v>
       </c>
       <c r="E171" t="n">
-        <v>65.90000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="F171" t="n">
-        <v>54025.2821</v>
+        <v>11141.0516</v>
       </c>
       <c r="G171" t="n">
-        <v>114698.3058077825</v>
+        <v>199288.8263957133</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -6612,28 +6990,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>65.90000000000001</v>
+        <v>64.5</v>
       </c>
       <c r="C172" t="n">
-        <v>65.90000000000001</v>
+        <v>64.41</v>
       </c>
       <c r="D172" t="n">
-        <v>65.90000000000001</v>
+        <v>64.5</v>
       </c>
       <c r="E172" t="n">
-        <v>65.90000000000001</v>
+        <v>64.41</v>
       </c>
       <c r="F172" t="n">
-        <v>47302.1349</v>
+        <v>1000</v>
       </c>
       <c r="G172" t="n">
-        <v>114698.3058077825</v>
+        <v>198288.8263957133</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
@@ -6648,28 +7026,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>65.90000000000001</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="C173" t="n">
-        <v>66</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="D173" t="n">
-        <v>66</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="E173" t="n">
-        <v>65.90000000000001</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="F173" t="n">
-        <v>6189.6567</v>
+        <v>8</v>
       </c>
       <c r="G173" t="n">
-        <v>120887.9625077825</v>
+        <v>198296.8263957133</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -6684,28 +7062,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>66.09999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C174" t="n">
-        <v>66.09999999999999</v>
+        <v>65.75</v>
       </c>
       <c r="D174" t="n">
-        <v>66.09999999999999</v>
+        <v>65.75</v>
       </c>
       <c r="E174" t="n">
-        <v>66.09999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F174" t="n">
-        <v>2789</v>
+        <v>6600.4548</v>
       </c>
       <c r="G174" t="n">
-        <v>123676.9625077825</v>
+        <v>191696.3715957133</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -6720,28 +7098,28 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>66.7</v>
+        <v>65.75</v>
       </c>
       <c r="C175" t="n">
-        <v>67.02</v>
+        <v>64.53</v>
       </c>
       <c r="D175" t="n">
-        <v>67.02</v>
+        <v>65.75</v>
       </c>
       <c r="E175" t="n">
-        <v>66.7</v>
+        <v>64.53</v>
       </c>
       <c r="F175" t="n">
-        <v>15115.2965</v>
+        <v>6600.4547</v>
       </c>
       <c r="G175" t="n">
-        <v>138792.2590077825</v>
+        <v>185095.9168957133</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -6756,28 +7134,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>65.59999999999999</v>
+        <v>64.53</v>
       </c>
       <c r="C176" t="n">
-        <v>65.7</v>
+        <v>64.53</v>
       </c>
       <c r="D176" t="n">
-        <v>65.7</v>
+        <v>64.53</v>
       </c>
       <c r="E176" t="n">
-        <v>65.59999999999999</v>
+        <v>64.53</v>
       </c>
       <c r="F176" t="n">
-        <v>1449</v>
+        <v>0.0001</v>
       </c>
       <c r="G176" t="n">
-        <v>137343.2590077825</v>
+        <v>185095.9168957133</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -6792,28 +7170,28 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>65.3</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="C177" t="n">
-        <v>65.3</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="D177" t="n">
-        <v>65.3</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>65.3</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>15257.8277</v>
+        <v>8</v>
       </c>
       <c r="G177" t="n">
-        <v>122085.4313077825</v>
+        <v>185103.9168957133</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -6828,28 +7206,28 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>65.01000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="C178" t="n">
-        <v>65.01000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="D178" t="n">
-        <v>65.01000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="E178" t="n">
-        <v>65.01000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="F178" t="n">
-        <v>2235.0574</v>
+        <v>11141.0516</v>
       </c>
       <c r="G178" t="n">
-        <v>119850.3739077825</v>
+        <v>173962.8652957133</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -6864,28 +7242,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>65.40000000000001</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="C179" t="n">
-        <v>65.40000000000001</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="D179" t="n">
-        <v>65.40000000000001</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>65.40000000000001</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="F179" t="n">
-        <v>716</v>
+        <v>153.1628120692296</v>
       </c>
       <c r="G179" t="n">
-        <v>120566.3739077825</v>
+        <v>174116.0281077825</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -6900,28 +7278,28 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>65.40000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C180" t="n">
-        <v>65.3</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D180" t="n">
-        <v>65.40000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E180" t="n">
-        <v>65.3</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F180" t="n">
-        <v>7033.8072</v>
+        <v>152.7799</v>
       </c>
       <c r="G180" t="n">
-        <v>113532.5667077825</v>
+        <v>173963.2482077825</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -6936,28 +7314,28 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>65.01000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="C181" t="n">
-        <v>65.01000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="D181" t="n">
-        <v>65.01000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="E181" t="n">
-        <v>65.01000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="F181" t="n">
-        <v>274.6655</v>
+        <v>7968.8886</v>
       </c>
       <c r="G181" t="n">
-        <v>113257.9012077825</v>
+        <v>181932.1368077825</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -6972,28 +7350,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>64.97</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C182" t="n">
-        <v>64.97</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D182" t="n">
-        <v>64.97</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E182" t="n">
-        <v>64.97</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F182" t="n">
-        <v>153.9171</v>
+        <v>7275.8963</v>
       </c>
       <c r="G182" t="n">
-        <v>113103.9841077825</v>
+        <v>174656.2405077825</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -7008,28 +7386,28 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>65.01000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="C183" t="n">
-        <v>65.01000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="D183" t="n">
-        <v>65.01000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="E183" t="n">
-        <v>65.01000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="F183" t="n">
-        <v>763.0308</v>
+        <v>498.9018</v>
       </c>
       <c r="G183" t="n">
-        <v>113867.0149077825</v>
+        <v>174157.3387077825</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -7044,28 +7422,28 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>65.01000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="C184" t="n">
-        <v>65.01000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D184" t="n">
-        <v>65.01000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="E184" t="n">
-        <v>65.01000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F184" t="n">
-        <v>2235.0574</v>
+        <v>24251.1055</v>
       </c>
       <c r="G184" t="n">
-        <v>113867.0149077825</v>
+        <v>149906.2332077825</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -7080,28 +7458,28 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>65.7</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>65.7</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D185" t="n">
-        <v>65.7</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E185" t="n">
-        <v>65.7</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F185" t="n">
-        <v>55.00761035007611</v>
+        <v>677.3366</v>
       </c>
       <c r="G185" t="n">
-        <v>113922.0225181326</v>
+        <v>149906.2332077825</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -7116,28 +7494,28 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>65.03</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C186" t="n">
-        <v>65.03</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D186" t="n">
-        <v>65.03</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E186" t="n">
-        <v>65.01000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F186" t="n">
-        <v>14269.1921</v>
+        <v>155.6162</v>
       </c>
       <c r="G186" t="n">
-        <v>99652.83041813257</v>
+        <v>149906.2332077825</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
@@ -7152,28 +7530,28 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>65.01000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C187" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D187" t="n">
-        <v>65.01000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E187" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F187" t="n">
-        <v>121588.4931</v>
+        <v>10920.3488</v>
       </c>
       <c r="G187" t="n">
-        <v>-21935.66268186744</v>
+        <v>149906.2332077825</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -7188,28 +7566,28 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>65.01000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C188" t="n">
-        <v>65.01000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D188" t="n">
-        <v>65.01000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E188" t="n">
-        <v>65.01000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F188" t="n">
-        <v>86.7555</v>
+        <v>10785.9569</v>
       </c>
       <c r="G188" t="n">
-        <v>-21848.90718186744</v>
+        <v>149906.2332077825</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -7224,28 +7602,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>65.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="C189" t="n">
-        <v>65.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="D189" t="n">
-        <v>65.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="E189" t="n">
-        <v>65.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="F189" t="n">
-        <v>778.2722</v>
+        <v>19532.9919</v>
       </c>
       <c r="G189" t="n">
-        <v>-21070.63498186744</v>
+        <v>169439.2251077825</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
@@ -7260,22 +7638,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>65.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="C190" t="n">
-        <v>65.39</v>
+        <v>64.3</v>
       </c>
       <c r="D190" t="n">
-        <v>65.39</v>
+        <v>64.3</v>
       </c>
       <c r="E190" t="n">
-        <v>65.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="F190" t="n">
-        <v>14498.3383</v>
+        <v>136.936</v>
       </c>
       <c r="G190" t="n">
-        <v>-6572.296681867443</v>
+        <v>169439.2251077825</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7296,22 +7674,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>65.39</v>
+        <v>65</v>
       </c>
       <c r="C191" t="n">
-        <v>65.39</v>
+        <v>65</v>
       </c>
       <c r="D191" t="n">
-        <v>65.39</v>
+        <v>65</v>
       </c>
       <c r="E191" t="n">
-        <v>65.39</v>
+        <v>65</v>
       </c>
       <c r="F191" t="n">
-        <v>0.4596</v>
+        <v>86.7946</v>
       </c>
       <c r="G191" t="n">
-        <v>-6572.296681867443</v>
+        <v>169526.0197077825</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7332,22 +7710,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>65.59999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="C192" t="n">
-        <v>65.59999999999999</v>
+        <v>64.02</v>
       </c>
       <c r="D192" t="n">
-        <v>65.59999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="E192" t="n">
-        <v>65.59999999999999</v>
+        <v>64.02</v>
       </c>
       <c r="F192" t="n">
-        <v>30</v>
+        <v>13125.5314</v>
       </c>
       <c r="G192" t="n">
-        <v>-6542.296681867443</v>
+        <v>156400.4883077825</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7368,22 +7746,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>65.59999999999999</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C193" t="n">
-        <v>65.69</v>
+        <v>63.99</v>
       </c>
       <c r="D193" t="n">
-        <v>65.69</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E193" t="n">
-        <v>65.59999999999999</v>
+        <v>63.99</v>
       </c>
       <c r="F193" t="n">
-        <v>7000</v>
+        <v>25054.3789</v>
       </c>
       <c r="G193" t="n">
-        <v>457.7033181325569</v>
+        <v>131346.1094077825</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7404,28 +7782,28 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>65.69</v>
+        <v>63.98</v>
       </c>
       <c r="C194" t="n">
-        <v>65.69</v>
+        <v>63.9</v>
       </c>
       <c r="D194" t="n">
-        <v>65.69</v>
+        <v>63.98</v>
       </c>
       <c r="E194" t="n">
-        <v>65.69</v>
+        <v>63.9</v>
       </c>
       <c r="F194" t="n">
-        <v>850</v>
+        <v>242</v>
       </c>
       <c r="G194" t="n">
-        <v>457.7033181325569</v>
+        <v>131104.1094077825</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -7440,28 +7818,28 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>65.69</v>
+        <v>63.98</v>
       </c>
       <c r="C195" t="n">
-        <v>65.69</v>
+        <v>63.2</v>
       </c>
       <c r="D195" t="n">
-        <v>65.69</v>
+        <v>63.98</v>
       </c>
       <c r="E195" t="n">
-        <v>65.69</v>
+        <v>63.2</v>
       </c>
       <c r="F195" t="n">
-        <v>1000</v>
+        <v>660.2068</v>
       </c>
       <c r="G195" t="n">
-        <v>457.7033181325569</v>
+        <v>130443.9026077825</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -7476,28 +7854,28 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>65.11</v>
+        <v>63.2</v>
       </c>
       <c r="C196" t="n">
-        <v>65.11</v>
+        <v>63.2</v>
       </c>
       <c r="D196" t="n">
-        <v>65.11</v>
+        <v>63.2</v>
       </c>
       <c r="E196" t="n">
-        <v>65.11</v>
+        <v>63.2</v>
       </c>
       <c r="F196" t="n">
-        <v>26</v>
+        <v>157.8322</v>
       </c>
       <c r="G196" t="n">
-        <v>431.7033181325569</v>
+        <v>130443.9026077825</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -7507,6 +7885,2562 @@
       </c>
       <c r="N196" t="inlineStr"/>
     </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C197" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1806.3724</v>
+      </c>
+      <c r="G197" t="n">
+        <v>128637.5302077825</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>62.31</v>
+      </c>
+      <c r="D198" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>62.31</v>
+      </c>
+      <c r="F198" t="n">
+        <v>55926.0431</v>
+      </c>
+      <c r="G198" t="n">
+        <v>72711.48710778251</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="C199" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="E199" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G199" t="n">
+        <v>74030.48710778251</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C200" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D200" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1406.641</v>
+      </c>
+      <c r="G200" t="n">
+        <v>72623.8461077825</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>63.22</v>
+      </c>
+      <c r="C201" t="n">
+        <v>63.22</v>
+      </c>
+      <c r="D201" t="n">
+        <v>63.22</v>
+      </c>
+      <c r="E201" t="n">
+        <v>63.22</v>
+      </c>
+      <c r="F201" t="n">
+        <v>7682.1651</v>
+      </c>
+      <c r="G201" t="n">
+        <v>80306.0112077825</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>63.22</v>
+      </c>
+      <c r="C202" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>63.22</v>
+      </c>
+      <c r="E202" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21884.8083</v>
+      </c>
+      <c r="G202" t="n">
+        <v>58421.2029077825</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="C203" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="D203" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="E203" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="F203" t="n">
+        <v>6321.632</v>
+      </c>
+      <c r="G203" t="n">
+        <v>52099.5709077825</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="C204" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1878.9862</v>
+      </c>
+      <c r="G204" t="n">
+        <v>53978.5571077825</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>63.21</v>
+      </c>
+      <c r="C205" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>63.21</v>
+      </c>
+      <c r="E205" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>7161.6546</v>
+      </c>
+      <c r="G205" t="n">
+        <v>61140.2117077825</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="C206" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="D206" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="E206" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="F206" t="n">
+        <v>938.4477000000001</v>
+      </c>
+      <c r="G206" t="n">
+        <v>62078.6594077825</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="C207" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="D207" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="E207" t="n">
+        <v>63.73</v>
+      </c>
+      <c r="F207" t="n">
+        <v>10161.8426</v>
+      </c>
+      <c r="G207" t="n">
+        <v>62078.6594077825</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D208" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="E208" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3336.7096</v>
+      </c>
+      <c r="G208" t="n">
+        <v>58741.9498077825</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="C209" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="D209" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="E209" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="F209" t="n">
+        <v>10914.4198</v>
+      </c>
+      <c r="G209" t="n">
+        <v>69656.3696077825</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="C210" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="D210" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="E210" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4765.4848</v>
+      </c>
+      <c r="G210" t="n">
+        <v>69656.3696077825</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>63.82</v>
+      </c>
+      <c r="C211" t="n">
+        <v>63.82</v>
+      </c>
+      <c r="D211" t="n">
+        <v>63.82</v>
+      </c>
+      <c r="E211" t="n">
+        <v>63.82</v>
+      </c>
+      <c r="F211" t="n">
+        <v>495.2045</v>
+      </c>
+      <c r="G211" t="n">
+        <v>70151.57410778251</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="C212" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D212" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="E212" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="F212" t="n">
+        <v>134.0909</v>
+      </c>
+      <c r="G212" t="n">
+        <v>70285.6650077825</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="C213" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="D213" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="E213" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="F213" t="n">
+        <v>7590.3528</v>
+      </c>
+      <c r="G213" t="n">
+        <v>77876.0178077825</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="C214" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="D214" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="E214" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="F214" t="n">
+        <v>11666.7009</v>
+      </c>
+      <c r="G214" t="n">
+        <v>77876.0178077825</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="C215" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="D215" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="E215" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3047.692</v>
+      </c>
+      <c r="G215" t="n">
+        <v>77876.0178077825</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="C216" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="D216" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="E216" t="n">
+        <v>63.93</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1379.4683</v>
+      </c>
+      <c r="G216" t="n">
+        <v>77876.0178077825</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>64</v>
+      </c>
+      <c r="C217" t="n">
+        <v>64</v>
+      </c>
+      <c r="D217" t="n">
+        <v>64</v>
+      </c>
+      <c r="E217" t="n">
+        <v>64</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2656.2963</v>
+      </c>
+      <c r="G217" t="n">
+        <v>80532.3141077825</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>64</v>
+      </c>
+      <c r="C218" t="n">
+        <v>64</v>
+      </c>
+      <c r="D218" t="n">
+        <v>64</v>
+      </c>
+      <c r="E218" t="n">
+        <v>64</v>
+      </c>
+      <c r="F218" t="n">
+        <v>8223.1942</v>
+      </c>
+      <c r="G218" t="n">
+        <v>80532.3141077825</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="C219" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D219" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="E219" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="F219" t="n">
+        <v>77.76049766718506</v>
+      </c>
+      <c r="G219" t="n">
+        <v>80610.07460544968</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="C220" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D220" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="E220" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="F220" t="n">
+        <v>628.147502332815</v>
+      </c>
+      <c r="G220" t="n">
+        <v>81238.22210778249</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="C221" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="D221" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="E221" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="F221" t="n">
+        <v>4061.4129</v>
+      </c>
+      <c r="G221" t="n">
+        <v>85299.63500778249</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="C222" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D222" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="E222" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="F222" t="n">
+        <v>222.3084</v>
+      </c>
+      <c r="G222" t="n">
+        <v>85077.3266077825</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="C223" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="D223" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="E223" t="n">
+        <v>64.11</v>
+      </c>
+      <c r="F223" t="n">
+        <v>5284.3238</v>
+      </c>
+      <c r="G223" t="n">
+        <v>79793.0028077825</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>63.85</v>
+      </c>
+      <c r="C224" t="n">
+        <v>63.83</v>
+      </c>
+      <c r="D224" t="n">
+        <v>63.85</v>
+      </c>
+      <c r="E224" t="n">
+        <v>63.83</v>
+      </c>
+      <c r="F224" t="n">
+        <v>30322.1989</v>
+      </c>
+      <c r="G224" t="n">
+        <v>49470.80390778249</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="C225" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="D225" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="E225" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="F225" t="n">
+        <v>5782.6401</v>
+      </c>
+      <c r="G225" t="n">
+        <v>55253.44400778249</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="C226" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="D226" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="E226" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="F226" t="n">
+        <v>861.6082</v>
+      </c>
+      <c r="G226" t="n">
+        <v>55253.44400778249</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>63.83</v>
+      </c>
+      <c r="C227" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="D227" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="E227" t="n">
+        <v>63.82</v>
+      </c>
+      <c r="F227" t="n">
+        <v>66964.7016</v>
+      </c>
+      <c r="G227" t="n">
+        <v>122218.1456077825</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="C228" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="D228" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="E228" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="F228" t="n">
+        <v>5097.8778</v>
+      </c>
+      <c r="G228" t="n">
+        <v>122218.1456077825</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="C229" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="D229" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="E229" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="F229" t="n">
+        <v>10077.3882</v>
+      </c>
+      <c r="G229" t="n">
+        <v>122218.1456077825</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="C230" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="D230" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="E230" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2618.985</v>
+      </c>
+      <c r="G230" t="n">
+        <v>122218.1456077825</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="C231" t="n">
+        <v>65</v>
+      </c>
+      <c r="D231" t="n">
+        <v>65</v>
+      </c>
+      <c r="E231" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2652.959</v>
+      </c>
+      <c r="G231" t="n">
+        <v>124871.1046077825</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="C232" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D232" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E232" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="F232" t="n">
+        <v>20552.5</v>
+      </c>
+      <c r="G232" t="n">
+        <v>145423.6046077825</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>65.77</v>
+      </c>
+      <c r="C233" t="n">
+        <v>65.77</v>
+      </c>
+      <c r="D233" t="n">
+        <v>65.77</v>
+      </c>
+      <c r="E233" t="n">
+        <v>65.77</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1162.2904</v>
+      </c>
+      <c r="G233" t="n">
+        <v>146585.8950077825</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="C234" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="D234" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="E234" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="F234" t="n">
+        <v>10896.0114</v>
+      </c>
+      <c r="G234" t="n">
+        <v>135689.8836077825</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="C235" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="D235" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="E235" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1288.584</v>
+      </c>
+      <c r="G235" t="n">
+        <v>135689.8836077825</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="C236" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="D236" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="E236" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="F236" t="n">
+        <v>8238.9758</v>
+      </c>
+      <c r="G236" t="n">
+        <v>135689.8836077825</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C237" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D237" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E237" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1208.8973</v>
+      </c>
+      <c r="G237" t="n">
+        <v>134480.9863077825</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="C238" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D238" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="E238" t="n">
+        <v>64.01000000000001</v>
+      </c>
+      <c r="F238" t="n">
+        <v>23807.8328</v>
+      </c>
+      <c r="G238" t="n">
+        <v>110673.1535077825</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C239" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="D239" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="E239" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2493.1523</v>
+      </c>
+      <c r="G239" t="n">
+        <v>113166.3058077825</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="C240" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="D240" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="E240" t="n">
+        <v>65.20999999999999</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2157.8887</v>
+      </c>
+      <c r="G240" t="n">
+        <v>113166.3058077825</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="C241" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D241" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E241" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1532</v>
+      </c>
+      <c r="G241" t="n">
+        <v>114698.3058077825</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="C242" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D242" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E242" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="F242" t="n">
+        <v>54025.2821</v>
+      </c>
+      <c r="G242" t="n">
+        <v>114698.3058077825</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="C243" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D243" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E243" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="F243" t="n">
+        <v>47302.1349</v>
+      </c>
+      <c r="G243" t="n">
+        <v>114698.3058077825</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="C244" t="n">
+        <v>66</v>
+      </c>
+      <c r="D244" t="n">
+        <v>66</v>
+      </c>
+      <c r="E244" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="F244" t="n">
+        <v>6189.6567</v>
+      </c>
+      <c r="G244" t="n">
+        <v>120887.9625077825</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C245" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D245" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E245" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2789</v>
+      </c>
+      <c r="G245" t="n">
+        <v>123676.9625077825</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C246" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="D246" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="E246" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F246" t="n">
+        <v>15115.2965</v>
+      </c>
+      <c r="G246" t="n">
+        <v>138792.2590077825</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C247" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D247" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E247" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1449</v>
+      </c>
+      <c r="G247" t="n">
+        <v>137343.2590077825</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C248" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D248" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E248" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F248" t="n">
+        <v>15257.8277</v>
+      </c>
+      <c r="G248" t="n">
+        <v>122085.4313077825</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="C249" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="D249" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="E249" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2235.0574</v>
+      </c>
+      <c r="G249" t="n">
+        <v>119850.3739077825</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="C250" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D250" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E250" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="F250" t="n">
+        <v>716</v>
+      </c>
+      <c r="G250" t="n">
+        <v>120566.3739077825</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="C251" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D251" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E251" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F251" t="n">
+        <v>7033.8072</v>
+      </c>
+      <c r="G251" t="n">
+        <v>113532.5667077825</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="C252" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="D252" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="E252" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="F252" t="n">
+        <v>274.6655</v>
+      </c>
+      <c r="G252" t="n">
+        <v>113257.9012077825</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>64.97</v>
+      </c>
+      <c r="C253" t="n">
+        <v>64.97</v>
+      </c>
+      <c r="D253" t="n">
+        <v>64.97</v>
+      </c>
+      <c r="E253" t="n">
+        <v>64.97</v>
+      </c>
+      <c r="F253" t="n">
+        <v>153.9171</v>
+      </c>
+      <c r="G253" t="n">
+        <v>113103.9841077825</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="C254" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="D254" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="E254" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="F254" t="n">
+        <v>763.0308</v>
+      </c>
+      <c r="G254" t="n">
+        <v>113867.0149077825</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="C255" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="D255" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="E255" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2235.0574</v>
+      </c>
+      <c r="G255" t="n">
+        <v>113867.0149077825</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="C256" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D256" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E256" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="F256" t="n">
+        <v>55.00761035007611</v>
+      </c>
+      <c r="G256" t="n">
+        <v>113922.0225181326</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>65.03</v>
+      </c>
+      <c r="C257" t="n">
+        <v>65.03</v>
+      </c>
+      <c r="D257" t="n">
+        <v>65.03</v>
+      </c>
+      <c r="E257" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="F257" t="n">
+        <v>14269.1921</v>
+      </c>
+      <c r="G257" t="n">
+        <v>99652.83041813257</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="C258" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D258" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="E258" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="F258" t="n">
+        <v>121588.4931</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-21935.66268186744</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="C259" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="D259" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="E259" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="F259" t="n">
+        <v>86.7555</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-21848.90718186744</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C260" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D260" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="E260" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F260" t="n">
+        <v>778.2722</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-21070.63498186744</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C261" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="D261" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="E261" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F261" t="n">
+        <v>14498.3383</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-6572.296681867443</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="C262" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="D262" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="E262" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.4596</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-6572.296681867443</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C263" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="D263" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="E263" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="F263" t="n">
+        <v>30</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-6542.296681867443</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C264" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="D264" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="E264" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="F264" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G264" t="n">
+        <v>457.7033181325569</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="C265" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="D265" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="E265" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="F265" t="n">
+        <v>850</v>
+      </c>
+      <c r="G265" t="n">
+        <v>457.7033181325569</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="C266" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="D266" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="E266" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G266" t="n">
+        <v>457.7033181325569</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="C267" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="D267" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="E267" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="F267" t="n">
+        <v>26</v>
+      </c>
+      <c r="G267" t="n">
+        <v>431.7033181325569</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest FX.xlsx
+++ b/BackTest/2020-01-16 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N267"/>
+  <dimension ref="A1:M267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,21 @@
         <v>-192086.229205559</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>60.1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2439,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2474,21 @@
         <v>-187773.585905559</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>60.1</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,22 +2513,19 @@
         <v>-175459.119105559</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="K64" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2728,26 +2550,19 @@
         <v>-175459.119105559</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>60.99</v>
-      </c>
-      <c r="K65" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2772,26 +2587,19 @@
         <v>-195459.119105559</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>60.99</v>
-      </c>
-      <c r="K66" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2816,26 +2624,19 @@
         <v>-215459.119105559</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>60.21</v>
-      </c>
-      <c r="K67" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2860,26 +2661,19 @@
         <v>-215449.119105559</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>60.11</v>
-      </c>
-      <c r="K68" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2904,26 +2698,19 @@
         <v>-215449.119105559</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K69" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2948,26 +2735,21 @@
         <v>-215449.119105559</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
         <v>60.9</v>
       </c>
-      <c r="K70" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2992,26 +2774,21 @@
         <v>-186516.062005559</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
         <v>60.9</v>
       </c>
-      <c r="K71" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3036,26 +2813,21 @@
         <v>-130493.407705559</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
         <v>61</v>
       </c>
-      <c r="K72" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3080,26 +2852,21 @@
         <v>-130133.407705559</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
         <v>61.58</v>
       </c>
-      <c r="K73" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3124,26 +2891,19 @@
         <v>-130133.407705559</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="K74" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3168,26 +2928,21 @@
         <v>-130133.407705559</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
         <v>61.9</v>
       </c>
-      <c r="K75" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3214,22 +2969,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3254,26 +3004,19 @@
         <v>-129633.9366688387</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="K77" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3300,22 +3043,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3342,22 +3080,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3384,22 +3117,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3426,22 +3154,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3468,22 +3191,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3508,24 +3226,21 @@
         <v>-180492.0145688387</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>61.9</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3552,22 +3267,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3594,22 +3304,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3636,22 +3341,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3678,22 +3378,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3720,22 +3415,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3762,22 +3452,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3804,22 +3489,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3846,22 +3526,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3888,22 +3563,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3930,22 +3600,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3972,22 +3637,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4014,22 +3674,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4056,22 +3711,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4098,22 +3748,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4140,22 +3785,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4182,22 +3822,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4224,22 +3859,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4266,22 +3896,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4308,22 +3933,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4350,22 +3970,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4392,22 +4007,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4434,22 +4044,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4476,22 +4081,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4518,22 +4118,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4560,22 +4155,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4602,22 +4192,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4644,22 +4229,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4686,22 +4266,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4728,22 +4303,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4770,22 +4340,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4812,22 +4377,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4854,22 +4414,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4896,22 +4451,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4938,22 +4488,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4980,22 +4525,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5022,22 +4562,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5064,22 +4599,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5106,22 +4636,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5148,22 +4673,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5190,22 +4710,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5232,22 +4747,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5274,22 +4784,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5316,22 +4821,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5358,22 +4858,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5400,22 +4895,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5442,22 +4932,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5484,22 +4969,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5526,24 +5006,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1.11046052631579</v>
-      </c>
-      <c r="N131" t="n">
-        <v>1.086666666666667</v>
-      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5570,16 +5043,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5606,16 +5080,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5642,16 +5117,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5678,16 +5154,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5714,16 +5191,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5750,16 +5228,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5786,16 +5265,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5822,16 +5302,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5858,16 +5339,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5894,16 +5376,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5930,16 +5413,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5966,16 +5450,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6000,18 +5485,19 @@
         <v>117741.6025957133</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6038,16 +5524,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6074,16 +5561,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6110,16 +5598,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6146,16 +5635,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6182,16 +5672,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6218,16 +5709,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6254,16 +5746,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6290,16 +5783,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6326,16 +5820,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6362,16 +5857,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6398,16 +5894,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6434,16 +5931,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6470,16 +5968,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6506,16 +6005,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6542,16 +6042,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6578,16 +6079,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6614,16 +6116,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6650,16 +6153,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6686,16 +6190,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6722,16 +6227,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6758,16 +6264,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6794,16 +6301,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6830,16 +6338,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6866,16 +6375,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6902,16 +6412,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6938,16 +6449,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6974,16 +6486,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7010,16 +6523,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7046,16 +6560,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7082,16 +6597,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7118,16 +6634,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7154,16 +6671,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7190,16 +6708,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7226,16 +6745,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7262,16 +6782,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7298,16 +6819,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7334,16 +6856,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7370,16 +6893,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7406,16 +6930,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7442,16 +6967,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7478,16 +7004,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7514,16 +7041,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7550,16 +7078,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7586,16 +7115,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7622,16 +7152,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7658,16 +7189,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7694,16 +7226,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7730,16 +7263,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7766,16 +7300,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7802,16 +7337,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7838,16 +7374,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7874,16 +7411,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7910,16 +7448,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7946,16 +7485,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7982,16 +7522,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8018,16 +7559,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8054,16 +7596,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8090,16 +7633,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8126,16 +7670,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8162,16 +7707,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8198,16 +7744,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8234,16 +7781,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8270,16 +7818,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8306,16 +7855,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8342,16 +7892,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8378,16 +7929,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8414,16 +7966,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8450,16 +8003,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8486,16 +8040,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8522,16 +8077,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8558,16 +8114,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8594,16 +8151,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8630,16 +8188,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8666,16 +8225,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8702,16 +8262,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8738,16 +8299,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8774,16 +8336,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8808,18 +8371,17 @@
         <v>85077.3266077825</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8846,16 +8408,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8880,18 +8439,15 @@
         <v>49470.80390778249</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8918,16 +8474,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8954,16 +8507,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8990,16 +8540,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9026,16 +8573,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9062,16 +8606,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9098,16 +8639,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9134,16 +8672,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9170,16 +8705,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9206,16 +8738,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9240,18 +8769,15 @@
         <v>135689.8836077825</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9276,18 +8802,15 @@
         <v>135689.8836077825</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9314,16 +8837,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9348,18 +8868,15 @@
         <v>134480.9863077825</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9384,18 +8901,15 @@
         <v>110673.1535077825</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9420,18 +8934,15 @@
         <v>113166.3058077825</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9456,18 +8967,15 @@
         <v>113166.3058077825</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9492,18 +9000,15 @@
         <v>114698.3058077825</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9530,16 +9035,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9566,16 +9068,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9602,16 +9101,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9638,16 +9134,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9672,18 +9165,15 @@
         <v>138792.2590077825</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9708,18 +9198,15 @@
         <v>137343.2590077825</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9744,18 +9231,15 @@
         <v>122085.4313077825</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9780,18 +9264,15 @@
         <v>119850.3739077825</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9818,16 +9299,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9854,16 +9332,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9890,16 +9365,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9926,16 +9398,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9962,16 +9431,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9998,16 +9464,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10034,16 +9497,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10070,16 +9530,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10106,16 +9563,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10142,16 +9596,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10178,16 +9629,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10214,16 +9662,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10250,16 +9695,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10286,16 +9728,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10322,16 +9761,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10358,16 +9794,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10394,16 +9827,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10430,18 +9860,15 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest FX.xlsx
+++ b/BackTest/2020-01-16 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2398,17 +2398,11 @@
         <v>-192086.229205559</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>60.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2441,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2474,17 +2464,11 @@
         <v>-187773.585905559</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>60.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2517,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2554,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2591,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2628,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2665,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2702,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2735,17 +2695,11 @@
         <v>-215449.119105559</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>60.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2774,17 +2728,11 @@
         <v>-186516.062005559</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>60.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2813,17 +2761,11 @@
         <v>-130493.407705559</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2852,17 +2794,11 @@
         <v>-130133.407705559</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>61.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2895,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2928,17 +2860,11 @@
         <v>-130133.407705559</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>61.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2971,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3008,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3045,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3078,13 +2992,15 @@
         <v>-151633.9366688387</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>61.9</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3152,9 +3068,11 @@
         <v>-101624.9366688387</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>61.9</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3226,11 +3144,9 @@
         <v>-180492.0145688387</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>61.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3265,9 +3181,11 @@
         <v>-180492.0145688387</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>61.89</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3302,9 +3220,11 @@
         <v>-180483.0145688387</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>61.89</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3339,9 +3259,11 @@
         <v>-180768.5486688387</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>62.29</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3376,9 +3298,11 @@
         <v>-180768.5486688387</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>62.06</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3413,9 +3337,11 @@
         <v>-184693.9648688387</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>62.06</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3450,9 +3376,11 @@
         <v>-184684.9648688387</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>61</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3487,9 +3415,11 @@
         <v>-189793.5716688387</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>62.07</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3524,9 +3454,11 @@
         <v>-184684.9648688387</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>61.01</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3561,9 +3493,11 @@
         <v>-161832.0343688387</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>61.99</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3598,9 +3532,11 @@
         <v>-146414.4501739793</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>63.5</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3635,9 +3571,11 @@
         <v>-144324.6858739793</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>64</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3672,9 +3610,11 @@
         <v>-99559.9954739793</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>64.95999999999999</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4005,9 +3945,11 @@
         <v>-14025.85860428677</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>67.09999999999999</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4042,9 +3984,11 @@
         <v>-17021.23010428677</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>67.09999999999999</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -5078,18 +5022,16 @@
         <v>216677.8357957132</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -5119,11 +5061,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5156,11 +5094,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5193,11 +5127,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5230,11 +5160,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5267,11 +5193,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5304,11 +5226,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5341,11 +5259,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5378,11 +5292,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5415,11 +5325,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5452,11 +5358,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5485,15 +5387,11 @@
         <v>117741.6025957133</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5526,11 +5424,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5559,15 +5453,11 @@
         <v>106091.4940957133</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5596,15 +5486,11 @@
         <v>95138.48859571326</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5633,15 +5519,11 @@
         <v>126887.8912957133</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5670,15 +5552,11 @@
         <v>126887.8912957133</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5707,15 +5585,11 @@
         <v>106152.9138957133</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5744,15 +5618,11 @@
         <v>122692.8865957133</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5781,15 +5651,11 @@
         <v>122692.8865957133</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5818,15 +5684,11 @@
         <v>121899.8919957132</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5855,15 +5717,11 @@
         <v>147601.3367957133</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5892,15 +5750,11 @@
         <v>147601.3367957133</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5929,15 +5783,11 @@
         <v>147601.3367957133</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5966,15 +5816,11 @@
         <v>147601.3367957133</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6003,15 +5849,11 @@
         <v>147601.3367957133</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6040,15 +5882,11 @@
         <v>147672.4416957133</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6077,15 +5915,11 @@
         <v>147672.4416957133</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6118,11 +5952,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6155,11 +5985,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6192,11 +6018,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6229,11 +6051,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6266,11 +6084,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6303,11 +6117,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6340,11 +6150,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6377,11 +6183,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6414,11 +6216,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6451,11 +6249,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6488,11 +6282,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6525,11 +6315,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6562,11 +6348,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6599,11 +6381,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6636,11 +6414,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6673,11 +6447,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6710,11 +6480,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6747,11 +6513,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6784,11 +6546,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6821,11 +6579,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6858,11 +6612,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6895,11 +6645,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6932,11 +6678,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6969,11 +6711,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7006,11 +6744,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7043,11 +6777,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7080,11 +6810,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +6843,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7154,11 +6876,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7191,11 +6909,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7228,11 +6942,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7265,11 +6975,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7302,11 +7008,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7339,11 +7041,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7376,11 +7074,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7413,11 +7107,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7450,11 +7140,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7487,11 +7173,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7524,11 +7206,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7561,11 +7239,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7598,11 +7272,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7635,11 +7305,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7672,11 +7338,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7709,11 +7371,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7746,11 +7404,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7783,11 +7437,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7820,11 +7470,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7857,11 +7503,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7894,11 +7536,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7931,11 +7569,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7968,11 +7602,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8005,11 +7635,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8042,11 +7668,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8079,11 +7701,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8116,11 +7734,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8153,11 +7767,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8190,11 +7800,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8227,11 +7833,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8264,11 +7866,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8301,11 +7899,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +7932,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8371,16 +7961,14 @@
         <v>85077.3266077825</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
       <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
@@ -8439,7 +8027,7 @@
         <v>49470.80390778249</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8769,7 +8357,7 @@
         <v>135689.8836077825</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8802,7 +8390,7 @@
         <v>135689.8836077825</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8868,7 +8456,7 @@
         <v>134480.9863077825</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8901,7 +8489,7 @@
         <v>110673.1535077825</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8934,7 +8522,7 @@
         <v>113166.3058077825</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8967,7 +8555,7 @@
         <v>113166.3058077825</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9000,7 +8588,7 @@
         <v>114698.3058077825</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9165,7 +8753,7 @@
         <v>138792.2590077825</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9198,7 +8786,7 @@
         <v>137343.2590077825</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9231,7 +8819,7 @@
         <v>122085.4313077825</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9264,7 +8852,7 @@
         <v>119850.3739077825</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9869,6 +9457,6 @@
       <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest FX.xlsx
+++ b/BackTest/2020-01-16 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>91980.47359444099</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>121081.017694441</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>148281.017694441</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>200267.865194441</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>201870.930394441</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>204182.930394441</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>204182.930394441</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>196255.573094441</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>196255.573094441</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>192728.733294441</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>189436.886094441</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>189436.886094441</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -2695,10 +2695,14 @@
         <v>-215449.119105559</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2728,11 +2732,19 @@
         <v>-186516.062005559</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2776,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2815,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2854,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2893,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2932,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +2971,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3010,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,15 +3046,15 @@
         <v>-151633.9366688387</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3034,7 +3088,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3068,12 +3124,12 @@
         <v>-101624.9366688387</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,7 +3166,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3147,7 +3205,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3181,12 +3241,12 @@
         <v>-180492.0145688387</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>61.89</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3220,12 +3280,12 @@
         <v>-180483.0145688387</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>61.89</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3259,12 +3319,12 @@
         <v>-180768.5486688387</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>62.29</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,12 +3358,12 @@
         <v>-180768.5486688387</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>62.06</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3342,7 +3402,9 @@
       <c r="I88" t="n">
         <v>62.06</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3381,7 +3443,9 @@
       <c r="I89" t="n">
         <v>61</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3420,7 +3484,9 @@
       <c r="I90" t="n">
         <v>62.07</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3459,7 +3525,9 @@
       <c r="I91" t="n">
         <v>61.01</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,7 +3566,9 @@
       <c r="I92" t="n">
         <v>61.99</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,12 +3602,12 @@
         <v>-146414.4501739793</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,12 +3641,12 @@
         <v>-144324.6858739793</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>64</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,12 +3680,12 @@
         <v>-99559.9954739793</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>64.95999999999999</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3652,7 +3722,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,7 +3761,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3723,19 +3797,23 @@
         <v>-55037.3848739793</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>60.9</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>1.07628078817734</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.086666666666667</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3760,15 +3838,11 @@
         <v>-25781.7248739793</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3797,15 +3871,11 @@
         <v>73686.52309571323</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3834,15 +3904,11 @@
         <v>73686.52309571323</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3871,15 +3937,11 @@
         <v>-14025.85860428677</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3912,11 +3974,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3945,17 +4003,11 @@
         <v>-14025.85860428677</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>67.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3984,17 +4036,11 @@
         <v>-17021.23010428677</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>67.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4027,11 +4073,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4064,11 +4106,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4101,11 +4139,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4138,11 +4172,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4175,11 +4205,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4212,11 +4238,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +4271,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4286,11 +4304,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4323,11 +4337,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4360,11 +4370,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4397,11 +4403,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4434,11 +4436,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4471,11 +4469,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4508,11 +4502,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4545,11 +4535,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4568,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4619,11 +4601,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4656,11 +4634,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4693,11 +4667,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4730,11 +4700,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4767,11 +4733,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4804,11 +4766,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4841,11 +4799,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4878,11 +4832,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4915,11 +4865,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4952,11 +4898,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4989,11 +4931,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5022,16 +4960,14 @@
         <v>216677.8357957132</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
       <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -5453,7 +5389,7 @@
         <v>106091.4940957133</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5486,7 +5422,7 @@
         <v>95138.48859571326</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5519,7 +5455,7 @@
         <v>126887.8912957133</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5552,7 +5488,7 @@
         <v>126887.8912957133</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5585,7 +5521,7 @@
         <v>106152.9138957133</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5618,7 +5554,7 @@
         <v>122692.8865957133</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5651,7 +5587,7 @@
         <v>122692.8865957133</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5684,7 +5620,7 @@
         <v>121899.8919957132</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5717,7 +5653,7 @@
         <v>147601.3367957133</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5750,7 +5686,7 @@
         <v>147601.3367957133</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5783,7 +5719,7 @@
         <v>147601.3367957133</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5816,7 +5752,7 @@
         <v>147601.3367957133</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5849,7 +5785,7 @@
         <v>147601.3367957133</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5882,7 +5818,7 @@
         <v>147672.4416957133</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5915,7 +5851,7 @@
         <v>147672.4416957133</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -9083,7 +9019,7 @@
         <v>113922.0225181326</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9457,6 +9393,6 @@
       <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest FX.xlsx
+++ b/BackTest/2020-01-16 BackTest FX.xlsx
@@ -484,7 +484,7 @@
         <v>91980.47359444099</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>121081.017694441</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>148281.017694441</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>201281.017694441</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>200267.865194441</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>201870.930394441</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>204182.930394441</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>204182.930394441</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>196255.573094441</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>196255.573094441</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>192728.733294441</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>189436.886094441</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>189436.886094441</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -2695,14 +2695,10 @@
         <v>-215449.119105559</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>60.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2732,409 +2728,347 @@
         <v>-186516.062005559</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K71" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>61</v>
+      </c>
+      <c r="C72" t="n">
+        <v>61.58</v>
+      </c>
+      <c r="D72" t="n">
+        <v>61.58</v>
+      </c>
+      <c r="E72" t="n">
+        <v>61</v>
+      </c>
+      <c r="F72" t="n">
+        <v>56022.6543</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-130493.407705559</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D73" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="E73" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>360</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-130133.407705559</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>17777</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-130133.407705559</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="C75" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D75" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="E75" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13778.9712</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-130133.407705559</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="C76" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D76" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="E76" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F76" t="n">
+        <v>40564.1053</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-130133.407705559</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>62</v>
+      </c>
+      <c r="C77" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="D77" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="E77" t="n">
+        <v>62</v>
+      </c>
+      <c r="F77" t="n">
+        <v>499.4710367203701</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-129633.9366688387</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>62</v>
+      </c>
+      <c r="C78" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>62</v>
+      </c>
+      <c r="E78" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-151633.9366688387</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>26904.2712</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-151633.9366688387</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D80" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1545.2525</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-151633.9366688387</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="C81" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="E81" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>50009</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-101624.9366688387</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>61</v>
-      </c>
-      <c r="C72" t="n">
-        <v>61.58</v>
-      </c>
-      <c r="D72" t="n">
-        <v>61.58</v>
-      </c>
-      <c r="E72" t="n">
-        <v>61</v>
-      </c>
-      <c r="F72" t="n">
-        <v>56022.6543</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-130493.407705559</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="C73" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="D73" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="E73" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="F73" t="n">
-        <v>360</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-130133.407705559</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="C74" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="D74" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="E74" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17777</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-130133.407705559</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="C75" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="D75" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="E75" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="F75" t="n">
-        <v>13778.9712</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-130133.407705559</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="C76" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="D76" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="E76" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="F76" t="n">
-        <v>40564.1053</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-130133.407705559</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>62</v>
-      </c>
-      <c r="C77" t="n">
-        <v>62.69</v>
-      </c>
-      <c r="D77" t="n">
-        <v>62.69</v>
-      </c>
-      <c r="E77" t="n">
-        <v>62</v>
-      </c>
-      <c r="F77" t="n">
-        <v>499.4710367203701</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-129633.9366688387</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>62</v>
-      </c>
-      <c r="C78" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="D78" t="n">
-        <v>62</v>
-      </c>
-      <c r="E78" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="F78" t="n">
-        <v>22000</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-151633.9366688387</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="C79" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="D79" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="E79" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="F79" t="n">
-        <v>26904.2712</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-151633.9366688387</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="C80" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="D80" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="E80" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1545.2525</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-151633.9366688387</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="C81" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="D81" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="E81" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="F81" t="n">
-        <v>50009</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-101624.9366688387</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3166,9 +3100,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>60.9</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3205,9 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>60.9</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3244,9 +3174,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>60.9</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3283,9 +3211,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>60.9</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,12 +3245,12 @@
         <v>-180768.5486688387</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>60.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3358,12 +3284,12 @@
         <v>-180768.5486688387</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>60.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>62.06</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3402,9 +3328,7 @@
       <c r="I88" t="n">
         <v>62.06</v>
       </c>
-      <c r="J88" t="n">
-        <v>60.9</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3443,9 +3367,7 @@
       <c r="I89" t="n">
         <v>61</v>
       </c>
-      <c r="J89" t="n">
-        <v>60.9</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3484,9 +3406,7 @@
       <c r="I90" t="n">
         <v>62.07</v>
       </c>
-      <c r="J90" t="n">
-        <v>60.9</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3525,9 +3445,7 @@
       <c r="I91" t="n">
         <v>61.01</v>
       </c>
-      <c r="J91" t="n">
-        <v>60.9</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3566,9 +3484,7 @@
       <c r="I92" t="n">
         <v>61.99</v>
       </c>
-      <c r="J92" t="n">
-        <v>60.9</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3602,12 +3518,12 @@
         <v>-146414.4501739793</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>60.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3641,12 +3557,12 @@
         <v>-144324.6858739793</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>60.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>64</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,12 +3596,12 @@
         <v>-99559.9954739793</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>60.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>64.95999999999999</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,12 +3635,12 @@
         <v>-81153.5674739793</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>60.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,12 +3674,12 @@
         <v>-79398.21217397931</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>60.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>65</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,1045 +3713,1165 @@
         <v>-55037.3848739793</v>
       </c>
       <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="D99" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="E99" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="F99" t="n">
+        <v>29255.66</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-25781.7248739793</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="C100" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="D100" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="F100" t="n">
+        <v>99468.24796969253</v>
+      </c>
+      <c r="G100" t="n">
+        <v>73686.52309571323</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="C101" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="D101" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="E101" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2031.835</v>
+      </c>
+      <c r="G101" t="n">
+        <v>73686.52309571323</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>67.23</v>
+      </c>
+      <c r="C102" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D102" t="n">
+        <v>67.23</v>
+      </c>
+      <c r="E102" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F102" t="n">
+        <v>87712.3817</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-14025.85860428677</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C103" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D103" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E103" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1755.718</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-14025.85860428677</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D104" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E104" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7746.0928</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-14025.85860428677</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D105" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E105" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2995.3715</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-17021.23010428677</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="C106" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="D106" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="E106" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="F106" t="n">
+        <v>187355.9282</v>
+      </c>
+      <c r="G106" t="n">
+        <v>170334.6980957132</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E107" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>18485.7171</v>
+      </c>
+      <c r="G107" t="n">
+        <v>188820.4151957132</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>68</v>
+      </c>
+      <c r="C108" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="D108" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>68</v>
+      </c>
+      <c r="F108" t="n">
+        <v>28808.3138</v>
+      </c>
+      <c r="G108" t="n">
+        <v>160012.1013957132</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="C109" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="D109" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="E109" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3269.4951</v>
+      </c>
+      <c r="G109" t="n">
+        <v>160012.1013957132</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="C110" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="D110" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="E110" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="F110" t="n">
+        <v>73072.6073</v>
+      </c>
+      <c r="G110" t="n">
+        <v>86939.49409571322</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="C111" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D111" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="E111" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5838.7845</v>
+      </c>
+      <c r="G111" t="n">
+        <v>81100.70959571323</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C112" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="D112" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="E112" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>9872.293900000001</v>
+      </c>
+      <c r="G112" t="n">
+        <v>90973.00349571323</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="F113" t="n">
+        <v>14264.1239</v>
+      </c>
+      <c r="G113" t="n">
+        <v>105237.1273957132</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>66.44</v>
+      </c>
+      <c r="C114" t="n">
+        <v>66.43000000000001</v>
+      </c>
+      <c r="D114" t="n">
+        <v>66.44</v>
+      </c>
+      <c r="E114" t="n">
+        <v>66.43000000000001</v>
+      </c>
+      <c r="F114" t="n">
+        <v>14954.8439</v>
+      </c>
+      <c r="G114" t="n">
+        <v>120191.9712957132</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="C115" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3740.9882</v>
+      </c>
+      <c r="G115" t="n">
+        <v>123932.9594957132</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="C116" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="D116" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="E116" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1347.3971</v>
+      </c>
+      <c r="G116" t="n">
+        <v>122585.5623957132</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="C117" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="D117" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="E117" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4051.5566</v>
+      </c>
+      <c r="G117" t="n">
+        <v>118534.0057957132</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G118" t="n">
+        <v>119664.0057957132</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>186</v>
+      </c>
+      <c r="G119" t="n">
+        <v>119664.0057957132</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1633</v>
+      </c>
+      <c r="G120" t="n">
+        <v>119664.0057957132</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="C121" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="D121" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="E121" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>121664.0057957132</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="C122" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="D122" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="E122" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3446.55</v>
+      </c>
+      <c r="G122" t="n">
+        <v>125110.5557957132</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="C123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="E123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>24464.5002</v>
+      </c>
+      <c r="G123" t="n">
+        <v>100646.0555957132</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="D124" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="E124" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>35.2802</v>
+      </c>
+      <c r="G124" t="n">
+        <v>100681.3357957132</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="C125" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="D125" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="E125" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="F125" t="n">
+        <v>15632.8944</v>
+      </c>
+      <c r="G125" t="n">
+        <v>85048.44139571323</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>67</v>
+      </c>
+      <c r="D126" t="n">
+        <v>67</v>
+      </c>
+      <c r="E126" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2812.3136</v>
+      </c>
+      <c r="G126" t="n">
+        <v>87860.75499571323</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>67</v>
+      </c>
+      <c r="C127" t="n">
+        <v>67</v>
+      </c>
+      <c r="D127" t="n">
+        <v>67</v>
+      </c>
+      <c r="E127" t="n">
+        <v>67</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4794.4363</v>
+      </c>
+      <c r="G127" t="n">
+        <v>87860.75499571323</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7329.2627</v>
+      </c>
+      <c r="G128" t="n">
+        <v>95190.01769571324</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>67.59</v>
+      </c>
+      <c r="C129" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>67.59</v>
+      </c>
+      <c r="F129" t="n">
+        <v>23895.8956</v>
+      </c>
+      <c r="G129" t="n">
+        <v>119085.9132957132</v>
+      </c>
+      <c r="H129" t="n">
         <v>2</v>
       </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1.07628078817734</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.086666666666667</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>65.84999999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="D99" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="E99" t="n">
-        <v>65.84999999999999</v>
-      </c>
-      <c r="F99" t="n">
-        <v>29255.66</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-25781.7248739793</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="C100" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="D100" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E100" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="F100" t="n">
-        <v>99468.24796969253</v>
-      </c>
-      <c r="G100" t="n">
-        <v>73686.52309571323</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="C101" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="D101" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="E101" t="n">
-        <v>68.28</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2031.835</v>
-      </c>
-      <c r="G101" t="n">
-        <v>73686.52309571323</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>67.23</v>
-      </c>
-      <c r="C102" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="D102" t="n">
-        <v>67.23</v>
-      </c>
-      <c r="E102" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="F102" t="n">
-        <v>87712.3817</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-14025.85860428677</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="C103" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="D103" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="E103" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1755.718</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-14025.85860428677</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="C104" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="D104" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="E104" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="F104" t="n">
-        <v>7746.0928</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-14025.85860428677</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C105" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D105" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E105" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2995.3715</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-17021.23010428677</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>66.91</v>
-      </c>
-      <c r="C106" t="n">
-        <v>67.02</v>
-      </c>
-      <c r="D106" t="n">
-        <v>67.02</v>
-      </c>
-      <c r="E106" t="n">
-        <v>66.91</v>
-      </c>
-      <c r="F106" t="n">
-        <v>187355.9282</v>
-      </c>
-      <c r="G106" t="n">
-        <v>170334.6980957132</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="C107" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D107" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="E107" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="F107" t="n">
-        <v>18485.7171</v>
-      </c>
-      <c r="G107" t="n">
-        <v>188820.4151957132</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>68</v>
-      </c>
-      <c r="C108" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="D108" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="E108" t="n">
-        <v>68</v>
-      </c>
-      <c r="F108" t="n">
-        <v>28808.3138</v>
-      </c>
-      <c r="G108" t="n">
-        <v>160012.1013957132</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="C109" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="D109" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="E109" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="F109" t="n">
-        <v>3269.4951</v>
-      </c>
-      <c r="G109" t="n">
-        <v>160012.1013957132</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="C110" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="D110" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="E110" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="F110" t="n">
-        <v>73072.6073</v>
-      </c>
-      <c r="G110" t="n">
-        <v>86939.49409571322</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="C111" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="D111" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="E111" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F111" t="n">
-        <v>5838.7845</v>
-      </c>
-      <c r="G111" t="n">
-        <v>81100.70959571323</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="C112" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="D112" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="E112" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F112" t="n">
-        <v>9872.293900000001</v>
-      </c>
-      <c r="G112" t="n">
-        <v>90973.00349571323</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="C113" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="D113" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="E113" t="n">
-        <v>66.15000000000001</v>
-      </c>
-      <c r="F113" t="n">
-        <v>14264.1239</v>
-      </c>
-      <c r="G113" t="n">
-        <v>105237.1273957132</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>66.44</v>
-      </c>
-      <c r="C114" t="n">
-        <v>66.43000000000001</v>
-      </c>
-      <c r="D114" t="n">
-        <v>66.44</v>
-      </c>
-      <c r="E114" t="n">
-        <v>66.43000000000001</v>
-      </c>
-      <c r="F114" t="n">
-        <v>14954.8439</v>
-      </c>
-      <c r="G114" t="n">
-        <v>120191.9712957132</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="C115" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="F115" t="n">
-        <v>3740.9882</v>
-      </c>
-      <c r="G115" t="n">
-        <v>123932.9594957132</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="C116" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="D116" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="E116" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1347.3971</v>
-      </c>
-      <c r="G116" t="n">
-        <v>122585.5623957132</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="C117" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="D117" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="E117" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="F117" t="n">
-        <v>4051.5566</v>
-      </c>
-      <c r="G117" t="n">
-        <v>118534.0057957132</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D118" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E118" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1130</v>
-      </c>
-      <c r="G118" t="n">
-        <v>119664.0057957132</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D119" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F119" t="n">
-        <v>186</v>
-      </c>
-      <c r="G119" t="n">
-        <v>119664.0057957132</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C120" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D120" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E120" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1633</v>
-      </c>
-      <c r="G120" t="n">
-        <v>119664.0057957132</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="C121" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="D121" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="E121" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G121" t="n">
-        <v>121664.0057957132</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="C122" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="D122" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="E122" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3446.55</v>
-      </c>
-      <c r="G122" t="n">
-        <v>125110.5557957132</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="C123" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="E123" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>24464.5002</v>
-      </c>
-      <c r="G123" t="n">
-        <v>100646.0555957132</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="D124" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="E124" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>35.2802</v>
-      </c>
-      <c r="G124" t="n">
-        <v>100681.3357957132</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="C125" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="D125" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="E125" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="F125" t="n">
-        <v>15632.8944</v>
-      </c>
-      <c r="G125" t="n">
-        <v>85048.44139571323</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="C126" t="n">
-        <v>67</v>
-      </c>
-      <c r="D126" t="n">
-        <v>67</v>
-      </c>
-      <c r="E126" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2812.3136</v>
-      </c>
-      <c r="G126" t="n">
-        <v>87860.75499571323</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>67</v>
-      </c>
-      <c r="C127" t="n">
-        <v>67</v>
-      </c>
-      <c r="D127" t="n">
-        <v>67</v>
-      </c>
-      <c r="E127" t="n">
-        <v>67</v>
-      </c>
-      <c r="F127" t="n">
-        <v>4794.4363</v>
-      </c>
-      <c r="G127" t="n">
-        <v>87860.75499571323</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="C128" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="F128" t="n">
-        <v>7329.2627</v>
-      </c>
-      <c r="G128" t="n">
-        <v>95190.01769571324</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>67.59</v>
-      </c>
-      <c r="C129" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E129" t="n">
-        <v>67.59</v>
-      </c>
-      <c r="F129" t="n">
-        <v>23895.8956</v>
-      </c>
-      <c r="G129" t="n">
-        <v>119085.9132957132</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -4861,7 +4897,7 @@
         <v>136330.8036957132</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4894,7 +4930,7 @@
         <v>136330.8036957132</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4927,7 +4963,7 @@
         <v>216677.8357957132</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4960,7 +4996,7 @@
         <v>216677.8357957132</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4993,7 +5029,7 @@
         <v>207874.3949957132</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5026,7 +5062,7 @@
         <v>207874.3949957132</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5059,7 +5095,7 @@
         <v>207874.3949957132</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5092,7 +5128,7 @@
         <v>207874.3949957132</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5125,7 +5161,7 @@
         <v>204930.2898957132</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -9019,7 +9055,7 @@
         <v>113922.0225181326</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest FX.xlsx
+++ b/BackTest/2020-01-16 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M267"/>
+  <dimension ref="A1:L267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>14200</v>
       </c>
       <c r="G2" t="n">
-        <v>64980.47359444099</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>27000</v>
       </c>
       <c r="G3" t="n">
-        <v>91980.47359444099</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1300</v>
       </c>
       <c r="G4" t="n">
-        <v>91980.47359444099</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>6966.701905559006</v>
       </c>
       <c r="G5" t="n">
-        <v>98947.1755</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>22133.84219444099</v>
       </c>
       <c r="G6" t="n">
-        <v>121081.017694441</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>27200</v>
       </c>
       <c r="G7" t="n">
-        <v>148281.017694441</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>53000</v>
       </c>
       <c r="G8" t="n">
-        <v>201281.017694441</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1043</v>
       </c>
       <c r="G9" t="n">
-        <v>201281.017694441</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>0.7020576526022703</v>
       </c>
       <c r="G10" t="n">
-        <v>201281.017694441</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2607.297942347398</v>
       </c>
       <c r="G11" t="n">
-        <v>201281.017694441</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1013.1525</v>
       </c>
       <c r="G12" t="n">
-        <v>200267.865194441</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1603.0652</v>
       </c>
       <c r="G13" t="n">
-        <v>201870.930394441</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2618</v>
       </c>
       <c r="G14" t="n">
-        <v>204488.930394441</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>306</v>
       </c>
       <c r="G15" t="n">
-        <v>204182.930394441</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>34.5191</v>
       </c>
       <c r="G16" t="n">
-        <v>204182.930394441</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>209.6648</v>
       </c>
       <c r="G17" t="n">
-        <v>204182.930394441</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>7927.3573</v>
       </c>
       <c r="G18" t="n">
-        <v>196255.573094441</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>7461.669905140625</v>
       </c>
       <c r="G19" t="n">
-        <v>196255.573094441</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>196263.573094441</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3534.8398</v>
       </c>
       <c r="G21" t="n">
-        <v>192728.733294441</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3291.8472</v>
       </c>
       <c r="G22" t="n">
-        <v>189436.886094441</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>160.887</v>
       </c>
       <c r="G23" t="n">
-        <v>189436.886094441</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>11864.8106</v>
       </c>
       <c r="G24" t="n">
-        <v>177572.075494441</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>309.8413</v>
       </c>
       <c r="G25" t="n">
-        <v>177572.075494441</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1359.719</v>
       </c>
       <c r="G26" t="n">
-        <v>176212.356494441</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3155.4125</v>
       </c>
       <c r="G27" t="n">
-        <v>173056.943994441</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>4409.5693</v>
       </c>
       <c r="G28" t="n">
-        <v>168647.374694441</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1451.039</v>
       </c>
       <c r="G29" t="n">
-        <v>167196.335694441</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>14813.4079</v>
       </c>
       <c r="G30" t="n">
-        <v>182009.743594441</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>302.4025</v>
       </c>
       <c r="G31" t="n">
-        <v>181707.341094441</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1445.8395</v>
       </c>
       <c r="G32" t="n">
-        <v>181707.341094441</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>852.7539</v>
       </c>
       <c r="G33" t="n">
-        <v>181707.341094441</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>7229.4084</v>
       </c>
       <c r="G34" t="n">
-        <v>174477.932694441</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>167.1162</v>
       </c>
       <c r="G35" t="n">
-        <v>174645.048894441</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>615</v>
       </c>
       <c r="G36" t="n">
-        <v>174645.048894441</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>324</v>
       </c>
       <c r="G37" t="n">
-        <v>174645.048894441</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>727</v>
       </c>
       <c r="G38" t="n">
-        <v>173918.048894441</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>81.748</v>
       </c>
       <c r="G39" t="n">
-        <v>173918.048894441</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>7970.282</v>
       </c>
       <c r="G40" t="n">
-        <v>181888.330894441</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>72281.6586</v>
       </c>
       <c r="G41" t="n">
-        <v>109606.672294441</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>39416.5327</v>
       </c>
       <c r="G42" t="n">
-        <v>70190.13959444099</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>21882.0883</v>
       </c>
       <c r="G43" t="n">
-        <v>48308.05129444099</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>5367.83</v>
       </c>
       <c r="G44" t="n">
-        <v>48308.05129444099</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1637.072</v>
       </c>
       <c r="G45" t="n">
-        <v>46670.97929444099</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1095.7618</v>
       </c>
       <c r="G46" t="n">
-        <v>47766.74109444099</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>19077.1461</v>
       </c>
       <c r="G47" t="n">
-        <v>28689.59499444098</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>9</v>
       </c>
       <c r="G48" t="n">
-        <v>28698.59499444098</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>10.5498</v>
       </c>
       <c r="G49" t="n">
-        <v>28709.14479444098</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>55968.2879</v>
       </c>
       <c r="G50" t="n">
-        <v>-27259.14310555902</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1092.3427</v>
       </c>
       <c r="G51" t="n">
-        <v>-28351.48580555902</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>-28341.48580555902</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>17996.9859</v>
       </c>
       <c r="G53" t="n">
-        <v>-28341.48580555902</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>98774.13860000001</v>
       </c>
       <c r="G54" t="n">
-        <v>-127115.624405559</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>-127105.624405559</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>389.1167</v>
       </c>
       <c r="G56" t="n">
-        <v>-127494.741105559</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>34071.0635</v>
       </c>
       <c r="G57" t="n">
-        <v>-161565.804605559</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>4747.2535</v>
       </c>
       <c r="G58" t="n">
-        <v>-166313.058105559</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>2754.3242</v>
       </c>
       <c r="G59" t="n">
-        <v>-163558.733905559</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>108.0354</v>
       </c>
       <c r="G60" t="n">
-        <v>-163558.733905559</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>28527.4953</v>
       </c>
       <c r="G61" t="n">
-        <v>-192086.229205559</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1500</v>
       </c>
       <c r="G62" t="n">
-        <v>-190586.229205559</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2812.6433</v>
       </c>
       <c r="G63" t="n">
-        <v>-187773.585905559</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>12314.4668</v>
       </c>
       <c r="G64" t="n">
-        <v>-175459.119105559</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>7412.1484</v>
       </c>
       <c r="G65" t="n">
-        <v>-175459.119105559</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,21 @@
         <v>20000</v>
       </c>
       <c r="G66" t="n">
-        <v>-195459.119105559</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>60.99</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2399,21 @@
         <v>20000</v>
       </c>
       <c r="G67" t="n">
-        <v>-215459.119105559</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>60.21</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2435,21 @@
         <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>-215449.119105559</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>60.11</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2471,21 @@
         <v>13778.9712</v>
       </c>
       <c r="G69" t="n">
-        <v>-215449.119105559</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>60.9</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2507,19 @@
         <v>1135.5021</v>
       </c>
       <c r="G70" t="n">
-        <v>-215449.119105559</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2541,19 @@
         <v>28933.0571</v>
       </c>
       <c r="G71" t="n">
-        <v>-186516.062005559</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2575,19 @@
         <v>56022.6543</v>
       </c>
       <c r="G72" t="n">
-        <v>-130493.407705559</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2609,19 @@
         <v>360</v>
       </c>
       <c r="G73" t="n">
-        <v>-130133.407705559</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2643,19 @@
         <v>17777</v>
       </c>
       <c r="G74" t="n">
-        <v>-130133.407705559</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2677,19 @@
         <v>13778.9712</v>
       </c>
       <c r="G75" t="n">
-        <v>-130133.407705559</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2711,19 @@
         <v>40564.1053</v>
       </c>
       <c r="G76" t="n">
-        <v>-130133.407705559</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2745,19 @@
         <v>499.4710367203701</v>
       </c>
       <c r="G77" t="n">
-        <v>-129633.9366688387</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2779,19 @@
         <v>22000</v>
       </c>
       <c r="G78" t="n">
-        <v>-151633.9366688387</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2813,19 @@
         <v>26904.2712</v>
       </c>
       <c r="G79" t="n">
-        <v>-151633.9366688387</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2847,19 @@
         <v>1545.2525</v>
       </c>
       <c r="G80" t="n">
-        <v>-151633.9366688387</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,24 +2881,19 @@
         <v>50009</v>
       </c>
       <c r="G81" t="n">
-        <v>-101624.9366688387</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3094,22 +2915,19 @@
         <v>73621.5073</v>
       </c>
       <c r="G82" t="n">
-        <v>-175246.4439688387</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3131,22 +2949,19 @@
         <v>5245.5706</v>
       </c>
       <c r="G83" t="n">
-        <v>-180492.0145688387</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3168,22 +2983,19 @@
         <v>4343.7821</v>
       </c>
       <c r="G84" t="n">
-        <v>-180492.0145688387</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3205,22 +3017,19 @@
         <v>9</v>
       </c>
       <c r="G85" t="n">
-        <v>-180483.0145688387</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3242,24 +3051,19 @@
         <v>285.5341</v>
       </c>
       <c r="G86" t="n">
-        <v>-180768.5486688387</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>62.29</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3281,24 +3085,19 @@
         <v>74.5838</v>
       </c>
       <c r="G87" t="n">
-        <v>-180768.5486688387</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>62.06</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3320,24 +3119,19 @@
         <v>3925.4162</v>
       </c>
       <c r="G88" t="n">
-        <v>-184693.9648688387</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>62.06</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3359,24 +3153,19 @@
         <v>9</v>
       </c>
       <c r="G89" t="n">
-        <v>-184684.9648688387</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>61</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3398,24 +3187,19 @@
         <v>5108.6068</v>
       </c>
       <c r="G90" t="n">
-        <v>-189793.5716688387</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3437,24 +3221,19 @@
         <v>5108.6068</v>
       </c>
       <c r="G91" t="n">
-        <v>-184684.9648688387</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>61.01</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3476,24 +3255,19 @@
         <v>22852.9305</v>
       </c>
       <c r="G92" t="n">
-        <v>-161832.0343688387</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>61.99</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3515,24 +3289,19 @@
         <v>15417.58419485938</v>
       </c>
       <c r="G93" t="n">
-        <v>-146414.4501739793</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3554,24 +3323,19 @@
         <v>2089.7643</v>
       </c>
       <c r="G94" t="n">
-        <v>-144324.6858739793</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>64</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3593,24 +3357,19 @@
         <v>44764.6904</v>
       </c>
       <c r="G95" t="n">
-        <v>-99559.9954739793</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>64.95999999999999</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3632,24 +3391,19 @@
         <v>18406.428</v>
       </c>
       <c r="G96" t="n">
-        <v>-81153.5674739793</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>64.98</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3671,24 +3425,19 @@
         <v>1755.3553</v>
       </c>
       <c r="G97" t="n">
-        <v>-79398.21217397931</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>65</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3710,24 +3459,19 @@
         <v>24360.8273</v>
       </c>
       <c r="G98" t="n">
-        <v>-55037.3848739793</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65.15000000000001</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3749,22 +3493,19 @@
         <v>29255.66</v>
       </c>
       <c r="G99" t="n">
-        <v>-25781.7248739793</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3786,22 +3527,19 @@
         <v>99468.24796969253</v>
       </c>
       <c r="G100" t="n">
-        <v>73686.52309571323</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3823,22 +3561,19 @@
         <v>2031.835</v>
       </c>
       <c r="G101" t="n">
-        <v>73686.52309571323</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3860,22 +3595,19 @@
         <v>87712.3817</v>
       </c>
       <c r="G102" t="n">
-        <v>-14025.85860428677</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3897,22 +3629,19 @@
         <v>1755.718</v>
       </c>
       <c r="G103" t="n">
-        <v>-14025.85860428677</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3934,22 +3663,19 @@
         <v>7746.0928</v>
       </c>
       <c r="G104" t="n">
-        <v>-14025.85860428677</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3971,22 +3697,19 @@
         <v>2995.3715</v>
       </c>
       <c r="G105" t="n">
-        <v>-17021.23010428677</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4008,22 +3731,19 @@
         <v>187355.9282</v>
       </c>
       <c r="G106" t="n">
-        <v>170334.6980957132</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4045,22 +3765,19 @@
         <v>18485.7171</v>
       </c>
       <c r="G107" t="n">
-        <v>188820.4151957132</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4082,22 +3799,19 @@
         <v>28808.3138</v>
       </c>
       <c r="G108" t="n">
-        <v>160012.1013957132</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4119,22 +3833,17 @@
         <v>3269.4951</v>
       </c>
       <c r="G109" t="n">
-        <v>160012.1013957132</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4156,22 +3865,15 @@
         <v>73072.6073</v>
       </c>
       <c r="G110" t="n">
-        <v>86939.49409571322</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4193,22 +3895,15 @@
         <v>5838.7845</v>
       </c>
       <c r="G111" t="n">
-        <v>81100.70959571323</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4230,22 +3925,15 @@
         <v>9872.293900000001</v>
       </c>
       <c r="G112" t="n">
-        <v>90973.00349571323</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4267,22 +3955,15 @@
         <v>14264.1239</v>
       </c>
       <c r="G113" t="n">
-        <v>105237.1273957132</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4304,22 +3985,15 @@
         <v>14954.8439</v>
       </c>
       <c r="G114" t="n">
-        <v>120191.9712957132</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4341,22 +4015,15 @@
         <v>3740.9882</v>
       </c>
       <c r="G115" t="n">
-        <v>123932.9594957132</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4378,22 +4045,15 @@
         <v>1347.3971</v>
       </c>
       <c r="G116" t="n">
-        <v>122585.5623957132</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4415,22 +4075,15 @@
         <v>4051.5566</v>
       </c>
       <c r="G117" t="n">
-        <v>118534.0057957132</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4452,22 +4105,15 @@
         <v>1130</v>
       </c>
       <c r="G118" t="n">
-        <v>119664.0057957132</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4489,22 +4135,15 @@
         <v>186</v>
       </c>
       <c r="G119" t="n">
-        <v>119664.0057957132</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4526,22 +4165,15 @@
         <v>1633</v>
       </c>
       <c r="G120" t="n">
-        <v>119664.0057957132</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4563,22 +4195,15 @@
         <v>2000</v>
       </c>
       <c r="G121" t="n">
-        <v>121664.0057957132</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4600,22 +4225,15 @@
         <v>3446.55</v>
       </c>
       <c r="G122" t="n">
-        <v>125110.5557957132</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4637,22 +4255,15 @@
         <v>24464.5002</v>
       </c>
       <c r="G123" t="n">
-        <v>100646.0555957132</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4674,22 +4285,15 @@
         <v>35.2802</v>
       </c>
       <c r="G124" t="n">
-        <v>100681.3357957132</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4711,22 +4315,15 @@
         <v>15632.8944</v>
       </c>
       <c r="G125" t="n">
-        <v>85048.44139571323</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4748,22 +4345,15 @@
         <v>2812.3136</v>
       </c>
       <c r="G126" t="n">
-        <v>87860.75499571323</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4785,22 +4375,15 @@
         <v>4794.4363</v>
       </c>
       <c r="G127" t="n">
-        <v>87860.75499571323</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4822,22 +4405,15 @@
         <v>7329.2627</v>
       </c>
       <c r="G128" t="n">
-        <v>95190.01769571324</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4859,20 +4435,15 @@
         <v>23895.8956</v>
       </c>
       <c r="G129" t="n">
-        <v>119085.9132957132</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K129" t="n">
+        <v>1</v>
       </c>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4894,18 +4465,15 @@
         <v>17244.8904</v>
       </c>
       <c r="G130" t="n">
-        <v>136330.8036957132</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4927,18 +4495,15 @@
         <v>459.9987</v>
       </c>
       <c r="G131" t="n">
-        <v>136330.8036957132</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4960,18 +4525,15 @@
         <v>80347.0321</v>
       </c>
       <c r="G132" t="n">
-        <v>216677.8357957132</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4993,18 +4555,15 @@
         <v>51961.9925</v>
       </c>
       <c r="G133" t="n">
-        <v>216677.8357957132</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5026,18 +4585,15 @@
         <v>8803.4408</v>
       </c>
       <c r="G134" t="n">
-        <v>207874.3949957132</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5059,18 +4615,15 @@
         <v>661</v>
       </c>
       <c r="G135" t="n">
-        <v>207874.3949957132</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5092,18 +4645,15 @@
         <v>158</v>
       </c>
       <c r="G136" t="n">
-        <v>207874.3949957132</v>
-      </c>
-      <c r="H136" t="n">
         <v>2</v>
       </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5125,18 +4675,15 @@
         <v>644.4046</v>
       </c>
       <c r="G137" t="n">
-        <v>207874.3949957132</v>
-      </c>
-      <c r="H137" t="n">
         <v>2</v>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5158,18 +4705,15 @@
         <v>2944.1051</v>
       </c>
       <c r="G138" t="n">
-        <v>204930.2898957132</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5191,18 +4735,15 @@
         <v>24604.6989</v>
       </c>
       <c r="G139" t="n">
-        <v>180325.5909957133</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5224,18 +4765,15 @@
         <v>29568.7469</v>
       </c>
       <c r="G140" t="n">
-        <v>150756.8440957133</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5257,18 +4795,15 @@
         <v>19.9369</v>
       </c>
       <c r="G141" t="n">
-        <v>150776.7809957133</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5290,18 +4825,15 @@
         <v>33195.7082</v>
       </c>
       <c r="G142" t="n">
-        <v>117581.0727957133</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5323,18 +4855,15 @@
         <v>9</v>
       </c>
       <c r="G143" t="n">
-        <v>117581.0727957133</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5356,18 +4885,15 @@
         <v>160.5298</v>
       </c>
       <c r="G144" t="n">
-        <v>117741.6025957133</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5389,18 +4915,15 @@
         <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>117751.6025957133</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5422,18 +4945,15 @@
         <v>11660.1085</v>
       </c>
       <c r="G146" t="n">
-        <v>106091.4940957133</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5455,18 +4975,15 @@
         <v>10953.0055</v>
       </c>
       <c r="G147" t="n">
-        <v>95138.48859571326</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5488,18 +5005,15 @@
         <v>31749.4027</v>
       </c>
       <c r="G148" t="n">
-        <v>126887.8912957133</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5521,18 +5035,15 @@
         <v>155.1321</v>
       </c>
       <c r="G149" t="n">
-        <v>126887.8912957133</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5554,18 +5065,15 @@
         <v>20734.9774</v>
       </c>
       <c r="G150" t="n">
-        <v>106152.9138957133</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5587,18 +5095,15 @@
         <v>16539.9727</v>
       </c>
       <c r="G151" t="n">
-        <v>122692.8865957133</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5620,18 +5125,15 @@
         <v>2436.9341</v>
       </c>
       <c r="G152" t="n">
-        <v>122692.8865957133</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5653,18 +5155,15 @@
         <v>792.9946</v>
       </c>
       <c r="G153" t="n">
-        <v>121899.8919957132</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5686,18 +5185,15 @@
         <v>25701.4448</v>
       </c>
       <c r="G154" t="n">
-        <v>147601.3367957133</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5719,18 +5215,15 @@
         <v>82547.8239</v>
       </c>
       <c r="G155" t="n">
-        <v>147601.3367957133</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5752,18 +5245,15 @@
         <v>8745.0561</v>
       </c>
       <c r="G156" t="n">
-        <v>147601.3367957133</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5785,18 +5275,15 @@
         <v>551.8819</v>
       </c>
       <c r="G157" t="n">
-        <v>147601.3367957133</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5818,18 +5305,15 @@
         <v>459.9987</v>
       </c>
       <c r="G158" t="n">
-        <v>147601.3367957133</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5851,18 +5335,15 @@
         <v>71.1049</v>
       </c>
       <c r="G159" t="n">
-        <v>147672.4416957133</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5884,18 +5365,15 @@
         <v>70.54649999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>147672.4416957133</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5917,18 +5395,15 @@
         <v>7656.165</v>
       </c>
       <c r="G161" t="n">
-        <v>140016.2766957133</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5950,18 +5425,15 @@
         <v>23103.8225</v>
       </c>
       <c r="G162" t="n">
-        <v>163120.0991957133</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5983,18 +5455,15 @@
         <v>10972.75</v>
       </c>
       <c r="G163" t="n">
-        <v>174092.8491957133</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6016,18 +5485,15 @@
         <v>23637.2357</v>
       </c>
       <c r="G164" t="n">
-        <v>197730.0848957133</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6049,18 +5515,15 @@
         <v>5662.6632</v>
       </c>
       <c r="G165" t="n">
-        <v>203392.7480957133</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6082,18 +5545,15 @@
         <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>203402.7480957133</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6115,18 +5575,15 @@
         <v>2622.5758</v>
       </c>
       <c r="G167" t="n">
-        <v>200780.1722957133</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6148,18 +5605,15 @@
         <v>12632.3975</v>
       </c>
       <c r="G168" t="n">
-        <v>188147.7747957133</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6181,18 +5635,15 @@
         <v>16047.7974</v>
       </c>
       <c r="G169" t="n">
-        <v>188147.7747957133</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6214,18 +5665,15 @@
         <v>1993.0823</v>
       </c>
       <c r="G170" t="n">
-        <v>188147.7747957133</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6247,18 +5695,15 @@
         <v>11141.0516</v>
       </c>
       <c r="G171" t="n">
-        <v>199288.8263957133</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6280,18 +5725,15 @@
         <v>1000</v>
       </c>
       <c r="G172" t="n">
-        <v>198288.8263957133</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6313,18 +5755,15 @@
         <v>8</v>
       </c>
       <c r="G173" t="n">
-        <v>198296.8263957133</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6346,18 +5785,15 @@
         <v>6600.4548</v>
       </c>
       <c r="G174" t="n">
-        <v>191696.3715957133</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6379,18 +5815,15 @@
         <v>6600.4547</v>
       </c>
       <c r="G175" t="n">
-        <v>185095.9168957133</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6412,18 +5845,15 @@
         <v>0.0001</v>
       </c>
       <c r="G176" t="n">
-        <v>185095.9168957133</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6445,18 +5875,15 @@
         <v>8</v>
       </c>
       <c r="G177" t="n">
-        <v>185103.9168957133</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6478,18 +5905,15 @@
         <v>11141.0516</v>
       </c>
       <c r="G178" t="n">
-        <v>173962.8652957133</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6511,18 +5935,15 @@
         <v>153.1628120692296</v>
       </c>
       <c r="G179" t="n">
-        <v>174116.0281077825</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6544,18 +5965,15 @@
         <v>152.7799</v>
       </c>
       <c r="G180" t="n">
-        <v>173963.2482077825</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6577,18 +5995,15 @@
         <v>7968.8886</v>
       </c>
       <c r="G181" t="n">
-        <v>181932.1368077825</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6610,18 +6025,15 @@
         <v>7275.8963</v>
       </c>
       <c r="G182" t="n">
-        <v>174656.2405077825</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6643,18 +6055,15 @@
         <v>498.9018</v>
       </c>
       <c r="G183" t="n">
-        <v>174157.3387077825</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6676,18 +6085,15 @@
         <v>24251.1055</v>
       </c>
       <c r="G184" t="n">
-        <v>149906.2332077825</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6709,18 +6115,15 @@
         <v>677.3366</v>
       </c>
       <c r="G185" t="n">
-        <v>149906.2332077825</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6742,18 +6145,15 @@
         <v>155.6162</v>
       </c>
       <c r="G186" t="n">
-        <v>149906.2332077825</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6775,18 +6175,15 @@
         <v>10920.3488</v>
       </c>
       <c r="G187" t="n">
-        <v>149906.2332077825</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6808,18 +6205,15 @@
         <v>10785.9569</v>
       </c>
       <c r="G188" t="n">
-        <v>149906.2332077825</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6841,18 +6235,15 @@
         <v>19532.9919</v>
       </c>
       <c r="G189" t="n">
-        <v>169439.2251077825</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6874,18 +6265,15 @@
         <v>136.936</v>
       </c>
       <c r="G190" t="n">
-        <v>169439.2251077825</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6907,18 +6295,15 @@
         <v>86.7946</v>
       </c>
       <c r="G191" t="n">
-        <v>169526.0197077825</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6940,18 +6325,15 @@
         <v>13125.5314</v>
       </c>
       <c r="G192" t="n">
-        <v>156400.4883077825</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6973,18 +6355,15 @@
         <v>25054.3789</v>
       </c>
       <c r="G193" t="n">
-        <v>131346.1094077825</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7006,18 +6385,15 @@
         <v>242</v>
       </c>
       <c r="G194" t="n">
-        <v>131104.1094077825</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7039,18 +6415,15 @@
         <v>660.2068</v>
       </c>
       <c r="G195" t="n">
-        <v>130443.9026077825</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7072,18 +6445,15 @@
         <v>157.8322</v>
       </c>
       <c r="G196" t="n">
-        <v>130443.9026077825</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7105,18 +6475,15 @@
         <v>1806.3724</v>
       </c>
       <c r="G197" t="n">
-        <v>128637.5302077825</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7138,18 +6505,15 @@
         <v>55926.0431</v>
       </c>
       <c r="G198" t="n">
-        <v>72711.48710778251</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7171,18 +6535,15 @@
         <v>1319</v>
       </c>
       <c r="G199" t="n">
-        <v>74030.48710778251</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7204,18 +6565,15 @@
         <v>1406.641</v>
       </c>
       <c r="G200" t="n">
-        <v>72623.8461077825</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7237,18 +6595,15 @@
         <v>7682.1651</v>
       </c>
       <c r="G201" t="n">
-        <v>80306.0112077825</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7270,18 +6625,15 @@
         <v>21884.8083</v>
       </c>
       <c r="G202" t="n">
-        <v>58421.2029077825</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7303,18 +6655,15 @@
         <v>6321.632</v>
       </c>
       <c r="G203" t="n">
-        <v>52099.5709077825</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7336,18 +6685,15 @@
         <v>1878.9862</v>
       </c>
       <c r="G204" t="n">
-        <v>53978.5571077825</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7369,18 +6715,15 @@
         <v>7161.6546</v>
       </c>
       <c r="G205" t="n">
-        <v>61140.2117077825</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7402,18 +6745,15 @@
         <v>938.4477000000001</v>
       </c>
       <c r="G206" t="n">
-        <v>62078.6594077825</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7435,18 +6775,15 @@
         <v>10161.8426</v>
       </c>
       <c r="G207" t="n">
-        <v>62078.6594077825</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7468,18 +6805,15 @@
         <v>3336.7096</v>
       </c>
       <c r="G208" t="n">
-        <v>58741.9498077825</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7501,18 +6835,15 @@
         <v>10914.4198</v>
       </c>
       <c r="G209" t="n">
-        <v>69656.3696077825</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7534,18 +6865,15 @@
         <v>4765.4848</v>
       </c>
       <c r="G210" t="n">
-        <v>69656.3696077825</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7567,18 +6895,15 @@
         <v>495.2045</v>
       </c>
       <c r="G211" t="n">
-        <v>70151.57410778251</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7600,18 +6925,15 @@
         <v>134.0909</v>
       </c>
       <c r="G212" t="n">
-        <v>70285.6650077825</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7633,18 +6955,15 @@
         <v>7590.3528</v>
       </c>
       <c r="G213" t="n">
-        <v>77876.0178077825</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7666,18 +6985,15 @@
         <v>11666.7009</v>
       </c>
       <c r="G214" t="n">
-        <v>77876.0178077825</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7699,18 +7015,15 @@
         <v>3047.692</v>
       </c>
       <c r="G215" t="n">
-        <v>77876.0178077825</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7732,18 +7045,15 @@
         <v>1379.4683</v>
       </c>
       <c r="G216" t="n">
-        <v>77876.0178077825</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7765,18 +7075,15 @@
         <v>2656.2963</v>
       </c>
       <c r="G217" t="n">
-        <v>80532.3141077825</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7798,18 +7105,15 @@
         <v>8223.1942</v>
       </c>
       <c r="G218" t="n">
-        <v>80532.3141077825</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7831,18 +7135,15 @@
         <v>77.76049766718506</v>
       </c>
       <c r="G219" t="n">
-        <v>80610.07460544968</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7864,18 +7165,15 @@
         <v>628.147502332815</v>
       </c>
       <c r="G220" t="n">
-        <v>81238.22210778249</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7897,18 +7195,15 @@
         <v>4061.4129</v>
       </c>
       <c r="G221" t="n">
-        <v>85299.63500778249</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7930,18 +7225,15 @@
         <v>222.3084</v>
       </c>
       <c r="G222" t="n">
-        <v>85077.3266077825</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7963,18 +7255,15 @@
         <v>5284.3238</v>
       </c>
       <c r="G223" t="n">
-        <v>79793.0028077825</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7996,18 +7285,15 @@
         <v>30322.1989</v>
       </c>
       <c r="G224" t="n">
-        <v>49470.80390778249</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8029,18 +7315,15 @@
         <v>5782.6401</v>
       </c>
       <c r="G225" t="n">
-        <v>55253.44400778249</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8062,18 +7345,15 @@
         <v>861.6082</v>
       </c>
       <c r="G226" t="n">
-        <v>55253.44400778249</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8095,18 +7375,15 @@
         <v>66964.7016</v>
       </c>
       <c r="G227" t="n">
-        <v>122218.1456077825</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8128,18 +7405,15 @@
         <v>5097.8778</v>
       </c>
       <c r="G228" t="n">
-        <v>122218.1456077825</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8161,18 +7435,15 @@
         <v>10077.3882</v>
       </c>
       <c r="G229" t="n">
-        <v>122218.1456077825</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8194,18 +7465,15 @@
         <v>2618.985</v>
       </c>
       <c r="G230" t="n">
-        <v>122218.1456077825</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8227,18 +7495,15 @@
         <v>2652.959</v>
       </c>
       <c r="G231" t="n">
-        <v>124871.1046077825</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8260,18 +7525,15 @@
         <v>20552.5</v>
       </c>
       <c r="G232" t="n">
-        <v>145423.6046077825</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8293,18 +7555,15 @@
         <v>1162.2904</v>
       </c>
       <c r="G233" t="n">
-        <v>146585.8950077825</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8326,18 +7585,15 @@
         <v>10896.0114</v>
       </c>
       <c r="G234" t="n">
-        <v>135689.8836077825</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8359,18 +7615,15 @@
         <v>1288.584</v>
       </c>
       <c r="G235" t="n">
-        <v>135689.8836077825</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8392,18 +7645,15 @@
         <v>8238.9758</v>
       </c>
       <c r="G236" t="n">
-        <v>135689.8836077825</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8425,18 +7675,15 @@
         <v>1208.8973</v>
       </c>
       <c r="G237" t="n">
-        <v>134480.9863077825</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8458,18 +7705,15 @@
         <v>23807.8328</v>
       </c>
       <c r="G238" t="n">
-        <v>110673.1535077825</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8491,18 +7735,15 @@
         <v>2493.1523</v>
       </c>
       <c r="G239" t="n">
-        <v>113166.3058077825</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8524,18 +7765,15 @@
         <v>2157.8887</v>
       </c>
       <c r="G240" t="n">
-        <v>113166.3058077825</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8557,18 +7795,15 @@
         <v>1532</v>
       </c>
       <c r="G241" t="n">
-        <v>114698.3058077825</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8590,18 +7825,15 @@
         <v>54025.2821</v>
       </c>
       <c r="G242" t="n">
-        <v>114698.3058077825</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8623,18 +7855,15 @@
         <v>47302.1349</v>
       </c>
       <c r="G243" t="n">
-        <v>114698.3058077825</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8656,18 +7885,15 @@
         <v>6189.6567</v>
       </c>
       <c r="G244" t="n">
-        <v>120887.9625077825</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8689,18 +7915,15 @@
         <v>2789</v>
       </c>
       <c r="G245" t="n">
-        <v>123676.9625077825</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8722,18 +7945,15 @@
         <v>15115.2965</v>
       </c>
       <c r="G246" t="n">
-        <v>138792.2590077825</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8755,18 +7975,15 @@
         <v>1449</v>
       </c>
       <c r="G247" t="n">
-        <v>137343.2590077825</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8788,18 +8005,15 @@
         <v>15257.8277</v>
       </c>
       <c r="G248" t="n">
-        <v>122085.4313077825</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8821,18 +8035,15 @@
         <v>2235.0574</v>
       </c>
       <c r="G249" t="n">
-        <v>119850.3739077825</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8854,18 +8065,15 @@
         <v>716</v>
       </c>
       <c r="G250" t="n">
-        <v>120566.3739077825</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8887,18 +8095,15 @@
         <v>7033.8072</v>
       </c>
       <c r="G251" t="n">
-        <v>113532.5667077825</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8920,18 +8125,15 @@
         <v>274.6655</v>
       </c>
       <c r="G252" t="n">
-        <v>113257.9012077825</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8953,18 +8155,15 @@
         <v>153.9171</v>
       </c>
       <c r="G253" t="n">
-        <v>113103.9841077825</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8986,18 +8185,15 @@
         <v>763.0308</v>
       </c>
       <c r="G254" t="n">
-        <v>113867.0149077825</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9019,18 +8215,15 @@
         <v>2235.0574</v>
       </c>
       <c r="G255" t="n">
-        <v>113867.0149077825</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9052,18 +8245,15 @@
         <v>55.00761035007611</v>
       </c>
       <c r="G256" t="n">
-        <v>113922.0225181326</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9085,18 +8275,15 @@
         <v>14269.1921</v>
       </c>
       <c r="G257" t="n">
-        <v>99652.83041813257</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9118,18 +8305,15 @@
         <v>121588.4931</v>
       </c>
       <c r="G258" t="n">
-        <v>-21935.66268186744</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9151,18 +8335,15 @@
         <v>86.7555</v>
       </c>
       <c r="G259" t="n">
-        <v>-21848.90718186744</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9184,18 +8365,15 @@
         <v>778.2722</v>
       </c>
       <c r="G260" t="n">
-        <v>-21070.63498186744</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9217,18 +8395,15 @@
         <v>14498.3383</v>
       </c>
       <c r="G261" t="n">
-        <v>-6572.296681867443</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9250,18 +8425,15 @@
         <v>0.4596</v>
       </c>
       <c r="G262" t="n">
-        <v>-6572.296681867443</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9283,18 +8455,15 @@
         <v>30</v>
       </c>
       <c r="G263" t="n">
-        <v>-6542.296681867443</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9316,18 +8485,15 @@
         <v>7000</v>
       </c>
       <c r="G264" t="n">
-        <v>457.7033181325569</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9349,18 +8515,15 @@
         <v>850</v>
       </c>
       <c r="G265" t="n">
-        <v>457.7033181325569</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9382,18 +8545,15 @@
         <v>1000</v>
       </c>
       <c r="G266" t="n">
-        <v>457.7033181325569</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9415,18 +8575,15 @@
         <v>26</v>
       </c>
       <c r="G267" t="n">
-        <v>431.7033181325569</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
